--- a/Covid_19_Dataset_and_References/References/60.xlsx
+++ b/Covid_19_Dataset_and_References/References/60.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="108">
   <si>
     <t>Doi</t>
   </si>
@@ -428,6 +428,118 @@
   </si>
   <si>
     <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,  Farhoud%Faraji%NULL%0,  Farhoud%Faraji%NULL%0,  Divya P.%Prajapati%NULL%0,  Divya P.%Prajapati%NULL%0,  Christine E.%Boone%NULL%2,  Christine E.%Boone%NULL%0,  Adam S.%DeConde%NULL%0,  Adam S.%DeConde%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective
+To investigate the occurrence of olfactory and gustatory dysfunctions in patients with laboratory-confirmed COVID-19 infection.
+Methods
+id="Par2"&gt;Patients with laboratory-confirmed COVID-19 infection were recruited from 12 European hospitals.
+ The following epidemiological and clinical outcomes have been studied: age, sex, ethnicity, comorbidities, and general and otolaryngological symptoms.
+ Patients completed olfactory and gustatory questionnaires based on the smell and taste component of the National Health and Nutrition Examination Survey, and the short version of the Questionnaire of Olfactory Disorders-Negative Statements (sQOD-NS).
+Results
+id="Par3"&gt;A total of 417 mild-to-moderate COVID-19 patients completed the study (263 females).
+ The most prevalent general symptoms consisted of cough, myalgia, and loss of appetite.
+ Face pain and nasal obstruction were the most disease-related otolaryngological symptoms.
+ 85.6% and 88.0% of patients reported olfactory and gustatory dysfunctions, respectively.
+ There was a significant association between both disorders (p &amp;lt; 0.001).
+ Olfactory dysfunction (OD) appeared before the other symptoms in 11.8% of cases.
+ The sQO-NS scores were significantly lower in patients with anosmia compared with normosmic or hyposmic individuals (p = 0.001).
+ Among the 18.2% of patients without nasal obstruction or rhinorrhea, 79.7% were hyposmic or anosmic.
+ The early olfactory recovery rate was 44.0%.
+ Females were significantly more affected by olfactory and gustatory dysfunctions than males (p = 0.001).
+Conclusion
+id="Par4"&gt;Olfactory and gustatory disorders are prevalent symptoms in European COVID-19 patients, who may not have nasal symptoms.
+ The sudden anosmia or ageusia need to be recognized by the international scientific community as important symptoms of the COVID-19 infection.
+Electronic supplementary material
+The online version of this article (10.1007/s00405-020-05965-1) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%0,   Carlos M.%Chiesa-Estomba%NULL%0,   Daniele R.%De Siati%NULL%0,   Mihaela%Horoi%NULL%0,   Serge D.%Le Bon%NULL%0,   Alexandra%Rodriguez%NULL%0,   Didier%Dequanter%NULL%0,   Serge%Blecic%NULL%0,   Fahd%El Afia%NULL%0,   Lea%Distinguin%NULL%0,   Younes%Chekkoury-Idrissi%NULL%0,   Stéphane%Hans%NULL%0,   Irene Lopez%Delgado%NULL%0,   Christian%Calvo-Henriquez%NULL%0,   Philippe%Lavigne%NULL%0,   Chiara%Falanga%NULL%0,   Maria Rosaria%Barillari%NULL%0,   Giovanni%Cammaroto%NULL%0,   Mohamad%Khalife%NULL%0,   Pierre%Leich%NULL%0,   Christel%Souchay%NULL%0,   Camelia%Rossi%NULL%0,   Fabrice%Journe%NULL%0,   Julien%Hsieh%NULL%0,   Myriam%Edjlali%NULL%0,   Robert%Carlier%NULL%0,   Laurence%Ris%NULL%0,   Andrea%Lovato%NULL%0,   Cosimo%De Filippis%NULL%0,   Frederique%Coppee%NULL%0,   Nicolas%Fakhry%NULL%0,   Tareck%Ayad%NULL%0,   Sven%Saussez%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective
+To investigate the occurrence of olfactory and gustatory dysfunctions in patients with laboratory-confirmed COVID-19 infection.
+Methods
+Patients with laboratory-confirmed COVID-19 infection were recruited from 12 European hospitals.
+ The following epidemiological and clinical outcomes have been studied: age, sex, ethnicity, comorbidities, and general and otolaryngological symptoms.
+ Patients completed olfactory and gustatory questionnaires based on the smell and taste component of the National Health and Nutrition Examination Survey, and the short version of the Questionnaire of Olfactory Disorders-Negative Statements (sQOD-NS).
+Results
+id="Par3"&gt;A total of 417 mild-to-moderate COVID-19 patients completed the study (263 females).
+ The most prevalent general symptoms consisted of cough, myalgia, and loss of appetite.
+ Face pain and nasal obstruction were the most disease-related otolaryngological symptoms.
+ 85.6% and 88.0% of patients reported olfactory and gustatory dysfunctions, respectively.
+ There was a significant association between both disorders (p &amp;lt; 0.001).
+ Olfactory dysfunction (OD) appeared before the other symptoms in 11.8% of cases.
+ The sQO-NS scores were significantly lower in patients with anosmia compared with normosmic or hyposmic individuals (p = 0.001).
+ Among the 18.2% of patients without nasal obstruction or rhinorrhea, 79.7% were hyposmic or anosmic.
+ The early olfactory recovery rate was 44.0%.
+ Females were significantly more affected by olfactory and gustatory dysfunctions than males (p = 0.001).
+Conclusion
+id="Par4"&gt;Olfactory and gustatory disorders are prevalent symptoms in European COVID-19 patients, who may not have nasal symptoms.
+ The sudden anosmia or ageusia need to be recognized by the international scientific community as important symptoms of the COVID-19 infection.
+Electronic supplementary material
+The online version of this article (10.1007/s00405-020-05965-1) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%0,    Carlos M.%Chiesa-Estomba%NULL%0,    Daniele R.%De Siati%NULL%0,    Mihaela%Horoi%NULL%0,    Serge D.%Le Bon%NULL%0,    Alexandra%Rodriguez%NULL%0,    Didier%Dequanter%NULL%0,    Serge%Blecic%NULL%0,    Fahd%El Afia%NULL%0,    Lea%Distinguin%NULL%0,    Younes%Chekkoury-Idrissi%NULL%0,    Stéphane%Hans%NULL%0,    Irene Lopez%Delgado%NULL%0,    Christian%Calvo-Henriquez%NULL%0,    Philippe%Lavigne%NULL%0,    Chiara%Falanga%NULL%0,    Maria Rosaria%Barillari%NULL%0,    Giovanni%Cammaroto%NULL%0,    Mohamad%Khalife%NULL%0,    Pierre%Leich%NULL%0,    Christel%Souchay%NULL%0,    Camelia%Rossi%NULL%0,    Fabrice%Journe%NULL%0,    Julien%Hsieh%NULL%0,    Myriam%Edjlali%NULL%0,    Robert%Carlier%NULL%0,    Laurence%Ris%NULL%0,    Andrea%Lovato%NULL%0,    Cosimo%De Filippis%NULL%0,    Frederique%Coppee%NULL%0,    Nicolas%Fakhry%NULL%0,    Tareck%Ayad%NULL%0,    Sven%Saussez%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective
+To investigate the occurrence of olfactory and gustatory dysfunctions in patients with laboratory-confirmed COVID-19 infection.
+Methods
+Patients with laboratory-confirmed COVID-19 infection were recruited from 12 European hospitals.
+ The following epidemiological and clinical outcomes have been studied: age, sex, ethnicity, comorbidities, and general and otolaryngological symptoms.
+ Patients completed olfactory and gustatory questionnaires based on the smell and taste component of the National Health and Nutrition Examination Survey, and the short version of the Questionnaire of Olfactory Disorders-Negative Statements (sQOD-NS).
+Results
+A total of 417 mild-to-moderate COVID-19 patients completed the study (263 females).
+ The most prevalent general symptoms consisted of cough, myalgia, and loss of appetite.
+ Face pain and nasal obstruction were the most disease-related otolaryngological symptoms.
+ 85.6% and 88.0% of patients reported olfactory and gustatory dysfunctions, respectively.
+ There was a significant association between both disorders (p &amp;lt; 0.001).
+ Olfactory dysfunction (OD) appeared before the other symptoms in 11.8% of cases.
+ The sQO-NS scores were significantly lower in patients with anosmia compared with normosmic or hyposmic individuals (p = 0.001).
+ Among the 18.2% of patients without nasal obstruction or rhinorrhea, 79.7% were hyposmic or anosmic.
+ The early olfactory recovery rate was 44.0%.
+ Females were significantly more affected by olfactory and gustatory dysfunctions than males (p = 0.001).
+Conclusion
+id="Par4"&gt;Olfactory and gustatory disorders are prevalent symptoms in European COVID-19 patients, who may not have nasal symptoms.
+ The sudden anosmia or ageusia need to be recognized by the international scientific community as important symptoms of the COVID-19 infection.
+Electronic supplementary material
+The online version of this article (10.1007/s00405-020-05965-1) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%0,     Carlos M.%Chiesa-Estomba%NULL%0,     Daniele R.%De Siati%NULL%0,     Mihaela%Horoi%NULL%0,     Serge D.%Le Bon%NULL%0,     Alexandra%Rodriguez%NULL%0,     Didier%Dequanter%NULL%0,     Serge%Blecic%NULL%0,     Fahd%El Afia%NULL%0,     Lea%Distinguin%NULL%0,     Younes%Chekkoury-Idrissi%NULL%0,     Stéphane%Hans%NULL%0,     Irene Lopez%Delgado%NULL%0,     Christian%Calvo-Henriquez%NULL%0,     Philippe%Lavigne%NULL%0,     Chiara%Falanga%NULL%0,     Maria Rosaria%Barillari%NULL%0,     Giovanni%Cammaroto%NULL%0,     Mohamad%Khalife%NULL%0,     Pierre%Leich%NULL%0,     Christel%Souchay%NULL%0,     Camelia%Rossi%NULL%0,     Fabrice%Journe%NULL%0,     Julien%Hsieh%NULL%0,     Myriam%Edjlali%NULL%0,     Robert%Carlier%NULL%0,     Laurence%Ris%NULL%0,     Andrea%Lovato%NULL%0,     Cosimo%De Filippis%NULL%0,     Frederique%Coppee%NULL%0,     Nicolas%Fakhry%NULL%0,     Tareck%Ayad%NULL%0,     Sven%Saussez%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective
+To investigate the occurrence of olfactory and gustatory dysfunctions in patients with laboratory-confirmed COVID-19 infection.
+Methods
+Patients with laboratory-confirmed COVID-19 infection were recruited from 12 European hospitals.
+ The following epidemiological and clinical outcomes have been studied: age, sex, ethnicity, comorbidities, and general and otolaryngological symptoms.
+ Patients completed olfactory and gustatory questionnaires based on the smell and taste component of the National Health and Nutrition Examination Survey, and the short version of the Questionnaire of Olfactory Disorders-Negative Statements (sQOD-NS).
+Results
+A total of 417 mild-to-moderate COVID-19 patients completed the study (263 females).
+ The most prevalent general symptoms consisted of cough, myalgia, and loss of appetite.
+ Face pain and nasal obstruction were the most disease-related otolaryngological symptoms.
+ 85.6% and 88.0% of patients reported olfactory and gustatory dysfunctions, respectively.
+ There was a significant association between both disorders (p &amp;lt; 0.001).
+ Olfactory dysfunction (OD) appeared before the other symptoms in 11.8% of cases.
+ The sQO-NS scores were significantly lower in patients with anosmia compared with normosmic or hyposmic individuals (p = 0.001).
+ Among the 18.2% of patients without nasal obstruction or rhinorrhea, 79.7% were hyposmic or anosmic.
+ The early olfactory recovery rate was 44.0%.
+ Females were significantly more affected by olfactory and gustatory dysfunctions than males (p = 0.001).
+Conclusion
+Olfactory and gustatory disorders are prevalent symptoms in European COVID-19 patients, who may not have nasal symptoms.
+ The sudden anosmia or ageusia need to be recognized by the international scientific community as important symptoms of the COVID-19 infection.
+Electronic supplementary material
+The online version of this article (10.1007/s00405-020-05965-1) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%0,      Carlos M.%Chiesa-Estomba%NULL%0,      Daniele R.%De Siati%NULL%0,      Mihaela%Horoi%NULL%0,      Serge D.%Le Bon%NULL%0,      Alexandra%Rodriguez%NULL%0,      Didier%Dequanter%NULL%0,      Serge%Blecic%NULL%0,      Fahd%El Afia%NULL%0,      Lea%Distinguin%NULL%0,      Younes%Chekkoury-Idrissi%NULL%0,      Stéphane%Hans%NULL%0,      Irene Lopez%Delgado%NULL%0,      Christian%Calvo-Henriquez%NULL%0,      Philippe%Lavigne%NULL%0,      Chiara%Falanga%NULL%0,      Maria Rosaria%Barillari%NULL%0,      Giovanni%Cammaroto%NULL%0,      Mohamad%Khalife%NULL%0,      Pierre%Leich%NULL%0,      Christel%Souchay%NULL%0,      Camelia%Rossi%NULL%0,      Fabrice%Journe%NULL%0,      Julien%Hsieh%NULL%0,      Myriam%Edjlali%NULL%0,      Robert%Carlier%NULL%0,      Laurence%Ris%NULL%0,      Andrea%Lovato%NULL%0,      Cosimo%De Filippis%NULL%0,      Frederique%Coppee%NULL%0,      Nicolas%Fakhry%NULL%0,      Tareck%Ayad%NULL%0,      Sven%Saussez%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -876,10 +988,10 @@
         <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>106</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
+        <v>107</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>

--- a/Covid_19_Dataset_and_References/References/60.xlsx
+++ b/Covid_19_Dataset_and_References/References/60.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="100">
   <si>
     <t>Doi</t>
   </si>
@@ -428,118 +428,6 @@
   </si>
   <si>
     <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,  Farhoud%Faraji%NULL%0,  Farhoud%Faraji%NULL%0,  Divya P.%Prajapati%NULL%0,  Divya P.%Prajapati%NULL%0,  Christine E.%Boone%NULL%2,  Christine E.%Boone%NULL%0,  Adam S.%DeConde%NULL%0,  Adam S.%DeConde%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective
-To investigate the occurrence of olfactory and gustatory dysfunctions in patients with laboratory-confirmed COVID-19 infection.
-Methods
-id="Par2"&gt;Patients with laboratory-confirmed COVID-19 infection were recruited from 12 European hospitals.
- The following epidemiological and clinical outcomes have been studied: age, sex, ethnicity, comorbidities, and general and otolaryngological symptoms.
- Patients completed olfactory and gustatory questionnaires based on the smell and taste component of the National Health and Nutrition Examination Survey, and the short version of the Questionnaire of Olfactory Disorders-Negative Statements (sQOD-NS).
-Results
-id="Par3"&gt;A total of 417 mild-to-moderate COVID-19 patients completed the study (263 females).
- The most prevalent general symptoms consisted of cough, myalgia, and loss of appetite.
- Face pain and nasal obstruction were the most disease-related otolaryngological symptoms.
- 85.6% and 88.0% of patients reported olfactory and gustatory dysfunctions, respectively.
- There was a significant association between both disorders (p &amp;lt; 0.001).
- Olfactory dysfunction (OD) appeared before the other symptoms in 11.8% of cases.
- The sQO-NS scores were significantly lower in patients with anosmia compared with normosmic or hyposmic individuals (p = 0.001).
- Among the 18.2% of patients without nasal obstruction or rhinorrhea, 79.7% were hyposmic or anosmic.
- The early olfactory recovery rate was 44.0%.
- Females were significantly more affected by olfactory and gustatory dysfunctions than males (p = 0.001).
-Conclusion
-id="Par4"&gt;Olfactory and gustatory disorders are prevalent symptoms in European COVID-19 patients, who may not have nasal symptoms.
- The sudden anosmia or ageusia need to be recognized by the international scientific community as important symptoms of the COVID-19 infection.
-Electronic supplementary material
-The online version of this article (10.1007/s00405-020-05965-1) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%0,   Carlos M.%Chiesa-Estomba%NULL%0,   Daniele R.%De Siati%NULL%0,   Mihaela%Horoi%NULL%0,   Serge D.%Le Bon%NULL%0,   Alexandra%Rodriguez%NULL%0,   Didier%Dequanter%NULL%0,   Serge%Blecic%NULL%0,   Fahd%El Afia%NULL%0,   Lea%Distinguin%NULL%0,   Younes%Chekkoury-Idrissi%NULL%0,   Stéphane%Hans%NULL%0,   Irene Lopez%Delgado%NULL%0,   Christian%Calvo-Henriquez%NULL%0,   Philippe%Lavigne%NULL%0,   Chiara%Falanga%NULL%0,   Maria Rosaria%Barillari%NULL%0,   Giovanni%Cammaroto%NULL%0,   Mohamad%Khalife%NULL%0,   Pierre%Leich%NULL%0,   Christel%Souchay%NULL%0,   Camelia%Rossi%NULL%0,   Fabrice%Journe%NULL%0,   Julien%Hsieh%NULL%0,   Myriam%Edjlali%NULL%0,   Robert%Carlier%NULL%0,   Laurence%Ris%NULL%0,   Andrea%Lovato%NULL%0,   Cosimo%De Filippis%NULL%0,   Frederique%Coppee%NULL%0,   Nicolas%Fakhry%NULL%0,   Tareck%Ayad%NULL%0,   Sven%Saussez%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective
-To investigate the occurrence of olfactory and gustatory dysfunctions in patients with laboratory-confirmed COVID-19 infection.
-Methods
-Patients with laboratory-confirmed COVID-19 infection were recruited from 12 European hospitals.
- The following epidemiological and clinical outcomes have been studied: age, sex, ethnicity, comorbidities, and general and otolaryngological symptoms.
- Patients completed olfactory and gustatory questionnaires based on the smell and taste component of the National Health and Nutrition Examination Survey, and the short version of the Questionnaire of Olfactory Disorders-Negative Statements (sQOD-NS).
-Results
-id="Par3"&gt;A total of 417 mild-to-moderate COVID-19 patients completed the study (263 females).
- The most prevalent general symptoms consisted of cough, myalgia, and loss of appetite.
- Face pain and nasal obstruction were the most disease-related otolaryngological symptoms.
- 85.6% and 88.0% of patients reported olfactory and gustatory dysfunctions, respectively.
- There was a significant association between both disorders (p &amp;lt; 0.001).
- Olfactory dysfunction (OD) appeared before the other symptoms in 11.8% of cases.
- The sQO-NS scores were significantly lower in patients with anosmia compared with normosmic or hyposmic individuals (p = 0.001).
- Among the 18.2% of patients without nasal obstruction or rhinorrhea, 79.7% were hyposmic or anosmic.
- The early olfactory recovery rate was 44.0%.
- Females were significantly more affected by olfactory and gustatory dysfunctions than males (p = 0.001).
-Conclusion
-id="Par4"&gt;Olfactory and gustatory disorders are prevalent symptoms in European COVID-19 patients, who may not have nasal symptoms.
- The sudden anosmia or ageusia need to be recognized by the international scientific community as important symptoms of the COVID-19 infection.
-Electronic supplementary material
-The online version of this article (10.1007/s00405-020-05965-1) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%0,    Carlos M.%Chiesa-Estomba%NULL%0,    Daniele R.%De Siati%NULL%0,    Mihaela%Horoi%NULL%0,    Serge D.%Le Bon%NULL%0,    Alexandra%Rodriguez%NULL%0,    Didier%Dequanter%NULL%0,    Serge%Blecic%NULL%0,    Fahd%El Afia%NULL%0,    Lea%Distinguin%NULL%0,    Younes%Chekkoury-Idrissi%NULL%0,    Stéphane%Hans%NULL%0,    Irene Lopez%Delgado%NULL%0,    Christian%Calvo-Henriquez%NULL%0,    Philippe%Lavigne%NULL%0,    Chiara%Falanga%NULL%0,    Maria Rosaria%Barillari%NULL%0,    Giovanni%Cammaroto%NULL%0,    Mohamad%Khalife%NULL%0,    Pierre%Leich%NULL%0,    Christel%Souchay%NULL%0,    Camelia%Rossi%NULL%0,    Fabrice%Journe%NULL%0,    Julien%Hsieh%NULL%0,    Myriam%Edjlali%NULL%0,    Robert%Carlier%NULL%0,    Laurence%Ris%NULL%0,    Andrea%Lovato%NULL%0,    Cosimo%De Filippis%NULL%0,    Frederique%Coppee%NULL%0,    Nicolas%Fakhry%NULL%0,    Tareck%Ayad%NULL%0,    Sven%Saussez%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective
-To investigate the occurrence of olfactory and gustatory dysfunctions in patients with laboratory-confirmed COVID-19 infection.
-Methods
-Patients with laboratory-confirmed COVID-19 infection were recruited from 12 European hospitals.
- The following epidemiological and clinical outcomes have been studied: age, sex, ethnicity, comorbidities, and general and otolaryngological symptoms.
- Patients completed olfactory and gustatory questionnaires based on the smell and taste component of the National Health and Nutrition Examination Survey, and the short version of the Questionnaire of Olfactory Disorders-Negative Statements (sQOD-NS).
-Results
-A total of 417 mild-to-moderate COVID-19 patients completed the study (263 females).
- The most prevalent general symptoms consisted of cough, myalgia, and loss of appetite.
- Face pain and nasal obstruction were the most disease-related otolaryngological symptoms.
- 85.6% and 88.0% of patients reported olfactory and gustatory dysfunctions, respectively.
- There was a significant association between both disorders (p &amp;lt; 0.001).
- Olfactory dysfunction (OD) appeared before the other symptoms in 11.8% of cases.
- The sQO-NS scores were significantly lower in patients with anosmia compared with normosmic or hyposmic individuals (p = 0.001).
- Among the 18.2% of patients without nasal obstruction or rhinorrhea, 79.7% were hyposmic or anosmic.
- The early olfactory recovery rate was 44.0%.
- Females were significantly more affected by olfactory and gustatory dysfunctions than males (p = 0.001).
-Conclusion
-id="Par4"&gt;Olfactory and gustatory disorders are prevalent symptoms in European COVID-19 patients, who may not have nasal symptoms.
- The sudden anosmia or ageusia need to be recognized by the international scientific community as important symptoms of the COVID-19 infection.
-Electronic supplementary material
-The online version of this article (10.1007/s00405-020-05965-1) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%0,     Carlos M.%Chiesa-Estomba%NULL%0,     Daniele R.%De Siati%NULL%0,     Mihaela%Horoi%NULL%0,     Serge D.%Le Bon%NULL%0,     Alexandra%Rodriguez%NULL%0,     Didier%Dequanter%NULL%0,     Serge%Blecic%NULL%0,     Fahd%El Afia%NULL%0,     Lea%Distinguin%NULL%0,     Younes%Chekkoury-Idrissi%NULL%0,     Stéphane%Hans%NULL%0,     Irene Lopez%Delgado%NULL%0,     Christian%Calvo-Henriquez%NULL%0,     Philippe%Lavigne%NULL%0,     Chiara%Falanga%NULL%0,     Maria Rosaria%Barillari%NULL%0,     Giovanni%Cammaroto%NULL%0,     Mohamad%Khalife%NULL%0,     Pierre%Leich%NULL%0,     Christel%Souchay%NULL%0,     Camelia%Rossi%NULL%0,     Fabrice%Journe%NULL%0,     Julien%Hsieh%NULL%0,     Myriam%Edjlali%NULL%0,     Robert%Carlier%NULL%0,     Laurence%Ris%NULL%0,     Andrea%Lovato%NULL%0,     Cosimo%De Filippis%NULL%0,     Frederique%Coppee%NULL%0,     Nicolas%Fakhry%NULL%0,     Tareck%Ayad%NULL%0,     Sven%Saussez%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective
-To investigate the occurrence of olfactory and gustatory dysfunctions in patients with laboratory-confirmed COVID-19 infection.
-Methods
-Patients with laboratory-confirmed COVID-19 infection were recruited from 12 European hospitals.
- The following epidemiological and clinical outcomes have been studied: age, sex, ethnicity, comorbidities, and general and otolaryngological symptoms.
- Patients completed olfactory and gustatory questionnaires based on the smell and taste component of the National Health and Nutrition Examination Survey, and the short version of the Questionnaire of Olfactory Disorders-Negative Statements (sQOD-NS).
-Results
-A total of 417 mild-to-moderate COVID-19 patients completed the study (263 females).
- The most prevalent general symptoms consisted of cough, myalgia, and loss of appetite.
- Face pain and nasal obstruction were the most disease-related otolaryngological symptoms.
- 85.6% and 88.0% of patients reported olfactory and gustatory dysfunctions, respectively.
- There was a significant association between both disorders (p &amp;lt; 0.001).
- Olfactory dysfunction (OD) appeared before the other symptoms in 11.8% of cases.
- The sQO-NS scores were significantly lower in patients with anosmia compared with normosmic or hyposmic individuals (p = 0.001).
- Among the 18.2% of patients without nasal obstruction or rhinorrhea, 79.7% were hyposmic or anosmic.
- The early olfactory recovery rate was 44.0%.
- Females were significantly more affected by olfactory and gustatory dysfunctions than males (p = 0.001).
-Conclusion
-Olfactory and gustatory disorders are prevalent symptoms in European COVID-19 patients, who may not have nasal symptoms.
- The sudden anosmia or ageusia need to be recognized by the international scientific community as important symptoms of the COVID-19 infection.
-Electronic supplementary material
-The online version of this article (10.1007/s00405-020-05965-1) contains supplementary material, which is available to authorized users.
-</t>
-  </si>
-  <si>
-    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%0,      Carlos M.%Chiesa-Estomba%NULL%0,      Daniele R.%De Siati%NULL%0,      Mihaela%Horoi%NULL%0,      Serge D.%Le Bon%NULL%0,      Alexandra%Rodriguez%NULL%0,      Didier%Dequanter%NULL%0,      Serge%Blecic%NULL%0,      Fahd%El Afia%NULL%0,      Lea%Distinguin%NULL%0,      Younes%Chekkoury-Idrissi%NULL%0,      Stéphane%Hans%NULL%0,      Irene Lopez%Delgado%NULL%0,      Christian%Calvo-Henriquez%NULL%0,      Philippe%Lavigne%NULL%0,      Chiara%Falanga%NULL%0,      Maria Rosaria%Barillari%NULL%0,      Giovanni%Cammaroto%NULL%0,      Mohamad%Khalife%NULL%0,      Pierre%Leich%NULL%0,      Christel%Souchay%NULL%0,      Camelia%Rossi%NULL%0,      Fabrice%Journe%NULL%0,      Julien%Hsieh%NULL%0,      Myriam%Edjlali%NULL%0,      Robert%Carlier%NULL%0,      Laurence%Ris%NULL%0,      Andrea%Lovato%NULL%0,      Cosimo%De Filippis%NULL%0,      Frederique%Coppee%NULL%0,      Nicolas%Fakhry%NULL%0,      Tareck%Ayad%NULL%0,      Sven%Saussez%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -988,10 +876,10 @@
         <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>

--- a/Covid_19_Dataset_and_References/References/60.xlsx
+++ b/Covid_19_Dataset_and_References/References/60.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="117">
   <si>
     <t>Doi</t>
   </si>
@@ -428,6 +428,57 @@
   </si>
   <si>
     <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,  Farhoud%Faraji%NULL%0,  Farhoud%Faraji%NULL%0,  Divya P.%Prajapati%NULL%0,  Divya P.%Prajapati%NULL%0,  Christine E.%Boone%NULL%2,  Christine E.%Boone%NULL%0,  Adam S.%DeConde%NULL%0,  Adam S.%DeConde%NULL%0]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,   Farhoud%Faraji%NULL%0,   Farhoud%Faraji%NULL%0,   Divya P.%Prajapati%NULL%0,   Benjamin T.%Ostrander%NULL%0,   Adam S.%DeConde%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Á.%Beltrán‐Corbellini%beltran_corbellini@hotmail.com%0,   J. L.%Chico‐García%NULL%0,   J. L.%Chico‐García%NULL%0,   J.%Martínez‐Poles%NULL%0,   F.%Rodríguez‐Jorge%NULL%0,   E.%Natera‐Villalba%NULL%0,   J.%Gómez‐Corral%NULL%0,   J.%Gómez‐Corral%NULL%0,   A.%Gómez‐López%NULL%0,   E.%Monreal%NULL%0,   P.%Parra‐Díaz%NULL%0,   J. L.%Cortés‐Cuevas%NULL%0,   J. L.%Cortés‐Cuevas%NULL%0,   J. C.%Galán%NULL%0,   C.%Fragola‐Arnau%NULL%0,   J.%Porta‐Etessam%NULL%0,   J.%Masjuan%NULL%0,   A.%Alonso‐Cánovas%NULL%0,   A.%Alonso‐Cánovas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[François%Bénézit%NULL%0,   Paul%Le Turnier%NULL%0,   Charles%Declerck%NULL%0,   Cécile%Paillé%NULL%0,   Matthieu%Revest%NULL%0,   Vincent%Dubée%NULL%0,   Pierre%Tattevin%pierre.tattevin@chu-rennes.fr%0,   Cédric%Arvieux%NULL%0,   Marion%Baldeyrou%NULL%0,   Jean-Marc%Chapplain%NULL%0,   Pauline%Comacle%NULL%0,   Solène%Patrat-Delon%NULL%0,   Anne%Maillard%NULL%0,   Mélanie%Poinot%NULL%0,   Charlotte%Pronier%NULL%0,   Faouzi%Souala%NULL%0,   Vincent%Thibault%NULL%0,   Pierre%Abgueguen%NULL%0,   Hélène%Cormier%NULL%0,   Valérie%Delbos%NULL%0,   Marine%de la Chapelle%NULL%0,   Alexandra%Ducancelle%NULL%0,   Rafael%Mahieu%NULL%0,   Valérie%Rabier%NULL%0,   Sami%Rehaiem%NULL%0,   Yves%Vandamme%NULL%0,   Charlotte%Biron%NULL%0,   Jeanne%Brochon%NULL%0,   David%Boutoille%NULL%0,   Marie%Chauveau%NULL%0,   Colin%Deschanvres%NULL%0,   Benjamin J%Gaborit%NULL%0,   Joël%Jenvrin%NULL%0,   Raphaël%Lecomte%NULL%0,   Maeva%Lefebvre%NULL%0,   François%Raffi%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,   Laura%Pezzati%NULL%0,   Laura%Pezzati%NULL%0,   Federico%Conti%NULL%0,   Dario%Bernacchia%NULL%0,   Matteo%Siano%NULL%0,   Letizia%Oreni%NULL%0,   Stefano%Rusconi%NULL%0,   Cristina%Gervasoni%NULL%0,   Anna Lisa%Ridolfo%NULL%0,   Giuliano%Rizzardini%NULL%0,   Spinello%Antinori%NULL%0,   Massimo%Galli%NULL%0,   Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.%Klopfenstein%NULL%0,   N.J.%Kadiane-Oussou%NULL%0,   L.%Toko%NULL%0,   P.-Y.%Royer%NULL%0,   Q.%Lepiller%NULL%0,   V.%Gendrin%NULL%0,   S.%Zayet%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%0,   Carlos M.%Chiesa-Estomba%NULL%0,   Daniele R.%De Siati%NULL%0,   Mihaela%Horoi%NULL%0,   Serge D.%Le Bon%NULL%0,   Alexandra%Rodriguez%NULL%0,   Didier%Dequanter%NULL%0,   Serge%Blecic%NULL%0,   Fahd%El Afia%NULL%0,   Lea%Distinguin%NULL%0,   Younes%Chekkoury-Idrissi%NULL%0,   Stéphane%Hans%NULL%0,   Irene Lopez%Delgado%NULL%0,   Christian%Calvo-Henriquez%NULL%0,   Philippe%Lavigne%NULL%0,   Chiara%Falanga%NULL%0,   Maria Rosaria%Barillari%NULL%0,   Giovanni%Cammaroto%NULL%0,   Mohamad%Khalife%NULL%0,   Pierre%Leich%NULL%0,   Christel%Souchay%NULL%0,   Camelia%Rossi%NULL%0,   Fabrice%Journe%NULL%0,   Julien%Hsieh%NULL%0,   Myriam%Edjlali%NULL%0,   Robert%Carlier%NULL%0,   Laurence%Ris%NULL%0,   Andrea%Lovato%NULL%0,   Cosimo%De Filippis%NULL%0,   Frederique%Coppee%NULL%0,   Nicolas%Fakhry%NULL%0,   Tareck%Ayad%NULL%0,   Sven%Saussez%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[ Cristina%Menni%null%2,    Ana M.%Valdes%null%1,    Maxim B.%Freidin%null%1,    Carole H.%Sudre%null%1,    Long H.%Nguyen%null%1,    David A.%Drew%null%1,    Sajaysurya%Ganesh%null%1,    Thomas%Varsavsky%null%1,    M. Jorge%Cardoso%null%1,    Julia S.%El-Sayed Moustafa%null%1,    Alessia%Visconti%null%1,    Pirro%Hysi%null%1,    Ruth C. E.%Bowyer%null%1,    Massimo%Mangino%null%1,    Mario%Falchi%null%1,    Jonathan%Wolf%null%1,    Sebastien%Ourselin%null%1,    Andrew T.%Chan%null%1,    Claire J.%Steves%null%1,    Tim D.%Spector%null%1,  Cristina%Menni%null%0,  Ana M.%Valdes%null%1,  Maxim B.%Freidin%null%1,  Carole H.%Sudre%null%1,  Long H.%Nguyen%null%1,  David A.%Drew%null%1,  Sajaysurya%Ganesh%null%1,  Thomas%Varsavsky%null%1,  M. Jorge%Cardoso%null%1,  Julia S.%El-Sayed Moustafa%null%1,  Alessia%Visconti%null%1,  Pirro%Hysi%null%1,  Ruth C. E.%Bowyer%null%1,  Massimo%Mangino%null%1,  Mario%Falchi%null%1,  Jonathan%Wolf%null%1,  Sebastien%Ourselin%null%1,  Andrew T.%Chan%null%1,  Claire J.%Steves%null%1,  Tim D.%Spector%null%1]</t>
+  </si>
+  <si>
+    <t>[Shima T.%Moein%NULL%1,   Seyed MohammadReza%Hashemian%NULL%1,   Babak%Mansourafshar%NULL%1,   Ali%Khorram‐Tousi%NULL%1,   Payam%Tabarsi%NULL%0,   Richard L.%Doty%doty@pennmedicine.upenn.edu%1]</t>
+  </si>
+  <si>
+    <t>[Borsetto%Daniele%coreGivesNoEmail%1,  Boscolo-Rizzo%Paolo%coreGivesNoEmail%1,  Cazzador%Diego%coreGivesNoEmail%1,  Fabbris%Cristoforo%coreGivesNoEmail%1,  Hopkins%Claire%coreGivesNoEmail%1,  Polesel%Jerry%coreGivesNoEmail%1,  Spinato%Giacomo%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Alma%Tostmann%NULL%1,   John%Bradley%NULL%2,   John%Bradley%NULL%0,   Teun%Bousema%NULL%2,   Teun%Bousema%NULL%0,   Wing-Kee%Yiek%NULL%2,   Wing-Kee%Yiek%NULL%0,   Minke%Holwerda%NULL%1,   Chantal%Bleeker-Rovers%NULL%1,   Jaap%ten Oever%NULL%1,   Corianne%Meijer%NULL%2,   Corianne%Meijer%NULL%0,   Janette%Rahamat-Langendoen%NULL%1,   Joost%Hopman%NULL%2,   Joost%Hopman%NULL%0,   Nannet%van der Geest-Blankert%NULL%1,   Heiman%Wertheim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luigi Angelo%Vaira%luigi.vaira@gmail.com%0,   Giovanna%Deiana%NULL%0,   Giovanna%Deiana%NULL%0,   Alessandro Giuseppe%Fois%NULL%1,   Pietro%Pirina%NULL%0,   Giordano%Madeddu%NULL%0,   Andrea%De Vito%NULL%0,   Sergio%Babudieri%NULL%0,   Marzia%Petrocelli%NULL%0,   Antonello%Serra%NULL%0,   Francesco%Bussu%NULL%0,   Enrica%Ligas%NULL%1,   Giovanni%Salzano%NULL%0,   Giacomo%De Riu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Liang En%Wee%ian.wee@mohh.com.sg%1,   Yvonne Fu Zi%Chan%NULL%2,   Yvonne Fu Zi%Chan%NULL%0,   Neville Wei Yang%Teo%NULL%1,   Benjamin Pei Zhi%Cherng%NULL%1,   Siew Yee%Thien%NULL%1,   Hei Man%Wong%NULL%1,   Limin%Wijaya%NULL%1,   Song Tar%Toh%NULL%1,   Thuan Tong%Tan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,   Farhoud%Faraji%NULL%0,   Farhoud%Faraji%NULL%0,   Divya P.%Prajapati%NULL%0,   Divya P.%Prajapati%NULL%0,   Christine E.%Boone%NULL%2,   Christine E.%Boone%NULL%0,   Adam S.%DeConde%NULL%0,   Adam S.%DeConde%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -734,6 +785,9 @@
       <c r="H1" t="s">
         <v>27</v>
       </c>
+      <c r="I1" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -749,7 +803,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
@@ -759,6 +813,9 @@
       </c>
       <c r="H2" t="s">
         <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="3">
@@ -775,7 +832,7 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -785,6 +842,9 @@
       </c>
       <c r="H3" t="s">
         <v>38</v>
+      </c>
+      <c r="I3" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="4">
@@ -801,7 +861,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -811,6 +871,9 @@
       </c>
       <c r="H4" t="s">
         <v>43</v>
+      </c>
+      <c r="I4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="5">
@@ -827,7 +890,7 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -837,6 +900,9 @@
       </c>
       <c r="H5" t="s">
         <v>43</v>
+      </c>
+      <c r="I5" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="6">
@@ -853,7 +919,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -863,6 +929,9 @@
       </c>
       <c r="H6" t="s">
         <v>51</v>
+      </c>
+      <c r="I6" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="7">
@@ -879,7 +948,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -889,6 +958,9 @@
       </c>
       <c r="H7" t="s">
         <v>56</v>
+      </c>
+      <c r="I7" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="8">
@@ -916,6 +988,9 @@
       <c r="H8" t="s">
         <v>43</v>
       </c>
+      <c r="I8" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -931,7 +1006,7 @@
         <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -941,6 +1016,9 @@
       </c>
       <c r="H9" t="s">
         <v>61</v>
+      </c>
+      <c r="I9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10">
@@ -957,7 +1035,7 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -967,6 +1045,9 @@
       </c>
       <c r="H10" t="s">
         <v>51</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="11">
@@ -983,16 +1064,19 @@
         <v>93</v>
       </c>
       <c r="E11" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="G11" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="H11" t="s">
         <v>43</v>
+      </c>
+      <c r="I11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12">
@@ -1009,7 +1093,7 @@
         <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="F12" t="s">
         <v>69</v>
@@ -1019,6 +1103,9 @@
       </c>
       <c r="H12" t="s">
         <v>33</v>
+      </c>
+      <c r="I12" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="13">
@@ -1035,7 +1122,7 @@
         <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="F13" t="s">
         <v>73</v>
@@ -1045,6 +1132,9 @@
       </c>
       <c r="H13" t="s">
         <v>74</v>
+      </c>
+      <c r="I13" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="14">
@@ -1061,7 +1151,7 @@
         <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="F14" t="s">
         <v>77</v>
@@ -1071,6 +1161,9 @@
       </c>
       <c r="H14" t="s">
         <v>78</v>
+      </c>
+      <c r="I14" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="15">
@@ -1087,7 +1180,7 @@
         <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="F15" t="s">
         <v>82</v>
@@ -1097,6 +1190,9 @@
       </c>
       <c r="H15" t="s">
         <v>83</v>
+      </c>
+      <c r="I15" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/60.xlsx
+++ b/Covid_19_Dataset_and_References/References/60.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="169">
   <si>
     <t>Doi</t>
   </si>
@@ -479,6 +479,162 @@
   </si>
   <si>
     <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,   Farhoud%Faraji%NULL%0,   Farhoud%Faraji%NULL%0,   Divya P.%Prajapati%NULL%0,   Divya P.%Prajapati%NULL%0,   Christine E.%Boone%NULL%2,   Christine E.%Boone%NULL%0,   Adam S.%DeConde%NULL%0,   Adam S.%DeConde%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,    Farhoud%Faraji%NULL%0,    Farhoud%Faraji%NULL%0,    Divya P.%Prajapati%NULL%0,    Benjamin T.%Ostrander%NULL%0,    Adam S.%DeConde%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Á.%Beltrán‐Corbellini%beltran_corbellini@hotmail.com%0,    J. L.%Chico‐García%NULL%0,    J. L.%Chico‐García%NULL%0,    J.%Martínez‐Poles%NULL%0,    F.%Rodríguez‐Jorge%NULL%0,    E.%Natera‐Villalba%NULL%0,    J.%Gómez‐Corral%NULL%0,    J.%Gómez‐Corral%NULL%0,    A.%Gómez‐López%NULL%0,    E.%Monreal%NULL%0,    P.%Parra‐Díaz%NULL%0,    J. L.%Cortés‐Cuevas%NULL%0,    J. L.%Cortés‐Cuevas%NULL%0,    J. C.%Galán%NULL%0,    C.%Fragola‐Arnau%NULL%0,    J.%Porta‐Etessam%NULL%0,    J.%Masjuan%NULL%0,    A.%Alonso‐Cánovas%NULL%0,    A.%Alonso‐Cánovas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[François%Bénézit%NULL%0,    Paul%Le Turnier%NULL%0,    Charles%Declerck%NULL%0,    Cécile%Paillé%NULL%0,    Matthieu%Revest%NULL%0,    Vincent%Dubée%NULL%0,    Pierre%Tattevin%pierre.tattevin@chu-rennes.fr%0,    Cédric%Arvieux%NULL%0,    Marion%Baldeyrou%NULL%0,    Jean-Marc%Chapplain%NULL%0,    Pauline%Comacle%NULL%0,    Solène%Patrat-Delon%NULL%0,    Anne%Maillard%NULL%0,    Mélanie%Poinot%NULL%0,    Charlotte%Pronier%NULL%0,    Faouzi%Souala%NULL%0,    Vincent%Thibault%NULL%0,    Pierre%Abgueguen%NULL%0,    Hélène%Cormier%NULL%0,    Valérie%Delbos%NULL%0,    Marine%de la Chapelle%NULL%0,    Alexandra%Ducancelle%NULL%0,    Rafael%Mahieu%NULL%0,    Valérie%Rabier%NULL%0,    Sami%Rehaiem%NULL%0,    Yves%Vandamme%NULL%0,    Charlotte%Biron%NULL%0,    Jeanne%Brochon%NULL%0,    David%Boutoille%NULL%0,    Marie%Chauveau%NULL%0,    Colin%Deschanvres%NULL%0,    Benjamin J%Gaborit%NULL%0,    Joël%Jenvrin%NULL%0,    Raphaël%Lecomte%NULL%0,    Maeva%Lefebvre%NULL%0,    François%Raffi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,    Laura%Pezzati%NULL%0,    Laura%Pezzati%NULL%0,    Federico%Conti%NULL%0,    Dario%Bernacchia%NULL%0,    Matteo%Siano%NULL%0,    Letizia%Oreni%NULL%0,    Stefano%Rusconi%NULL%0,    Cristina%Gervasoni%NULL%0,    Anna Lisa%Ridolfo%NULL%0,    Giuliano%Rizzardini%NULL%0,    Spinello%Antinori%NULL%0,    Massimo%Galli%NULL%0,    Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.%Klopfenstein%NULL%0,    N.J.%Kadiane-Oussou%NULL%0,    L.%Toko%NULL%0,    P.-Y.%Royer%NULL%0,    Q.%Lepiller%NULL%0,    V.%Gendrin%NULL%0,    S.%Zayet%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%0,    Carlos M.%Chiesa-Estomba%NULL%0,    Daniele R.%De Siati%NULL%0,    Mihaela%Horoi%NULL%0,    Serge D.%Le Bon%NULL%0,    Alexandra%Rodriguez%NULL%0,    Didier%Dequanter%NULL%0,    Serge%Blecic%NULL%0,    Fahd%El Afia%NULL%0,    Lea%Distinguin%NULL%0,    Younes%Chekkoury-Idrissi%NULL%0,    Stéphane%Hans%NULL%0,    Irene Lopez%Delgado%NULL%0,    Christian%Calvo-Henriquez%NULL%0,    Philippe%Lavigne%NULL%0,    Chiara%Falanga%NULL%0,    Maria Rosaria%Barillari%NULL%0,    Giovanni%Cammaroto%NULL%0,    Mohamad%Khalife%NULL%0,    Pierre%Leich%NULL%0,    Christel%Souchay%NULL%0,    Camelia%Rossi%NULL%0,    Fabrice%Journe%NULL%0,    Julien%Hsieh%NULL%0,    Myriam%Edjlali%NULL%0,    Robert%Carlier%NULL%0,    Laurence%Ris%NULL%0,    Andrea%Lovato%NULL%0,    Cosimo%De Filippis%NULL%0,    Frederique%Coppee%NULL%0,    Nicolas%Fakhry%NULL%0,    Tareck%Ayad%NULL%0,    Sven%Saussez%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Cristina%Menni%null%1,     Ana M.%Valdes%null%1,     Maxim B.%Freidin%null%1,     Carole H.%Sudre%null%1,     Long H.%Nguyen%null%1,     David A.%Drew%null%1,     Sajaysurya%Ganesh%null%1,     Thomas%Varsavsky%null%1,     M. Jorge%Cardoso%null%1,     Julia S.%El-Sayed Moustafa%null%1,     Alessia%Visconti%null%1,     Pirro%Hysi%null%1,     Ruth C. E.%Bowyer%null%1,     Massimo%Mangino%null%1,     Mario%Falchi%null%1,     Jonathan%Wolf%null%1,     Sebastien%Ourselin%null%1,     Andrew T.%Chan%null%1,     Claire J.%Steves%null%1,     Tim D.%Spector%null%1,   Cristina%Menni%null%1,   Ana M.%Valdes%null%1,   Maxim B.%Freidin%null%1,   Carole H.%Sudre%null%1,   Long H.%Nguyen%null%1,   David A.%Drew%null%1,   Sajaysurya%Ganesh%null%1,   Thomas%Varsavsky%null%1,   M. Jorge%Cardoso%null%1,   Julia S.%El-Sayed Moustafa%null%1,   Alessia%Visconti%null%1,   Pirro%Hysi%null%1,   Ruth C. E.%Bowyer%null%1,   Massimo%Mangino%null%1,   Mario%Falchi%null%1,   Jonathan%Wolf%null%1,   Sebastien%Ourselin%null%1,   Andrew T.%Chan%null%1,   Claire J.%Steves%null%1,   Tim D.%Spector%null%1]</t>
+  </si>
+  <si>
+    <t>[Shima T.%Moein%NULL%1,    Seyed MohammadReza%Hashemian%NULL%1,    Babak%Mansourafshar%NULL%1,    Ali%Khorram‐Tousi%NULL%1,    Payam%Tabarsi%NULL%0,    Richard L.%Doty%doty@pennmedicine.upenn.edu%1]</t>
+  </si>
+  <si>
+    <t>[Borsetto%Daniele%coreGivesNoEmail%1,   Boscolo-Rizzo%Paolo%coreGivesNoEmail%1,   Cazzador%Diego%coreGivesNoEmail%1,   Fabbris%Cristoforo%coreGivesNoEmail%1,   Hopkins%Claire%coreGivesNoEmail%1,   Polesel%Jerry%coreGivesNoEmail%1,   Spinato%Giacomo%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Alma%Tostmann%NULL%1,    John%Bradley%NULL%2,    John%Bradley%NULL%0,    Teun%Bousema%NULL%2,    Teun%Bousema%NULL%0,    Wing-Kee%Yiek%NULL%2,    Wing-Kee%Yiek%NULL%0,    Minke%Holwerda%NULL%1,    Chantal%Bleeker-Rovers%NULL%1,    Jaap%ten Oever%NULL%1,    Corianne%Meijer%NULL%2,    Corianne%Meijer%NULL%0,    Janette%Rahamat-Langendoen%NULL%1,    Joost%Hopman%NULL%2,    Joost%Hopman%NULL%0,    Nannet%van der Geest-Blankert%NULL%1,    Heiman%Wertheim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luigi Angelo%Vaira%luigi.vaira@gmail.com%0,    Giovanna%Deiana%NULL%0,    Giovanna%Deiana%NULL%0,    Alessandro Giuseppe%Fois%NULL%1,    Pietro%Pirina%NULL%0,    Giordano%Madeddu%NULL%0,    Andrea%De Vito%NULL%0,    Sergio%Babudieri%NULL%0,    Marzia%Petrocelli%NULL%0,    Antonello%Serra%NULL%0,    Francesco%Bussu%NULL%0,    Enrica%Ligas%NULL%1,    Giovanni%Salzano%NULL%0,    Giacomo%De Riu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Liang En%Wee%ian.wee@mohh.com.sg%1,    Yvonne Fu Zi%Chan%NULL%2,    Yvonne Fu Zi%Chan%NULL%0,    Neville Wei Yang%Teo%NULL%1,    Benjamin Pei Zhi%Cherng%NULL%1,    Siew Yee%Thien%NULL%1,    Hei Man%Wong%NULL%1,    Limin%Wijaya%NULL%1,    Song Tar%Toh%NULL%1,    Thuan Tong%Tan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,    Farhoud%Faraji%NULL%0,    Farhoud%Faraji%NULL%0,    Divya P.%Prajapati%NULL%0,    Divya P.%Prajapati%NULL%0,    Christine E.%Boone%NULL%2,    Christine E.%Boone%NULL%0,    Adam S.%DeConde%NULL%0,    Adam S.%DeConde%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,     Farhoud%Faraji%NULL%0,     Farhoud%Faraji%NULL%0,     Divya P.%Prajapati%NULL%0,     Benjamin T.%Ostrander%NULL%0,     Adam S.%DeConde%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Á.%Beltrán‐Corbellini%beltran_corbellini@hotmail.com%0,     J. L.%Chico‐García%NULL%0,     J. L.%Chico‐García%NULL%0,     J.%Martínez‐Poles%NULL%0,     F.%Rodríguez‐Jorge%NULL%0,     E.%Natera‐Villalba%NULL%0,     J.%Gómez‐Corral%NULL%0,     J.%Gómez‐Corral%NULL%0,     A.%Gómez‐López%NULL%0,     E.%Monreal%NULL%0,     P.%Parra‐Díaz%NULL%0,     J. L.%Cortés‐Cuevas%NULL%0,     J. L.%Cortés‐Cuevas%NULL%0,     J. C.%Galán%NULL%0,     C.%Fragola‐Arnau%NULL%0,     J.%Porta‐Etessam%NULL%0,     J.%Masjuan%NULL%0,     A.%Alonso‐Cánovas%NULL%0,     A.%Alonso‐Cánovas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[François%Bénézit%NULL%0,     Paul%Le Turnier%NULL%0,     Charles%Declerck%NULL%0,     Cécile%Paillé%NULL%0,     Matthieu%Revest%NULL%0,     Vincent%Dubée%NULL%0,     Pierre%Tattevin%pierre.tattevin@chu-rennes.fr%0,     Cédric%Arvieux%NULL%0,     Marion%Baldeyrou%NULL%0,     Jean-Marc%Chapplain%NULL%0,     Pauline%Comacle%NULL%0,     Solène%Patrat-Delon%NULL%0,     Anne%Maillard%NULL%0,     Mélanie%Poinot%NULL%0,     Charlotte%Pronier%NULL%0,     Faouzi%Souala%NULL%0,     Vincent%Thibault%NULL%0,     Pierre%Abgueguen%NULL%0,     Hélène%Cormier%NULL%0,     Valérie%Delbos%NULL%0,     Marine%de la Chapelle%NULL%0,     Alexandra%Ducancelle%NULL%0,     Rafael%Mahieu%NULL%0,     Valérie%Rabier%NULL%0,     Sami%Rehaiem%NULL%0,     Yves%Vandamme%NULL%0,     Charlotte%Biron%NULL%0,     Jeanne%Brochon%NULL%0,     David%Boutoille%NULL%0,     Marie%Chauveau%NULL%0,     Colin%Deschanvres%NULL%0,     Benjamin J%Gaborit%NULL%0,     Joël%Jenvrin%NULL%0,     Raphaël%Lecomte%NULL%0,     Maeva%Lefebvre%NULL%0,     François%Raffi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,     Laura%Pezzati%NULL%0,     Laura%Pezzati%NULL%0,     Federico%Conti%NULL%0,     Dario%Bernacchia%NULL%0,     Matteo%Siano%NULL%0,     Letizia%Oreni%NULL%0,     Stefano%Rusconi%NULL%0,     Cristina%Gervasoni%NULL%0,     Anna Lisa%Ridolfo%NULL%0,     Giuliano%Rizzardini%NULL%0,     Spinello%Antinori%NULL%0,     Massimo%Galli%NULL%0,     Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.%Klopfenstein%NULL%0,     N.J.%Kadiane-Oussou%NULL%0,     L.%Toko%NULL%0,     P.-Y.%Royer%NULL%0,     Q.%Lepiller%NULL%0,     V.%Gendrin%NULL%0,     S.%Zayet%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%0,     Carlos M.%Chiesa-Estomba%NULL%0,     Daniele R.%De Siati%NULL%0,     Mihaela%Horoi%NULL%0,     Serge D.%Le Bon%NULL%0,     Alexandra%Rodriguez%NULL%0,     Didier%Dequanter%NULL%0,     Serge%Blecic%NULL%0,     Fahd%El Afia%NULL%0,     Lea%Distinguin%NULL%0,     Younes%Chekkoury-Idrissi%NULL%0,     Stéphane%Hans%NULL%0,     Irene Lopez%Delgado%NULL%0,     Christian%Calvo-Henriquez%NULL%0,     Philippe%Lavigne%NULL%0,     Chiara%Falanga%NULL%0,     Maria Rosaria%Barillari%NULL%0,     Giovanni%Cammaroto%NULL%0,     Mohamad%Khalife%NULL%0,     Pierre%Leich%NULL%0,     Christel%Souchay%NULL%0,     Camelia%Rossi%NULL%0,     Fabrice%Journe%NULL%0,     Julien%Hsieh%NULL%0,     Myriam%Edjlali%NULL%0,     Robert%Carlier%NULL%0,     Laurence%Ris%NULL%0,     Andrea%Lovato%NULL%0,     Cosimo%De Filippis%NULL%0,     Frederique%Coppee%NULL%0,     Nicolas%Fakhry%NULL%0,     Tareck%Ayad%NULL%0,     Sven%Saussez%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Cristina%Menni%null%1,      Ana M.%Valdes%null%1,      Maxim B.%Freidin%null%1,      Carole H.%Sudre%null%1,      Long H.%Nguyen%null%1,      David A.%Drew%null%1,      Sajaysurya%Ganesh%null%1,      Thomas%Varsavsky%null%1,      M. Jorge%Cardoso%null%1,      Julia S.%El-Sayed Moustafa%null%1,      Alessia%Visconti%null%1,      Pirro%Hysi%null%1,      Ruth C. E.%Bowyer%null%1,      Massimo%Mangino%null%1,      Mario%Falchi%null%1,      Jonathan%Wolf%null%1,      Sebastien%Ourselin%null%1,      Andrew T.%Chan%null%1,      Claire J.%Steves%null%1,      Tim D.%Spector%null%1,    Cristina%Menni%null%1,    Ana M.%Valdes%null%1,    Maxim B.%Freidin%null%1,    Carole H.%Sudre%null%1,    Long H.%Nguyen%null%1,    David A.%Drew%null%1,    Sajaysurya%Ganesh%null%1,    Thomas%Varsavsky%null%1,    M. Jorge%Cardoso%null%1,    Julia S.%El-Sayed Moustafa%null%1,    Alessia%Visconti%null%1,    Pirro%Hysi%null%1,    Ruth C. E.%Bowyer%null%1,    Massimo%Mangino%null%1,    Mario%Falchi%null%1,    Jonathan%Wolf%null%1,    Sebastien%Ourselin%null%1,    Andrew T.%Chan%null%1,    Claire J.%Steves%null%1,    Tim D.%Spector%null%1]</t>
+  </si>
+  <si>
+    <t>[Shima T.%Moein%NULL%1,     Seyed MohammadReza%Hashemian%NULL%1,     Babak%Mansourafshar%NULL%1,     Ali%Khorram‐Tousi%NULL%1,     Payam%Tabarsi%NULL%0,     Richard L.%Doty%doty@pennmedicine.upenn.edu%1]</t>
+  </si>
+  <si>
+    <t>[Borsetto%Daniele%coreGivesNoEmail%1,    Boscolo-Rizzo%Paolo%coreGivesNoEmail%1,    Cazzador%Diego%coreGivesNoEmail%1,    Fabbris%Cristoforo%coreGivesNoEmail%1,    Hopkins%Claire%coreGivesNoEmail%1,    Polesel%Jerry%coreGivesNoEmail%1,    Spinato%Giacomo%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Alma%Tostmann%NULL%1,     John%Bradley%NULL%2,     John%Bradley%NULL%0,     Teun%Bousema%NULL%2,     Teun%Bousema%NULL%0,     Wing-Kee%Yiek%NULL%2,     Wing-Kee%Yiek%NULL%0,     Minke%Holwerda%NULL%1,     Chantal%Bleeker-Rovers%NULL%1,     Jaap%ten Oever%NULL%1,     Corianne%Meijer%NULL%2,     Corianne%Meijer%NULL%0,     Janette%Rahamat-Langendoen%NULL%1,     Joost%Hopman%NULL%2,     Joost%Hopman%NULL%0,     Nannet%van der Geest-Blankert%NULL%1,     Heiman%Wertheim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luigi Angelo%Vaira%luigi.vaira@gmail.com%0,     Giovanna%Deiana%NULL%0,     Giovanna%Deiana%NULL%0,     Alessandro Giuseppe%Fois%NULL%1,     Pietro%Pirina%NULL%0,     Giordano%Madeddu%NULL%0,     Andrea%De Vito%NULL%0,     Sergio%Babudieri%NULL%0,     Marzia%Petrocelli%NULL%0,     Antonello%Serra%NULL%0,     Francesco%Bussu%NULL%0,     Enrica%Ligas%NULL%1,     Giovanni%Salzano%NULL%0,     Giacomo%De Riu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Liang En%Wee%ian.wee@mohh.com.sg%1,     Yvonne Fu Zi%Chan%NULL%2,     Yvonne Fu Zi%Chan%NULL%0,     Neville Wei Yang%Teo%NULL%1,     Benjamin Pei Zhi%Cherng%NULL%1,     Siew Yee%Thien%NULL%1,     Hei Man%Wong%NULL%1,     Limin%Wijaya%NULL%1,     Song Tar%Toh%NULL%1,     Thuan Tong%Tan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,     Farhoud%Faraji%NULL%0,     Farhoud%Faraji%NULL%0,     Divya P.%Prajapati%NULL%0,     Divya P.%Prajapati%NULL%0,     Christine E.%Boone%NULL%2,     Christine E.%Boone%NULL%0,     Adam S.%DeConde%NULL%0,     Adam S.%DeConde%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,      Farhoud%Faraji%NULL%0,      Farhoud%Faraji%NULL%0,      Divya P.%Prajapati%NULL%0,      Benjamin T.%Ostrander%NULL%0,      Adam S.%DeConde%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Á.%Beltrán‐Corbellini%beltran_corbellini@hotmail.com%0,      J. L.%Chico‐García%NULL%0,      J. L.%Chico‐García%NULL%0,      J.%Martínez‐Poles%NULL%0,      F.%Rodríguez‐Jorge%NULL%0,      E.%Natera‐Villalba%NULL%0,      J.%Gómez‐Corral%NULL%0,      J.%Gómez‐Corral%NULL%0,      A.%Gómez‐López%NULL%0,      E.%Monreal%NULL%0,      P.%Parra‐Díaz%NULL%0,      J. L.%Cortés‐Cuevas%NULL%0,      J. L.%Cortés‐Cuevas%NULL%0,      J. C.%Galán%NULL%0,      C.%Fragola‐Arnau%NULL%0,      J.%Porta‐Etessam%NULL%0,      J.%Masjuan%NULL%0,      A.%Alonso‐Cánovas%NULL%0,      A.%Alonso‐Cánovas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[François%Bénézit%NULL%0,      Paul%Le Turnier%NULL%0,      Charles%Declerck%NULL%0,      Cécile%Paillé%NULL%0,      Matthieu%Revest%NULL%0,      Vincent%Dubée%NULL%0,      Pierre%Tattevin%pierre.tattevin@chu-rennes.fr%0,      Cédric%Arvieux%NULL%0,      Marion%Baldeyrou%NULL%0,      Jean-Marc%Chapplain%NULL%0,      Pauline%Comacle%NULL%0,      Solène%Patrat-Delon%NULL%0,      Anne%Maillard%NULL%0,      Mélanie%Poinot%NULL%0,      Charlotte%Pronier%NULL%0,      Faouzi%Souala%NULL%0,      Vincent%Thibault%NULL%0,      Pierre%Abgueguen%NULL%0,      Hélène%Cormier%NULL%0,      Valérie%Delbos%NULL%0,      Marine%de la Chapelle%NULL%0,      Alexandra%Ducancelle%NULL%0,      Rafael%Mahieu%NULL%0,      Valérie%Rabier%NULL%0,      Sami%Rehaiem%NULL%0,      Yves%Vandamme%NULL%0,      Charlotte%Biron%NULL%0,      Jeanne%Brochon%NULL%0,      David%Boutoille%NULL%0,      Marie%Chauveau%NULL%0,      Colin%Deschanvres%NULL%0,      Benjamin J%Gaborit%NULL%0,      Joël%Jenvrin%NULL%0,      Raphaël%Lecomte%NULL%0,      Maeva%Lefebvre%NULL%0,      François%Raffi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,      Laura%Pezzati%NULL%0,      Laura%Pezzati%NULL%0,      Federico%Conti%NULL%0,      Dario%Bernacchia%NULL%0,      Matteo%Siano%NULL%0,      Letizia%Oreni%NULL%0,      Stefano%Rusconi%NULL%0,      Cristina%Gervasoni%NULL%0,      Anna Lisa%Ridolfo%NULL%0,      Giuliano%Rizzardini%NULL%0,      Spinello%Antinori%NULL%0,      Massimo%Galli%NULL%0,      Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.%Klopfenstein%NULL%0,      N.J.%Kadiane-Oussou%NULL%0,      L.%Toko%NULL%0,      P.-Y.%Royer%NULL%0,      Q.%Lepiller%NULL%0,      V.%Gendrin%NULL%0,      S.%Zayet%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%0,      Carlos M.%Chiesa-Estomba%NULL%0,      Daniele R.%De Siati%NULL%0,      Mihaela%Horoi%NULL%0,      Serge D.%Le Bon%NULL%0,      Alexandra%Rodriguez%NULL%0,      Didier%Dequanter%NULL%0,      Serge%Blecic%NULL%0,      Fahd%El Afia%NULL%0,      Lea%Distinguin%NULL%0,      Younes%Chekkoury-Idrissi%NULL%0,      Stéphane%Hans%NULL%0,      Irene Lopez%Delgado%NULL%0,      Christian%Calvo-Henriquez%NULL%0,      Philippe%Lavigne%NULL%0,      Chiara%Falanga%NULL%0,      Maria Rosaria%Barillari%NULL%0,      Giovanni%Cammaroto%NULL%0,      Mohamad%Khalife%NULL%0,      Pierre%Leich%NULL%0,      Christel%Souchay%NULL%0,      Camelia%Rossi%NULL%0,      Fabrice%Journe%NULL%0,      Julien%Hsieh%NULL%0,      Myriam%Edjlali%NULL%0,      Robert%Carlier%NULL%0,      Laurence%Ris%NULL%0,      Andrea%Lovato%NULL%0,      Cosimo%De Filippis%NULL%0,      Frederique%Coppee%NULL%0,      Nicolas%Fakhry%NULL%0,      Tareck%Ayad%NULL%0,      Sven%Saussez%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Cristina%Menni%null%1,       Ana M.%Valdes%null%1,       Maxim B.%Freidin%null%1,       Carole H.%Sudre%null%1,       Long H.%Nguyen%null%1,       David A.%Drew%null%1,       Sajaysurya%Ganesh%null%1,       Thomas%Varsavsky%null%1,       M. Jorge%Cardoso%null%1,       Julia S.%El-Sayed Moustafa%null%1,       Alessia%Visconti%null%1,       Pirro%Hysi%null%1,       Ruth C. E.%Bowyer%null%1,       Massimo%Mangino%null%1,       Mario%Falchi%null%1,       Jonathan%Wolf%null%1,       Sebastien%Ourselin%null%1,       Andrew T.%Chan%null%1,       Claire J.%Steves%null%1,       Tim D.%Spector%null%1,     Cristina%Menni%null%1,     Ana M.%Valdes%null%1,     Maxim B.%Freidin%null%1,     Carole H.%Sudre%null%1,     Long H.%Nguyen%null%1,     David A.%Drew%null%1,     Sajaysurya%Ganesh%null%1,     Thomas%Varsavsky%null%1,     M. Jorge%Cardoso%null%1,     Julia S.%El-Sayed Moustafa%null%1,     Alessia%Visconti%null%1,     Pirro%Hysi%null%1,     Ruth C. E.%Bowyer%null%1,     Massimo%Mangino%null%1,     Mario%Falchi%null%1,     Jonathan%Wolf%null%1,     Sebastien%Ourselin%null%1,     Andrew T.%Chan%null%1,     Claire J.%Steves%null%1,     Tim D.%Spector%null%1]</t>
+  </si>
+  <si>
+    <t>[Shima T.%Moein%NULL%1,      Seyed MohammadReza%Hashemian%NULL%1,      Babak%Mansourafshar%NULL%1,      Ali%Khorram‐Tousi%NULL%1,      Payam%Tabarsi%NULL%0,      Richard L.%Doty%doty@pennmedicine.upenn.edu%1]</t>
+  </si>
+  <si>
+    <t>[Borsetto%Daniele%coreGivesNoEmail%1,     Boscolo-Rizzo%Paolo%coreGivesNoEmail%1,     Cazzador%Diego%coreGivesNoEmail%1,     Fabbris%Cristoforo%coreGivesNoEmail%1,     Hopkins%Claire%coreGivesNoEmail%1,     Polesel%Jerry%coreGivesNoEmail%1,     Spinato%Giacomo%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Alma%Tostmann%NULL%1,      John%Bradley%NULL%2,      John%Bradley%NULL%0,      Teun%Bousema%NULL%2,      Teun%Bousema%NULL%0,      Wing-Kee%Yiek%NULL%2,      Wing-Kee%Yiek%NULL%0,      Minke%Holwerda%NULL%1,      Chantal%Bleeker-Rovers%NULL%1,      Jaap%ten Oever%NULL%1,      Corianne%Meijer%NULL%2,      Corianne%Meijer%NULL%0,      Janette%Rahamat-Langendoen%NULL%1,      Joost%Hopman%NULL%2,      Joost%Hopman%NULL%0,      Nannet%van der Geest-Blankert%NULL%1,      Heiman%Wertheim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luigi Angelo%Vaira%luigi.vaira@gmail.com%0,      Giovanna%Deiana%NULL%0,      Giovanna%Deiana%NULL%0,      Alessandro Giuseppe%Fois%NULL%1,      Pietro%Pirina%NULL%0,      Giordano%Madeddu%NULL%0,      Andrea%De Vito%NULL%0,      Sergio%Babudieri%NULL%0,      Marzia%Petrocelli%NULL%0,      Antonello%Serra%NULL%0,      Francesco%Bussu%NULL%0,      Enrica%Ligas%NULL%1,      Giovanni%Salzano%NULL%0,      Giacomo%De Riu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Liang En%Wee%ian.wee@mohh.com.sg%1,      Yvonne Fu Zi%Chan%NULL%2,      Yvonne Fu Zi%Chan%NULL%0,      Neville Wei Yang%Teo%NULL%1,      Benjamin Pei Zhi%Cherng%NULL%1,      Siew Yee%Thien%NULL%1,      Hei Man%Wong%NULL%1,      Limin%Wijaya%NULL%1,      Song Tar%Toh%NULL%1,      Thuan Tong%Tan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,      Farhoud%Faraji%NULL%0,      Farhoud%Faraji%NULL%0,      Divya P.%Prajapati%NULL%0,      Divya P.%Prajapati%NULL%0,      Christine E.%Boone%NULL%2,      Christine E.%Boone%NULL%0,      Adam S.%DeConde%NULL%0,      Adam S.%DeConde%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,       Farhoud%Faraji%NULL%0,       Farhoud%Faraji%NULL%0,       Divya P.%Prajapati%NULL%0,       Benjamin T.%Ostrander%NULL%0,       Adam S.%DeConde%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Á.%Beltrán‐Corbellini%beltran_corbellini@hotmail.com%0,       J. L.%Chico‐García%NULL%0,       J. L.%Chico‐García%NULL%0,       J.%Martínez‐Poles%NULL%0,       F.%Rodríguez‐Jorge%NULL%0,       E.%Natera‐Villalba%NULL%0,       J.%Gómez‐Corral%NULL%0,       J.%Gómez‐Corral%NULL%0,       A.%Gómez‐López%NULL%0,       E.%Monreal%NULL%0,       P.%Parra‐Díaz%NULL%0,       J. L.%Cortés‐Cuevas%NULL%0,       J. L.%Cortés‐Cuevas%NULL%0,       J. C.%Galán%NULL%0,       C.%Fragola‐Arnau%NULL%0,       J.%Porta‐Etessam%NULL%0,       J.%Masjuan%NULL%0,       A.%Alonso‐Cánovas%NULL%0,       A.%Alonso‐Cánovas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[François%Bénézit%NULL%0,       Paul%Le Turnier%NULL%0,       Charles%Declerck%NULL%0,       Cécile%Paillé%NULL%0,       Matthieu%Revest%NULL%0,       Vincent%Dubée%NULL%0,       Pierre%Tattevin%pierre.tattevin@chu-rennes.fr%0,       Cédric%Arvieux%NULL%0,       Marion%Baldeyrou%NULL%0,       Jean-Marc%Chapplain%NULL%0,       Pauline%Comacle%NULL%0,       Solène%Patrat-Delon%NULL%0,       Anne%Maillard%NULL%0,       Mélanie%Poinot%NULL%0,       Charlotte%Pronier%NULL%0,       Faouzi%Souala%NULL%0,       Vincent%Thibault%NULL%0,       Pierre%Abgueguen%NULL%0,       Hélène%Cormier%NULL%0,       Valérie%Delbos%NULL%0,       Marine%de la Chapelle%NULL%0,       Alexandra%Ducancelle%NULL%0,       Rafael%Mahieu%NULL%0,       Valérie%Rabier%NULL%0,       Sami%Rehaiem%NULL%0,       Yves%Vandamme%NULL%0,       Charlotte%Biron%NULL%0,       Jeanne%Brochon%NULL%0,       David%Boutoille%NULL%0,       Marie%Chauveau%NULL%0,       Colin%Deschanvres%NULL%0,       Benjamin J%Gaborit%NULL%0,       Joël%Jenvrin%NULL%0,       Raphaël%Lecomte%NULL%0,       Maeva%Lefebvre%NULL%0,       François%Raffi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,       Laura%Pezzati%NULL%0,       Laura%Pezzati%NULL%0,       Federico%Conti%NULL%0,       Dario%Bernacchia%NULL%0,       Matteo%Siano%NULL%0,       Letizia%Oreni%NULL%0,       Stefano%Rusconi%NULL%0,       Cristina%Gervasoni%NULL%0,       Anna Lisa%Ridolfo%NULL%0,       Giuliano%Rizzardini%NULL%0,       Spinello%Antinori%NULL%0,       Massimo%Galli%NULL%0,       Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.%Klopfenstein%NULL%0,       N.J.%Kadiane-Oussou%NULL%0,       L.%Toko%NULL%0,       P.-Y.%Royer%NULL%0,       Q.%Lepiller%NULL%0,       V.%Gendrin%NULL%0,       S.%Zayet%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%0,       Carlos M.%Chiesa-Estomba%NULL%0,       Daniele R.%De Siati%NULL%0,       Mihaela%Horoi%NULL%0,       Serge D.%Le Bon%NULL%0,       Alexandra%Rodriguez%NULL%0,       Didier%Dequanter%NULL%0,       Serge%Blecic%NULL%0,       Fahd%El Afia%NULL%0,       Lea%Distinguin%NULL%0,       Younes%Chekkoury-Idrissi%NULL%0,       Stéphane%Hans%NULL%0,       Irene Lopez%Delgado%NULL%0,       Christian%Calvo-Henriquez%NULL%0,       Philippe%Lavigne%NULL%0,       Chiara%Falanga%NULL%0,       Maria Rosaria%Barillari%NULL%0,       Giovanni%Cammaroto%NULL%0,       Mohamad%Khalife%NULL%0,       Pierre%Leich%NULL%0,       Christel%Souchay%NULL%0,       Camelia%Rossi%NULL%0,       Fabrice%Journe%NULL%0,       Julien%Hsieh%NULL%0,       Myriam%Edjlali%NULL%0,       Robert%Carlier%NULL%0,       Laurence%Ris%NULL%0,       Andrea%Lovato%NULL%0,       Cosimo%De Filippis%NULL%0,       Frederique%Coppee%NULL%0,       Nicolas%Fakhry%NULL%0,       Tareck%Ayad%NULL%0,       Sven%Saussez%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Cristina%Menni%null%1,        Ana M.%Valdes%null%1,        Maxim B.%Freidin%null%1,        Carole H.%Sudre%null%1,        Long H.%Nguyen%null%1,        David A.%Drew%null%1,        Sajaysurya%Ganesh%null%1,        Thomas%Varsavsky%null%1,        M. Jorge%Cardoso%null%1,        Julia S.%El-Sayed Moustafa%null%1,        Alessia%Visconti%null%1,        Pirro%Hysi%null%1,        Ruth C. E.%Bowyer%null%1,        Massimo%Mangino%null%1,        Mario%Falchi%null%1,        Jonathan%Wolf%null%1,        Sebastien%Ourselin%null%1,        Andrew T.%Chan%null%1,        Claire J.%Steves%null%1,        Tim D.%Spector%null%1,      Cristina%Menni%null%1,      Ana M.%Valdes%null%1,      Maxim B.%Freidin%null%1,      Carole H.%Sudre%null%1,      Long H.%Nguyen%null%1,      David A.%Drew%null%1,      Sajaysurya%Ganesh%null%1,      Thomas%Varsavsky%null%1,      M. Jorge%Cardoso%null%1,      Julia S.%El-Sayed Moustafa%null%1,      Alessia%Visconti%null%1,      Pirro%Hysi%null%1,      Ruth C. E.%Bowyer%null%1,      Massimo%Mangino%null%1,      Mario%Falchi%null%1,      Jonathan%Wolf%null%1,      Sebastien%Ourselin%null%1,      Andrew T.%Chan%null%1,      Claire J.%Steves%null%1,      Tim D.%Spector%null%1]</t>
+  </si>
+  <si>
+    <t>[Shima T.%Moein%NULL%1,       Seyed MohammadReza%Hashemian%NULL%1,       Babak%Mansourafshar%NULL%1,       Ali%Khorram‐Tousi%NULL%1,       Payam%Tabarsi%NULL%0,       Richard L.%Doty%doty@pennmedicine.upenn.edu%1]</t>
+  </si>
+  <si>
+    <t>[Borsetto%Daniele%coreGivesNoEmail%1,      Boscolo-Rizzo%Paolo%coreGivesNoEmail%1,      Cazzador%Diego%coreGivesNoEmail%1,      Fabbris%Cristoforo%coreGivesNoEmail%1,      Hopkins%Claire%coreGivesNoEmail%1,      Polesel%Jerry%coreGivesNoEmail%1,      Spinato%Giacomo%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Alma%Tostmann%NULL%1,       John%Bradley%NULL%2,       John%Bradley%NULL%0,       Teun%Bousema%NULL%2,       Teun%Bousema%NULL%0,       Wing-Kee%Yiek%NULL%2,       Wing-Kee%Yiek%NULL%0,       Minke%Holwerda%NULL%1,       Chantal%Bleeker-Rovers%NULL%1,       Jaap%ten Oever%NULL%1,       Corianne%Meijer%NULL%2,       Corianne%Meijer%NULL%0,       Janette%Rahamat-Langendoen%NULL%1,       Joost%Hopman%NULL%2,       Joost%Hopman%NULL%0,       Nannet%van der Geest-Blankert%NULL%1,       Heiman%Wertheim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luigi Angelo%Vaira%luigi.vaira@gmail.com%0,       Giovanna%Deiana%NULL%0,       Giovanna%Deiana%NULL%0,       Alessandro Giuseppe%Fois%NULL%1,       Pietro%Pirina%NULL%0,       Giordano%Madeddu%NULL%0,       Andrea%De Vito%NULL%0,       Sergio%Babudieri%NULL%0,       Marzia%Petrocelli%NULL%0,       Antonello%Serra%NULL%0,       Francesco%Bussu%NULL%0,       Enrica%Ligas%NULL%1,       Giovanni%Salzano%NULL%0,       Giacomo%De Riu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Liang En%Wee%ian.wee@mohh.com.sg%1,       Yvonne Fu Zi%Chan%NULL%2,       Yvonne Fu Zi%Chan%NULL%0,       Neville Wei Yang%Teo%NULL%1,       Benjamin Pei Zhi%Cherng%NULL%1,       Siew Yee%Thien%NULL%1,       Hei Man%Wong%NULL%1,       Limin%Wijaya%NULL%1,       Song Tar%Toh%NULL%1,       Thuan Tong%Tan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,       Farhoud%Faraji%NULL%0,       Farhoud%Faraji%NULL%0,       Divya P.%Prajapati%NULL%0,       Divya P.%Prajapati%NULL%0,       Christine E.%Boone%NULL%2,       Christine E.%Boone%NULL%0,       Adam S.%DeConde%NULL%0,       Adam S.%DeConde%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -803,7 +959,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
@@ -832,7 +988,7 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -861,7 +1017,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>104</v>
+        <v>158</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -890,7 +1046,7 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -919,7 +1075,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>107</v>
+        <v>160</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -948,7 +1104,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>108</v>
+        <v>161</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1006,7 +1162,7 @@
         <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -1035,7 +1191,7 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>111</v>
+        <v>163</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -1064,13 +1220,13 @@
         <v>93</v>
       </c>
       <c r="E11" t="s">
-        <v>112</v>
+        <v>164</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="H11" t="s">
         <v>43</v>
@@ -1093,7 +1249,7 @@
         <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>113</v>
+        <v>165</v>
       </c>
       <c r="F12" t="s">
         <v>69</v>
@@ -1122,7 +1278,7 @@
         <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>114</v>
+        <v>166</v>
       </c>
       <c r="F13" t="s">
         <v>73</v>
@@ -1151,7 +1307,7 @@
         <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>115</v>
+        <v>167</v>
       </c>
       <c r="F14" t="s">
         <v>77</v>
@@ -1180,7 +1336,7 @@
         <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>116</v>
+        <v>168</v>
       </c>
       <c r="F15" t="s">
         <v>82</v>

--- a/Covid_19_Dataset_and_References/References/60.xlsx
+++ b/Covid_19_Dataset_and_References/References/60.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="200">
   <si>
     <t>Doi</t>
   </si>
@@ -635,6 +635,99 @@
   </si>
   <si>
     <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,       Farhoud%Faraji%NULL%0,       Farhoud%Faraji%NULL%0,       Divya P.%Prajapati%NULL%0,       Divya P.%Prajapati%NULL%0,       Christine E.%Boone%NULL%2,       Christine E.%Boone%NULL%0,       Adam S.%DeConde%NULL%0,       Adam S.%DeConde%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,        Farhoud%Faraji%NULL%0,        Farhoud%Faraji%NULL%0,        Divya P.%Prajapati%NULL%0,        Benjamin T.%Ostrander%NULL%0,        Adam S.%DeConde%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Á.%Beltrán‐Corbellini%beltran_corbellini@hotmail.com%0,        J. L.%Chico‐García%NULL%0,        J. L.%Chico‐García%NULL%0,        J.%Martínez‐Poles%NULL%0,        F.%Rodríguez‐Jorge%NULL%0,        E.%Natera‐Villalba%NULL%0,        J.%Gómez‐Corral%NULL%0,        J.%Gómez‐Corral%NULL%0,        A.%Gómez‐López%NULL%0,        E.%Monreal%NULL%0,        P.%Parra‐Díaz%NULL%0,        J. L.%Cortés‐Cuevas%NULL%0,        J. L.%Cortés‐Cuevas%NULL%0,        J. C.%Galán%NULL%0,        C.%Fragola‐Arnau%NULL%0,        J.%Porta‐Etessam%NULL%0,        J.%Masjuan%NULL%0,        A.%Alonso‐Cánovas%NULL%0,        A.%Alonso‐Cánovas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[François%Bénézit%NULL%0,        Paul%Le Turnier%NULL%0,        Charles%Declerck%NULL%0,        Cécile%Paillé%NULL%0,        Matthieu%Revest%NULL%0,        Vincent%Dubée%NULL%0,        Pierre%Tattevin%pierre.tattevin@chu-rennes.fr%0,        Cédric%Arvieux%NULL%0,        Marion%Baldeyrou%NULL%0,        Jean-Marc%Chapplain%NULL%0,        Pauline%Comacle%NULL%0,        Solène%Patrat-Delon%NULL%0,        Anne%Maillard%NULL%0,        Mélanie%Poinot%NULL%0,        Charlotte%Pronier%NULL%0,        Faouzi%Souala%NULL%0,        Vincent%Thibault%NULL%0,        Pierre%Abgueguen%NULL%0,        Hélène%Cormier%NULL%0,        Valérie%Delbos%NULL%0,        Marine%de la Chapelle%NULL%0,        Alexandra%Ducancelle%NULL%0,        Rafael%Mahieu%NULL%0,        Valérie%Rabier%NULL%0,        Sami%Rehaiem%NULL%0,        Yves%Vandamme%NULL%0,        Charlotte%Biron%NULL%0,        Jeanne%Brochon%NULL%0,        David%Boutoille%NULL%0,        Marie%Chauveau%NULL%0,        Colin%Deschanvres%NULL%0,        Benjamin J%Gaborit%NULL%0,        Joël%Jenvrin%NULL%0,        Raphaël%Lecomte%NULL%0,        Maeva%Lefebvre%NULL%0,        François%Raffi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,        Laura%Pezzati%NULL%0,        Laura%Pezzati%NULL%0,        Federico%Conti%NULL%0,        Dario%Bernacchia%NULL%0,        Matteo%Siano%NULL%0,        Letizia%Oreni%NULL%0,        Stefano%Rusconi%NULL%0,        Cristina%Gervasoni%NULL%0,        Anna Lisa%Ridolfo%NULL%0,        Giuliano%Rizzardini%NULL%0,        Spinello%Antinori%NULL%0,        Massimo%Galli%NULL%0,        Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.%Klopfenstein%NULL%0,        N.J.%Kadiane-Oussou%NULL%0,        L.%Toko%NULL%0,        P.-Y.%Royer%NULL%0,        Q.%Lepiller%NULL%0,        V.%Gendrin%NULL%0,        S.%Zayet%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%0,        Carlos M.%Chiesa-Estomba%NULL%0,        Daniele R.%De Siati%NULL%0,        Mihaela%Horoi%NULL%0,        Serge D.%Le Bon%NULL%0,        Alexandra%Rodriguez%NULL%0,        Didier%Dequanter%NULL%0,        Serge%Blecic%NULL%0,        Fahd%El Afia%NULL%0,        Lea%Distinguin%NULL%0,        Younes%Chekkoury-Idrissi%NULL%0,        Stéphane%Hans%NULL%0,        Irene Lopez%Delgado%NULL%0,        Christian%Calvo-Henriquez%NULL%0,        Philippe%Lavigne%NULL%0,        Chiara%Falanga%NULL%0,        Maria Rosaria%Barillari%NULL%0,        Giovanni%Cammaroto%NULL%0,        Mohamad%Khalife%NULL%0,        Pierre%Leich%NULL%0,        Christel%Souchay%NULL%0,        Camelia%Rossi%NULL%0,        Fabrice%Journe%NULL%0,        Julien%Hsieh%NULL%0,        Myriam%Edjlali%NULL%0,        Robert%Carlier%NULL%0,        Laurence%Ris%NULL%0,        Andrea%Lovato%NULL%0,        Cosimo%De Filippis%NULL%0,        Frederique%Coppee%NULL%0,        Nicolas%Fakhry%NULL%0,        Tareck%Ayad%NULL%0,        Sven%Saussez%NULL%0]</t>
+  </si>
+  <si>
+    <t>"Neurologic Manifestations of Hospitalized Patients With Coronavirus Disease 2019 in Wuhan, China"</t>
+  </si>
+  <si>
+    <t>[Ling%Mao%xref no email%0, Huijuan%Jin%xref no email%0, Mengdie%Wang%xref no email%0, Yu%Hu%xref no email%0, Shengcai%Chen%xref no email%0, Quanwei%He%xref no email%0, Jiang%Chang%xref no email%0, Candong%Hong%xref no email%0, Yifan%Zhou%xref no email%0, David%Wang%xref no email%0, Xiaoping%Miao%xref no email%0, Yanan%Li%xref no email%0, Bo%Hu%xref no email%0]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-26</t>
+  </si>
+  <si>
+    <t>[ Cristina%Menni%null%1,         Ana M.%Valdes%null%1,         Maxim B.%Freidin%null%1,         Carole H.%Sudre%null%1,         Long H.%Nguyen%null%1,         David A.%Drew%null%1,         Sajaysurya%Ganesh%null%1,         Thomas%Varsavsky%null%1,         M. Jorge%Cardoso%null%1,         Julia S.%El-Sayed Moustafa%null%1,         Alessia%Visconti%null%1,         Pirro%Hysi%null%1,         Ruth C. E.%Bowyer%null%1,         Massimo%Mangino%null%1,         Mario%Falchi%null%1,         Jonathan%Wolf%null%1,         Sebastien%Ourselin%null%1,         Andrew T.%Chan%null%1,         Claire J.%Steves%null%1,         Tim D.%Spector%null%1,       Cristina%Menni%null%1,       Ana M.%Valdes%null%1,       Maxim B.%Freidin%null%1,       Carole H.%Sudre%null%1,       Long H.%Nguyen%null%1,       David A.%Drew%null%1,       Sajaysurya%Ganesh%null%1,       Thomas%Varsavsky%null%1,       M. Jorge%Cardoso%null%1,       Julia S.%El-Sayed Moustafa%null%1,       Alessia%Visconti%null%1,       Pirro%Hysi%null%1,       Ruth C. E.%Bowyer%null%1,       Massimo%Mangino%null%1,       Mario%Falchi%null%1,       Jonathan%Wolf%null%1,       Sebastien%Ourselin%null%1,       Andrew T.%Chan%null%1,       Claire J.%Steves%null%1,       Tim D.%Spector%null%1]</t>
+  </si>
+  <si>
+    <t>[Shima T.%Moein%NULL%1,        Seyed MohammadReza%Hashemian%NULL%1,        Babak%Mansourafshar%NULL%1,        Ali%Khorram‐Tousi%NULL%1,        Payam%Tabarsi%NULL%1,        Richard L.%Doty%doty@pennmedicine.upenn.edu%1]</t>
+  </si>
+  <si>
+    <t>[Borsetto%Daniele%coreGivesNoEmail%1,       Boscolo-Rizzo%Paolo%coreGivesNoEmail%1,       Cazzador%Diego%coreGivesNoEmail%1,       Fabbris%Cristoforo%coreGivesNoEmail%1,       Hopkins%Claire%coreGivesNoEmail%1,       Polesel%Jerry%coreGivesNoEmail%1,       Spinato%Giacomo%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Alma%Tostmann%NULL%1,        John%Bradley%NULL%2,        John%Bradley%NULL%0,        Teun%Bousema%NULL%2,        Teun%Bousema%NULL%0,        Wing-Kee%Yiek%NULL%2,        Wing-Kee%Yiek%NULL%0,        Minke%Holwerda%NULL%1,        Chantal%Bleeker-Rovers%NULL%1,        Jaap%ten Oever%NULL%1,        Corianne%Meijer%NULL%2,        Corianne%Meijer%NULL%0,        Janette%Rahamat-Langendoen%NULL%1,        Joost%Hopman%NULL%2,        Joost%Hopman%NULL%0,        Nannet%van der Geest-Blankert%NULL%1,        Heiman%Wertheim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luigi Angelo%Vaira%luigi.vaira@gmail.com%0,        Giovanna%Deiana%NULL%0,        Giovanna%Deiana%NULL%0,        Alessandro Giuseppe%Fois%NULL%1,        Pietro%Pirina%NULL%0,        Giordano%Madeddu%NULL%0,        Andrea%De Vito%NULL%0,        Sergio%Babudieri%NULL%0,        Marzia%Petrocelli%NULL%0,        Antonello%Serra%NULL%0,        Francesco%Bussu%NULL%0,        Enrica%Ligas%NULL%1,        Giovanni%Salzano%NULL%0,        Giacomo%De Riu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Liang En%Wee%ian.wee@mohh.com.sg%1,        Yvonne Fu Zi%Chan%NULL%2,        Yvonne Fu Zi%Chan%NULL%0,        Neville Wei Yang%Teo%NULL%1,        Benjamin Pei Zhi%Cherng%NULL%1,        Siew Yee%Thien%NULL%1,        Hei Man%Wong%NULL%1,        Limin%Wijaya%NULL%1,        Song Tar%Toh%NULL%1,        Thuan Tong%Tan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,        Farhoud%Faraji%NULL%0,        Farhoud%Faraji%NULL%0,        Divya P.%Prajapati%NULL%0,        Divya P.%Prajapati%NULL%0,        Christine E.%Boone%NULL%2,        Christine E.%Boone%NULL%0,        Adam S.%DeConde%NULL%0,        Adam S.%DeConde%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,         Farhoud%Faraji%NULL%0,         Farhoud%Faraji%NULL%0,         Divya P.%Prajapati%NULL%0,         Benjamin T.%Ostrander%NULL%0,         Adam S.%DeConde%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Á.%Beltrán‐Corbellini%beltran_corbellini@hotmail.com%0,         J. L.%Chico‐García%NULL%0,         J. L.%Chico‐García%NULL%0,         J.%Martínez‐Poles%NULL%0,         F.%Rodríguez‐Jorge%NULL%0,         E.%Natera‐Villalba%NULL%0,         J.%Gómez‐Corral%NULL%0,         J.%Gómez‐Corral%NULL%0,         A.%Gómez‐López%NULL%0,         E.%Monreal%NULL%0,         P.%Parra‐Díaz%NULL%0,         J. L.%Cortés‐Cuevas%NULL%0,         J. L.%Cortés‐Cuevas%NULL%0,         J. C.%Galán%NULL%0,         C.%Fragola‐Arnau%NULL%0,         J.%Porta‐Etessam%NULL%0,         J.%Masjuan%NULL%0,         A.%Alonso‐Cánovas%NULL%0,         A.%Alonso‐Cánovas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[François%Bénézit%NULL%0,         Paul%Le Turnier%NULL%0,         Charles%Declerck%NULL%0,         Cécile%Paillé%NULL%0,         Matthieu%Revest%NULL%0,         Vincent%Dubée%NULL%0,         Pierre%Tattevin%pierre.tattevin@chu-rennes.fr%0,         Cédric%Arvieux%NULL%0,         Marion%Baldeyrou%NULL%0,         Jean-Marc%Chapplain%NULL%0,         Pauline%Comacle%NULL%0,         Solène%Patrat-Delon%NULL%0,         Anne%Maillard%NULL%0,         Mélanie%Poinot%NULL%0,         Charlotte%Pronier%NULL%0,         Faouzi%Souala%NULL%0,         Vincent%Thibault%NULL%0,         Pierre%Abgueguen%NULL%0,         Hélène%Cormier%NULL%0,         Valérie%Delbos%NULL%0,         Marine%de la Chapelle%NULL%0,         Alexandra%Ducancelle%NULL%0,         Rafael%Mahieu%NULL%0,         Valérie%Rabier%NULL%0,         Sami%Rehaiem%NULL%0,         Yves%Vandamme%NULL%0,         Charlotte%Biron%NULL%0,         Jeanne%Brochon%NULL%0,         David%Boutoille%NULL%0,         Marie%Chauveau%NULL%0,         Colin%Deschanvres%NULL%0,         Benjamin J%Gaborit%NULL%0,         Joël%Jenvrin%NULL%0,         Raphaël%Lecomte%NULL%0,         Maeva%Lefebvre%NULL%0,         François%Raffi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,         Laura%Pezzati%NULL%0,         Laura%Pezzati%NULL%0,         Federico%Conti%NULL%0,         Dario%Bernacchia%NULL%0,         Matteo%Siano%NULL%0,         Letizia%Oreni%NULL%0,         Stefano%Rusconi%NULL%0,         Cristina%Gervasoni%NULL%0,         Anna Lisa%Ridolfo%NULL%0,         Giuliano%Rizzardini%NULL%0,         Spinello%Antinori%NULL%0,         Massimo%Galli%NULL%0,         Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.%Klopfenstein%NULL%0,         N.J.%Kadiane-Oussou%NULL%0,         L.%Toko%NULL%0,         P.-Y.%Royer%NULL%0,         Q.%Lepiller%NULL%0,         V.%Gendrin%NULL%0,         S.%Zayet%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%0,         Carlos M.%Chiesa-Estomba%NULL%0,         Daniele R.%De Siati%NULL%0,         Mihaela%Horoi%NULL%0,         Serge D.%Le Bon%NULL%0,         Alexandra%Rodriguez%NULL%0,         Didier%Dequanter%NULL%0,         Serge%Blecic%NULL%0,         Fahd%El Afia%NULL%0,         Lea%Distinguin%NULL%0,         Younes%Chekkoury-Idrissi%NULL%0,         Stéphane%Hans%NULL%0,         Irene Lopez%Delgado%NULL%0,         Christian%Calvo-Henriquez%NULL%0,         Philippe%Lavigne%NULL%0,         Chiara%Falanga%NULL%0,         Maria Rosaria%Barillari%NULL%0,         Giovanni%Cammaroto%NULL%0,         Mohamad%Khalife%NULL%0,         Pierre%Leich%NULL%0,         Christel%Souchay%NULL%0,         Camelia%Rossi%NULL%0,         Fabrice%Journe%NULL%0,         Julien%Hsieh%NULL%0,         Myriam%Edjlali%NULL%0,         Robert%Carlier%NULL%0,         Laurence%Ris%NULL%0,         Andrea%Lovato%NULL%0,         Cosimo%De Filippis%NULL%0,         Frederique%Coppee%NULL%0,         Nicolas%Fakhry%NULL%0,         Tareck%Ayad%NULL%0,         Sven%Saussez%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ling%Mao%xref no email%0,  Huijuan%Jin%xref no email%0,  Mengdie%Wang%xref no email%0,  Yu%Hu%xref no email%0,  Shengcai%Chen%xref no email%0,  Quanwei%He%xref no email%0,  Jiang%Chang%xref no email%0,  Candong%Hong%xref no email%0,  Yifan%Zhou%xref no email%0,  David%Wang%xref no email%0,  Xiaoping%Miao%xref no email%0,  Yanan%Li%xref no email%0,  Bo%Hu%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[ Cristina%Menni%null%1,          Ana M.%Valdes%null%1,          Maxim B.%Freidin%null%1,          Carole H.%Sudre%null%1,          Long H.%Nguyen%null%1,          David A.%Drew%null%1,          Sajaysurya%Ganesh%null%1,          Thomas%Varsavsky%null%1,          M. Jorge%Cardoso%null%1,          Julia S.%El-Sayed Moustafa%null%1,          Alessia%Visconti%null%1,          Pirro%Hysi%null%1,          Ruth C. E.%Bowyer%null%1,          Massimo%Mangino%null%1,          Mario%Falchi%null%1,          Jonathan%Wolf%null%1,          Sebastien%Ourselin%null%1,          Andrew T.%Chan%null%1,          Claire J.%Steves%null%1,          Tim D.%Spector%null%1,        Cristina%Menni%null%1,        Ana M.%Valdes%null%1,        Maxim B.%Freidin%null%1,        Carole H.%Sudre%null%1,        Long H.%Nguyen%null%1,        David A.%Drew%null%1,        Sajaysurya%Ganesh%null%1,        Thomas%Varsavsky%null%1,        M. Jorge%Cardoso%null%1,        Julia S.%El-Sayed Moustafa%null%1,        Alessia%Visconti%null%1,        Pirro%Hysi%null%1,        Ruth C. E.%Bowyer%null%1,        Massimo%Mangino%null%1,        Mario%Falchi%null%1,        Jonathan%Wolf%null%1,        Sebastien%Ourselin%null%1,        Andrew T.%Chan%null%1,        Claire J.%Steves%null%1,        Tim D.%Spector%null%1]</t>
+  </si>
+  <si>
+    <t>[Shima T.%Moein%NULL%1,         Seyed MohammadReza%Hashemian%NULL%1,         Babak%Mansourafshar%NULL%1,         Ali%Khorram‐Tousi%NULL%1,         Payam%Tabarsi%NULL%1,         Richard L.%Doty%doty@pennmedicine.upenn.edu%1]</t>
+  </si>
+  <si>
+    <t>[Borsetto%Daniele%coreGivesNoEmail%1,        Boscolo-Rizzo%Paolo%coreGivesNoEmail%1,        Cazzador%Diego%coreGivesNoEmail%1,        Fabbris%Cristoforo%coreGivesNoEmail%1,        Hopkins%Claire%coreGivesNoEmail%1,        Polesel%Jerry%coreGivesNoEmail%1,        Spinato%Giacomo%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Alma%Tostmann%NULL%1,         John%Bradley%NULL%2,         John%Bradley%NULL%0,         Teun%Bousema%NULL%2,         Teun%Bousema%NULL%0,         Wing-Kee%Yiek%NULL%2,         Wing-Kee%Yiek%NULL%0,         Minke%Holwerda%NULL%1,         Chantal%Bleeker-Rovers%NULL%1,         Jaap%ten Oever%NULL%1,         Corianne%Meijer%NULL%2,         Corianne%Meijer%NULL%0,         Janette%Rahamat-Langendoen%NULL%1,         Joost%Hopman%NULL%2,         Joost%Hopman%NULL%0,         Nannet%van der Geest-Blankert%NULL%1,         Heiman%Wertheim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luigi Angelo%Vaira%luigi.vaira@gmail.com%0,         Giovanna%Deiana%NULL%0,         Giovanna%Deiana%NULL%0,         Alessandro Giuseppe%Fois%NULL%1,         Pietro%Pirina%NULL%0,         Giordano%Madeddu%NULL%0,         Andrea%De Vito%NULL%0,         Sergio%Babudieri%NULL%0,         Marzia%Petrocelli%NULL%0,         Antonello%Serra%NULL%0,         Francesco%Bussu%NULL%0,         Enrica%Ligas%NULL%1,         Giovanni%Salzano%NULL%0,         Giacomo%De Riu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Liang En%Wee%ian.wee@mohh.com.sg%1,         Yvonne Fu Zi%Chan%NULL%2,         Yvonne Fu Zi%Chan%NULL%0,         Neville Wei Yang%Teo%NULL%1,         Benjamin Pei Zhi%Cherng%NULL%1,         Siew Yee%Thien%NULL%1,         Hei Man%Wong%NULL%1,         Limin%Wijaya%NULL%1,         Song Tar%Toh%NULL%1,         Thuan Tong%Tan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,         Farhoud%Faraji%NULL%0,         Farhoud%Faraji%NULL%0,         Divya P.%Prajapati%NULL%0,         Divya P.%Prajapati%NULL%0,         Christine E.%Boone%NULL%2,         Christine E.%Boone%NULL%0,         Adam S.%DeConde%NULL%0,         Adam S.%DeConde%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -959,7 +1052,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
@@ -988,7 +1081,7 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -1017,7 +1110,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>158</v>
+        <v>188</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -1046,7 +1139,7 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1075,7 +1168,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1104,7 +1197,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1127,22 +1220,22 @@
         <v>43983.0</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>177</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>178</v>
       </c>
       <c r="I8" t="s">
         <v>40</v>
@@ -1162,7 +1255,7 @@
         <v>58</v>
       </c>
       <c r="E9" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -1191,7 +1284,7 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>163</v>
+        <v>194</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -1220,7 +1313,7 @@
         <v>93</v>
       </c>
       <c r="E11" t="s">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -1249,7 +1342,7 @@
         <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
       <c r="F12" t="s">
         <v>69</v>
@@ -1278,7 +1371,7 @@
         <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="F13" t="s">
         <v>73</v>
@@ -1307,7 +1400,7 @@
         <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
       <c r="F14" t="s">
         <v>77</v>
@@ -1336,7 +1429,7 @@
         <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="F15" t="s">
         <v>82</v>

--- a/Covid_19_Dataset_and_References/References/60.xlsx
+++ b/Covid_19_Dataset_and_References/References/60.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="229">
   <si>
     <t>Doi</t>
   </si>
@@ -728,6 +728,98 @@
   </si>
   <si>
     <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,         Farhoud%Faraji%NULL%0,         Farhoud%Faraji%NULL%0,         Divya P.%Prajapati%NULL%0,         Divya P.%Prajapati%NULL%0,         Christine E.%Boone%NULL%2,         Christine E.%Boone%NULL%0,         Adam S.%DeConde%NULL%0,         Adam S.%DeConde%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,          Farhoud%Faraji%NULL%0,          Farhoud%Faraji%NULL%0,          Divya P.%Prajapati%NULL%0,          Benjamin T.%Ostrander%NULL%0,          Adam S.%DeConde%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Á.%Beltrán‐Corbellini%beltran_corbellini@hotmail.com%0,          J. L.%Chico‐García%NULL%0,          J. L.%Chico‐García%NULL%0,          J.%Martínez‐Poles%NULL%0,          F.%Rodríguez‐Jorge%NULL%0,          E.%Natera‐Villalba%NULL%0,          J.%Gómez‐Corral%NULL%0,          J.%Gómez‐Corral%NULL%0,          A.%Gómez‐López%NULL%0,          E.%Monreal%NULL%0,          P.%Parra‐Díaz%NULL%0,          J. L.%Cortés‐Cuevas%NULL%0,          J. L.%Cortés‐Cuevas%NULL%0,          J. C.%Galán%NULL%0,          C.%Fragola‐Arnau%NULL%0,          J.%Porta‐Etessam%NULL%0,          J.%Masjuan%NULL%0,          A.%Alonso‐Cánovas%NULL%0,          A.%Alonso‐Cánovas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[François%Bénézit%NULL%0,          Paul%Le Turnier%NULL%0,          Charles%Declerck%NULL%0,          Cécile%Paillé%NULL%0,          Matthieu%Revest%NULL%0,          Vincent%Dubée%NULL%0,          Pierre%Tattevin%pierre.tattevin@chu-rennes.fr%0,          Cédric%Arvieux%NULL%0,          Marion%Baldeyrou%NULL%0,          Jean-Marc%Chapplain%NULL%0,          Pauline%Comacle%NULL%0,          Solène%Patrat-Delon%NULL%0,          Anne%Maillard%NULL%0,          Mélanie%Poinot%NULL%0,          Charlotte%Pronier%NULL%0,          Faouzi%Souala%NULL%0,          Vincent%Thibault%NULL%0,          Pierre%Abgueguen%NULL%0,          Hélène%Cormier%NULL%0,          Valérie%Delbos%NULL%0,          Marine%de la Chapelle%NULL%0,          Alexandra%Ducancelle%NULL%0,          Rafael%Mahieu%NULL%0,          Valérie%Rabier%NULL%0,          Sami%Rehaiem%NULL%0,          Yves%Vandamme%NULL%0,          Charlotte%Biron%NULL%0,          Jeanne%Brochon%NULL%0,          David%Boutoille%NULL%0,          Marie%Chauveau%NULL%0,          Colin%Deschanvres%NULL%0,          Benjamin J%Gaborit%NULL%0,          Joël%Jenvrin%NULL%0,          Raphaël%Lecomte%NULL%0,          Maeva%Lefebvre%NULL%0,          François%Raffi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,          Laura%Pezzati%NULL%0,          Laura%Pezzati%NULL%0,          Federico%Conti%NULL%0,          Dario%Bernacchia%NULL%0,          Matteo%Siano%NULL%0,          Letizia%Oreni%NULL%0,          Stefano%Rusconi%NULL%0,          Cristina%Gervasoni%NULL%0,          Anna Lisa%Ridolfo%NULL%0,          Giuliano%Rizzardini%NULL%0,          Spinello%Antinori%NULL%0,          Massimo%Galli%NULL%0,          Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.%Klopfenstein%NULL%0,          N.J.%Kadiane-Oussou%NULL%0,          L.%Toko%NULL%0,          P.-Y.%Royer%NULL%0,          Q.%Lepiller%NULL%0,          V.%Gendrin%NULL%0,          S.%Zayet%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%0,          Carlos M.%Chiesa-Estomba%NULL%0,          Daniele R.%De Siati%NULL%0,          Mihaela%Horoi%NULL%0,          Serge D.%Le Bon%NULL%0,          Alexandra%Rodriguez%NULL%0,          Didier%Dequanter%NULL%0,          Serge%Blecic%NULL%0,          Fahd%El Afia%NULL%0,          Lea%Distinguin%NULL%0,          Younes%Chekkoury-Idrissi%NULL%0,          Stéphane%Hans%NULL%0,          Irene Lopez%Delgado%NULL%0,          Christian%Calvo-Henriquez%NULL%0,          Philippe%Lavigne%NULL%0,          Chiara%Falanga%NULL%0,          Maria Rosaria%Barillari%NULL%0,          Giovanni%Cammaroto%NULL%0,          Mohamad%Khalife%NULL%0,          Pierre%Leich%NULL%0,          Christel%Souchay%NULL%0,          Camelia%Rossi%NULL%0,          Fabrice%Journe%NULL%0,          Julien%Hsieh%NULL%0,          Myriam%Edjlali%NULL%0,          Robert%Carlier%NULL%0,          Laurence%Ris%NULL%0,          Andrea%Lovato%NULL%0,          Cosimo%De Filippis%NULL%0,          Frederique%Coppee%NULL%0,          Nicolas%Fakhry%NULL%0,          Tareck%Ayad%NULL%0,          Sven%Saussez%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ling%Mao%xref no email%0,   Huijuan%Jin%xref no email%0,   Mengdie%Wang%xref no email%0,   Yu%Hu%xref no email%0,   Shengcai%Chen%xref no email%0,   Quanwei%He%xref no email%0,   Jiang%Chang%xref no email%0,   Candong%Hong%xref no email%0,   Yifan%Zhou%xref no email%0,   David%Wang%xref no email%0,   Xiaoping%Miao%xref no email%0,   Yanan%Li%xref no email%0,   Bo%Hu%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[ Cristina%Menni%null%1,           Ana M.%Valdes%null%1,           Maxim B.%Freidin%null%1,           Carole H.%Sudre%null%1,           Long H.%Nguyen%null%1,           David A.%Drew%null%1,           Sajaysurya%Ganesh%null%1,           Thomas%Varsavsky%null%1,           M. Jorge%Cardoso%null%1,           Julia S.%El-Sayed Moustafa%null%1,           Alessia%Visconti%null%1,           Pirro%Hysi%null%1,           Ruth C. E.%Bowyer%null%1,           Massimo%Mangino%null%1,           Mario%Falchi%null%1,           Jonathan%Wolf%null%1,           Sebastien%Ourselin%null%1,           Andrew T.%Chan%null%1,           Claire J.%Steves%null%1,           Tim D.%Spector%null%1,         Cristina%Menni%null%1,         Ana M.%Valdes%null%1,         Maxim B.%Freidin%null%1,         Carole H.%Sudre%null%1,         Long H.%Nguyen%null%1,         David A.%Drew%null%1,         Sajaysurya%Ganesh%null%1,         Thomas%Varsavsky%null%1,         M. Jorge%Cardoso%null%1,         Julia S.%El-Sayed Moustafa%null%1,         Alessia%Visconti%null%1,         Pirro%Hysi%null%1,         Ruth C. E.%Bowyer%null%1,         Massimo%Mangino%null%1,         Mario%Falchi%null%1,         Jonathan%Wolf%null%1,         Sebastien%Ourselin%null%1,         Andrew T.%Chan%null%1,         Claire J.%Steves%null%1,         Tim D.%Spector%null%1]</t>
+  </si>
+  <si>
+    <t>[Shima T.%Moein%NULL%1,          Seyed MohammadReza%Hashemian%NULL%1,          Babak%Mansourafshar%NULL%1,          Ali%Khorram‐Tousi%NULL%1,          Payam%Tabarsi%NULL%1,          Richard L.%Doty%doty@pennmedicine.upenn.edu%1]</t>
+  </si>
+  <si>
+    <t>[Borsetto%Daniele%coreGivesNoEmail%1,         Boscolo-Rizzo%Paolo%coreGivesNoEmail%1,         Cazzador%Diego%coreGivesNoEmail%1,         Fabbris%Cristoforo%coreGivesNoEmail%1,         Hopkins%Claire%coreGivesNoEmail%1,         Polesel%Jerry%coreGivesNoEmail%1,         Spinato%Giacomo%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Alma%Tostmann%NULL%1,          John%Bradley%NULL%2,          John%Bradley%NULL%0,          Teun%Bousema%NULL%2,          Teun%Bousema%NULL%0,          Wing-Kee%Yiek%NULL%2,          Wing-Kee%Yiek%NULL%0,          Minke%Holwerda%NULL%1,          Chantal%Bleeker-Rovers%NULL%1,          Jaap%ten Oever%NULL%1,          Corianne%Meijer%NULL%2,          Corianne%Meijer%NULL%0,          Janette%Rahamat-Langendoen%NULL%1,          Joost%Hopman%NULL%2,          Joost%Hopman%NULL%0,          Nannet%van der Geest-Blankert%NULL%1,          Heiman%Wertheim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luigi Angelo%Vaira%luigi.vaira@gmail.com%0,          Giovanna%Deiana%NULL%0,          Giovanna%Deiana%NULL%0,          Alessandro Giuseppe%Fois%NULL%1,          Pietro%Pirina%NULL%0,          Giordano%Madeddu%NULL%0,          Andrea%De Vito%NULL%0,          Sergio%Babudieri%NULL%0,          Marzia%Petrocelli%NULL%0,          Antonello%Serra%NULL%0,          Francesco%Bussu%NULL%0,          Enrica%Ligas%NULL%1,          Giovanni%Salzano%NULL%0,          Giacomo%De Riu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Liang En%Wee%ian.wee@mohh.com.sg%1,          Yvonne Fu Zi%Chan%NULL%2,          Yvonne Fu Zi%Chan%NULL%0,          Neville Wei Yang%Teo%NULL%1,          Benjamin Pei Zhi%Cherng%NULL%1,          Siew Yee%Thien%NULL%1,          Hei Man%Wong%NULL%1,          Limin%Wijaya%NULL%1,          Song Tar%Toh%NULL%1,          Thuan Tong%Tan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,          Farhoud%Faraji%NULL%0,          Farhoud%Faraji%NULL%0,          Divya P.%Prajapati%NULL%0,          Divya P.%Prajapati%NULL%0,          Christine E.%Boone%NULL%2,          Christine E.%Boone%NULL%0,          Adam S.%DeConde%NULL%0,          Adam S.%DeConde%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,           Farhoud%Faraji%NULL%0,           Farhoud%Faraji%NULL%0,           Divya P.%Prajapati%NULL%0,           Benjamin T.%Ostrander%NULL%0,           Adam S.%DeConde%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Á.%Beltrán‐Corbellini%beltran_corbellini@hotmail.com%0,           J. L.%Chico‐García%NULL%0,           J. L.%Chico‐García%NULL%0,           J.%Martínez‐Poles%NULL%0,           F.%Rodríguez‐Jorge%NULL%0,           E.%Natera‐Villalba%NULL%0,           J.%Gómez‐Corral%NULL%0,           J.%Gómez‐Corral%NULL%0,           A.%Gómez‐López%NULL%0,           E.%Monreal%NULL%0,           P.%Parra‐Díaz%NULL%0,           J. L.%Cortés‐Cuevas%NULL%0,           J. L.%Cortés‐Cuevas%NULL%0,           J. C.%Galán%NULL%0,           C.%Fragola‐Arnau%NULL%0,           J.%Porta‐Etessam%NULL%0,           J.%Masjuan%NULL%0,           A.%Alonso‐Cánovas%NULL%0,           A.%Alonso‐Cánovas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[François%Bénézit%NULL%0,           Paul%Le Turnier%NULL%0,           Charles%Declerck%NULL%0,           Cécile%Paillé%NULL%0,           Matthieu%Revest%NULL%0,           Vincent%Dubée%NULL%0,           Pierre%Tattevin%pierre.tattevin@chu-rennes.fr%0,           Cédric%Arvieux%NULL%0,           Marion%Baldeyrou%NULL%0,           Jean-Marc%Chapplain%NULL%0,           Pauline%Comacle%NULL%0,           Solène%Patrat-Delon%NULL%0,           Anne%Maillard%NULL%0,           Mélanie%Poinot%NULL%0,           Charlotte%Pronier%NULL%0,           Faouzi%Souala%NULL%0,           Vincent%Thibault%NULL%0,           Pierre%Abgueguen%NULL%0,           Hélène%Cormier%NULL%0,           Valérie%Delbos%NULL%0,           Marine%de la Chapelle%NULL%0,           Alexandra%Ducancelle%NULL%0,           Rafael%Mahieu%NULL%0,           Valérie%Rabier%NULL%0,           Sami%Rehaiem%NULL%0,           Yves%Vandamme%NULL%0,           Charlotte%Biron%NULL%0,           Jeanne%Brochon%NULL%0,           David%Boutoille%NULL%0,           Marie%Chauveau%NULL%0,           Colin%Deschanvres%NULL%0,           Benjamin J%Gaborit%NULL%0,           Joël%Jenvrin%NULL%0,           Raphaël%Lecomte%NULL%0,           Maeva%Lefebvre%NULL%0,           François%Raffi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,           Laura%Pezzati%NULL%0,           Laura%Pezzati%NULL%0,           Federico%Conti%NULL%0,           Dario%Bernacchia%NULL%0,           Matteo%Siano%NULL%0,           Letizia%Oreni%NULL%0,           Stefano%Rusconi%NULL%0,           Cristina%Gervasoni%NULL%0,           Anna Lisa%Ridolfo%NULL%0,           Giuliano%Rizzardini%NULL%0,           Spinello%Antinori%NULL%0,           Massimo%Galli%NULL%0,           Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.%Klopfenstein%NULL%0,           N.J.%Kadiane-Oussou%NULL%0,           L.%Toko%NULL%0,           P.-Y.%Royer%NULL%0,           Q.%Lepiller%NULL%0,           V.%Gendrin%NULL%0,           S.%Zayet%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%0,           Carlos M.%Chiesa-Estomba%NULL%0,           Daniele R.%De Siati%NULL%0,           Mihaela%Horoi%NULL%0,           Serge D.%Le Bon%NULL%0,           Alexandra%Rodriguez%NULL%0,           Didier%Dequanter%NULL%0,           Serge%Blecic%NULL%0,           Fahd%El Afia%NULL%0,           Lea%Distinguin%NULL%0,           Younes%Chekkoury-Idrissi%NULL%0,           Stéphane%Hans%NULL%0,           Irene Lopez%Delgado%NULL%0,           Christian%Calvo-Henriquez%NULL%0,           Philippe%Lavigne%NULL%0,           Chiara%Falanga%NULL%0,           Maria Rosaria%Barillari%NULL%0,           Giovanni%Cammaroto%NULL%0,           Mohamad%Khalife%NULL%0,           Pierre%Leich%NULL%0,           Christel%Souchay%NULL%0,           Camelia%Rossi%NULL%0,           Fabrice%Journe%NULL%0,           Julien%Hsieh%NULL%0,           Myriam%Edjlali%NULL%0,           Robert%Carlier%NULL%0,           Laurence%Ris%NULL%0,           Andrea%Lovato%NULL%0,           Cosimo%De Filippis%NULL%0,           Frederique%Coppee%NULL%0,           Nicolas%Fakhry%NULL%0,           Tareck%Ayad%NULL%0,           Sven%Saussez%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ling%Mao%xref no email%0,    Huijuan%Jin%xref no email%0,    Mengdie%Wang%xref no email%0,    Yu%Hu%xref no email%0,    Shengcai%Chen%xref no email%0,    Quanwei%He%xref no email%0,    Jiang%Chang%xref no email%0,    Candong%Hong%xref no email%0,    Yifan%Zhou%xref no email%0,    David%Wang%xref no email%0,    Xiaoping%Miao%xref no email%0,    Yanan%Li%xref no email%0,    Bo%Hu%xref no email%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+A total of 2,618,862 participants reported their potential symptoms of COVID-19 on a smartphone-based app.
+ Among the 18,401 who had undergone a SARS-CoV-2 test, the proportion of participants who reported loss of smell and taste was higher in those with a positive test result (4,668 of 7,178 individuals; 65.03%) than in those with a negative test result (2,436 of 11,223 participants; 21.71%) (odds ratio = 6.74; 95% confidence interval = 6.31–7.21).
+ A model combining symptoms to predict probable infection was applied to the data from all app users who reported symptoms (805,753) and predicted that 140,312 (17.42%) participants are likely to have COVID-19.
+Analysis of data from a smartphone-based app designed for large-scale tracking of potential COVID-19 symptoms, used by over 2.5 million participants in the United Kingdom and United States, shows that loss of taste and smell sensations is predictive of potential SARS-CoV-2 infection.
+</t>
+  </si>
+  <si>
+    <t>[ Cristina%Menni%null%0,  Ana M.%Valdes%null%1,  Maxim B.%Freidin%null%1,  Carole H.%Sudre%null%1,  Long H.%Nguyen%null%1,  David A.%Drew%null%1,  Sajaysurya%Ganesh%null%1,  Thomas%Varsavsky%null%1,  M. Jorge%Cardoso%null%1,  Julia S.%El-Sayed Moustafa%null%1,  Alessia%Visconti%null%1,  Pirro%Hysi%null%1,  Ruth C. E.%Bowyer%null%1,  Massimo%Mangino%null%1,  Mario%Falchi%null%1,  Jonathan%Wolf%null%1,  Sebastien%Ourselin%null%1,  Andrew T.%Chan%null%1,  Claire J.%Steves%null%1,  Tim D.%Spector%null%1]</t>
+  </si>
+  <si>
+    <t>[Shima T.%Moein%NULL%1,           Seyed MohammadReza%Hashemian%NULL%1,           Babak%Mansourafshar%NULL%1,           Ali%Khorram‐Tousi%NULL%1,           Payam%Tabarsi%NULL%1,           Richard L.%Doty%doty@pennmedicine.upenn.edu%1]</t>
+  </si>
+  <si>
+    <t>[Borsetto%Daniele%coreGivesNoEmail%1,          Boscolo-Rizzo%Paolo%coreGivesNoEmail%1,          Cazzador%Diego%coreGivesNoEmail%1,          Fabbris%Cristoforo%coreGivesNoEmail%1,          Hopkins%Claire%coreGivesNoEmail%1,          Polesel%Jerry%coreGivesNoEmail%1,          Spinato%Giacomo%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Alma%Tostmann%NULL%1,           John%Bradley%NULL%2,           John%Bradley%NULL%0,           Teun%Bousema%NULL%2,           Teun%Bousema%NULL%0,           Wing-Kee%Yiek%NULL%2,           Wing-Kee%Yiek%NULL%0,           Minke%Holwerda%NULL%1,           Chantal%Bleeker-Rovers%NULL%1,           Jaap%ten Oever%NULL%1,           Corianne%Meijer%NULL%2,           Corianne%Meijer%NULL%0,           Janette%Rahamat-Langendoen%NULL%1,           Joost%Hopman%NULL%2,           Joost%Hopman%NULL%0,           Nannet%van der Geest-Blankert%NULL%1,           Heiman%Wertheim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luigi Angelo%Vaira%luigi.vaira@gmail.com%0,           Giovanna%Deiana%NULL%0,           Giovanna%Deiana%NULL%0,           Alessandro Giuseppe%Fois%NULL%1,           Pietro%Pirina%NULL%0,           Giordano%Madeddu%NULL%0,           Andrea%De Vito%NULL%0,           Sergio%Babudieri%NULL%0,           Marzia%Petrocelli%NULL%0,           Antonello%Serra%NULL%0,           Francesco%Bussu%NULL%0,           Enrica%Ligas%NULL%1,           Giovanni%Salzano%NULL%0,           Giacomo%De Riu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Liang En%Wee%ian.wee@mohh.com.sg%1,           Yvonne Fu Zi%Chan%NULL%2,           Yvonne Fu Zi%Chan%NULL%0,           Neville Wei Yang%Teo%NULL%1,           Benjamin Pei Zhi%Cherng%NULL%1,           Siew Yee%Thien%NULL%1,           Hei Man%Wong%NULL%1,           Limin%Wijaya%NULL%1,           Song Tar%Toh%NULL%1,           Thuan Tong%Tan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,           Farhoud%Faraji%NULL%0,           Farhoud%Faraji%NULL%0,           Divya P.%Prajapati%NULL%0,           Divya P.%Prajapati%NULL%0,           Christine E.%Boone%NULL%2,           Christine E.%Boone%NULL%0,           Adam S.%DeConde%NULL%0,           Adam S.%DeConde%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1144,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>186</v>
+        <v>214</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
@@ -1081,7 +1173,7 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>187</v>
+        <v>215</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -1110,7 +1202,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -1139,7 +1231,7 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1168,7 +1260,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1197,7 +1289,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>191</v>
+        <v>219</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1226,7 +1318,7 @@
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>192</v>
+        <v>220</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -1252,10 +1344,10 @@
         <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>221</v>
       </c>
       <c r="E9" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -1284,7 +1376,7 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -1313,7 +1405,7 @@
         <v>93</v>
       </c>
       <c r="E11" t="s">
-        <v>195</v>
+        <v>224</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -1342,7 +1434,7 @@
         <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="F12" t="s">
         <v>69</v>
@@ -1371,7 +1463,7 @@
         <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>197</v>
+        <v>226</v>
       </c>
       <c r="F13" t="s">
         <v>73</v>
@@ -1400,7 +1492,7 @@
         <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="F14" t="s">
         <v>77</v>
@@ -1429,7 +1521,7 @@
         <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>199</v>
+        <v>228</v>
       </c>
       <c r="F15" t="s">
         <v>82</v>

--- a/Covid_19_Dataset_and_References/References/60.xlsx
+++ b/Covid_19_Dataset_and_References/References/60.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="257">
   <si>
     <t>Doi</t>
   </si>
@@ -820,6 +820,112 @@
   </si>
   <si>
     <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,           Farhoud%Faraji%NULL%0,           Farhoud%Faraji%NULL%0,           Divya P.%Prajapati%NULL%0,           Divya P.%Prajapati%NULL%0,           Christine E.%Boone%NULL%2,           Christine E.%Boone%NULL%0,           Adam S.%DeConde%NULL%0,           Adam S.%DeConde%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,            Farhoud%Faraji%NULL%0,            Farhoud%Faraji%NULL%0,            Divya P.%Prajapati%NULL%0,            Benjamin T.%Ostrander%NULL%0,            Adam S.%DeConde%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Á.%Beltrán‐Corbellini%beltran_corbellini@hotmail.com%0,            J. L.%Chico‐García%NULL%0,            J. L.%Chico‐García%NULL%0,            J.%Martínez‐Poles%NULL%0,            F.%Rodríguez‐Jorge%NULL%0,            E.%Natera‐Villalba%NULL%0,            J.%Gómez‐Corral%NULL%0,            J.%Gómez‐Corral%NULL%0,            A.%Gómez‐López%NULL%0,            E.%Monreal%NULL%0,            P.%Parra‐Díaz%NULL%0,            J. L.%Cortés‐Cuevas%NULL%0,            J. L.%Cortés‐Cuevas%NULL%0,            J. C.%Galán%NULL%0,            C.%Fragola‐Arnau%NULL%0,            J.%Porta‐Etessam%NULL%0,            J.%Masjuan%NULL%0,            A.%Alonso‐Cánovas%NULL%0,            A.%Alonso‐Cánovas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[François%Bénézit%NULL%0,            Paul%Le Turnier%NULL%0,            Charles%Declerck%NULL%0,            Cécile%Paillé%NULL%0,            Matthieu%Revest%NULL%0,            Vincent%Dubée%NULL%0,            Pierre%Tattevin%pierre.tattevin@chu-rennes.fr%0,            Cédric%Arvieux%NULL%0,            Marion%Baldeyrou%NULL%0,            Jean-Marc%Chapplain%NULL%0,            Pauline%Comacle%NULL%0,            Solène%Patrat-Delon%NULL%0,            Anne%Maillard%NULL%0,            Mélanie%Poinot%NULL%0,            Charlotte%Pronier%NULL%0,            Faouzi%Souala%NULL%0,            Vincent%Thibault%NULL%0,            Pierre%Abgueguen%NULL%0,            Hélène%Cormier%NULL%0,            Valérie%Delbos%NULL%0,            Marine%de la Chapelle%NULL%0,            Alexandra%Ducancelle%NULL%0,            Rafael%Mahieu%NULL%0,            Valérie%Rabier%NULL%0,            Sami%Rehaiem%NULL%0,            Yves%Vandamme%NULL%0,            Charlotte%Biron%NULL%0,            Jeanne%Brochon%NULL%0,            David%Boutoille%NULL%0,            Marie%Chauveau%NULL%0,            Colin%Deschanvres%NULL%0,            Benjamin J%Gaborit%NULL%0,            Joël%Jenvrin%NULL%0,            Raphaël%Lecomte%NULL%0,            Maeva%Lefebvre%NULL%0,            François%Raffi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,            Laura%Pezzati%NULL%0,            Laura%Pezzati%NULL%0,            Federico%Conti%NULL%0,            Dario%Bernacchia%NULL%0,            Matteo%Siano%NULL%0,            Letizia%Oreni%NULL%0,            Stefano%Rusconi%NULL%0,            Cristina%Gervasoni%NULL%0,            Anna Lisa%Ridolfo%NULL%0,            Giuliano%Rizzardini%NULL%0,            Spinello%Antinori%NULL%0,            Massimo%Galli%NULL%0,            Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.%Klopfenstein%NULL%0,            N.J.%Kadiane-Oussou%NULL%0,            L.%Toko%NULL%0,            P.-Y.%Royer%NULL%0,            Q.%Lepiller%NULL%0,            V.%Gendrin%NULL%0,            S.%Zayet%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective
+To investigate the occurrence of olfactory and gustatory dysfunctions in patients with laboratory-confirmed COVID-19 infection.
+Methods
+Patients with laboratory-confirmed COVID-19 infection were recruited from 12 European hospitals.
+ The following epidemiological and clinical outcomes have been studied: age, sex, ethnicity, comorbidities, and general and otolaryngological symptoms.
+ Patients completed olfactory and gustatory questionnaires based on the smell and taste component of the National Health and Nutrition Examination Survey, and the short version of the Questionnaire of Olfactory Disorders-Negative Statements (sQOD-NS).
+Results
+A total of 417 mild-to-moderate COVID-19 patients completed the study (263 females).
+ The most prevalent general symptoms consisted of cough, myalgia, and loss of appetite.
+ Face pain and nasal obstruction were the most disease-related otolaryngological symptoms.
+ 85.6% and 88.0% of patients reported olfactory and gustatory dysfunctions, respectively.
+ There was a significant association between both disorders (p &amp;lt; 0.001).
+ Olfactory dysfunction (OD) appeared before the other symptoms in 11.8% of cases.
+ The sQO-NS scores were significantly lower in patients with anosmia compared with normosmic or hyposmic individuals (p = 0.001).
+ Among the 18.2% of patients without nasal obstruction or rhinorrhea, 79.7% were hyposmic or anosmic.
+ The early olfactory recovery rate was 44.0%.
+ Females were significantly more affected by olfactory and gustatory dysfunctions than males (p = 0.001).
+Conclusion
+Olfactory and gustatory disorders are prevalent symptoms in European COVID-19 patients, who may not have nasal symptoms.
+ The sudden anosmia or ageusia need to be recognized by the international scientific community as important symptoms of the COVID-19 infection.
+Electronic supplementary material
+The online version of this article (10.1007/s00405-020-05965-1) contains supplementary material, which is available to authorized users.
+</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%0,            Carlos M.%Chiesa-Estomba%NULL%0,            Daniele R.%De Siati%NULL%0,            Mihaela%Horoi%NULL%0,            Serge D.%Le Bon%NULL%0,            Alexandra%Rodriguez%NULL%0,            Didier%Dequanter%NULL%0,            Serge%Blecic%NULL%0,            Fahd%El Afia%NULL%0,            Lea%Distinguin%NULL%0,            Younes%Chekkoury-Idrissi%NULL%0,            Stéphane%Hans%NULL%0,            Irene Lopez%Delgado%NULL%0,            Christian%Calvo-Henriquez%NULL%0,            Philippe%Lavigne%NULL%0,            Chiara%Falanga%NULL%0,            Maria Rosaria%Barillari%NULL%0,            Giovanni%Cammaroto%NULL%0,            Mohamad%Khalife%NULL%0,            Pierre%Leich%NULL%0,            Christel%Souchay%NULL%0,            Camelia%Rossi%NULL%0,            Fabrice%Journe%NULL%0,            Julien%Hsieh%NULL%0,            Myriam%Edjlali%NULL%0,            Robert%Carlier%NULL%0,            Laurence%Ris%NULL%0,            Andrea%Lovato%NULL%0,            Cosimo%De Filippis%NULL%0,            Frederique%Coppee%NULL%0,            Nicolas%Fakhry%NULL%0,            Tareck%Ayad%NULL%0,            Sven%Saussez%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ling%Mao%xref no email%0,     Huijuan%Jin%xref no email%0,     Mengdie%Wang%xref no email%0,     Yu%Hu%xref no email%0,     Shengcai%Chen%xref no email%0,     Quanwei%He%xref no email%0,     Jiang%Chang%xref no email%0,     Candong%Hong%xref no email%0,     Yifan%Zhou%xref no email%0,     David%Wang%xref no email%0,     Xiaoping%Miao%xref no email%0,     Yanan%Li%xref no email%0,     Bo%Hu%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Shima T.%Moein%NULL%1,            Seyed MohammadReza%Hashemian%NULL%1,            Babak%Mansourafshar%NULL%1,            Ali%Khorram‐Tousi%NULL%1,            Payam%Tabarsi%NULL%1,            Richard L.%Doty%doty@pennmedicine.upenn.edu%1]</t>
+  </si>
+  <si>
+    <t>[Borsetto%Daniele%coreGivesNoEmail%1,           Boscolo-Rizzo%Paolo%coreGivesNoEmail%1,           Cazzador%Diego%coreGivesNoEmail%1,           Fabbris%Cristoforo%coreGivesNoEmail%1,           Hopkins%Claire%coreGivesNoEmail%1,           Polesel%Jerry%coreGivesNoEmail%1,           Spinato%Giacomo%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Alma%Tostmann%NULL%1,            John%Bradley%NULL%2,            John%Bradley%NULL%0,            Teun%Bousema%NULL%2,            Teun%Bousema%NULL%0,            Wing-Kee%Yiek%NULL%2,            Wing-Kee%Yiek%NULL%0,            Minke%Holwerda%NULL%1,            Chantal%Bleeker-Rovers%NULL%1,            Jaap%ten Oever%NULL%1,            Corianne%Meijer%NULL%2,            Corianne%Meijer%NULL%0,            Janette%Rahamat-Langendoen%NULL%1,            Joost%Hopman%NULL%2,            Joost%Hopman%NULL%0,            Nannet%van der Geest-Blankert%NULL%1,            Heiman%Wertheim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luigi Angelo%Vaira%luigi.vaira@gmail.com%0,            Giovanna%Deiana%NULL%0,            Giovanna%Deiana%NULL%0,            Alessandro Giuseppe%Fois%NULL%1,            Pietro%Pirina%NULL%0,            Giordano%Madeddu%NULL%0,            Andrea%De Vito%NULL%0,            Sergio%Babudieri%NULL%0,            Marzia%Petrocelli%NULL%0,            Antonello%Serra%NULL%0,            Francesco%Bussu%NULL%0,            Enrica%Ligas%NULL%1,            Giovanni%Salzano%NULL%0,            Giacomo%De Riu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Liang En%Wee%ian.wee@mohh.com.sg%1,            Yvonne Fu Zi%Chan%NULL%2,            Yvonne Fu Zi%Chan%NULL%0,            Neville Wei Yang%Teo%NULL%1,            Benjamin Pei Zhi%Cherng%NULL%1,            Siew Yee%Thien%NULL%1,            Hei Man%Wong%NULL%1,            Limin%Wijaya%NULL%1,            Song Tar%Toh%NULL%1,            Thuan Tong%Tan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,            Farhoud%Faraji%NULL%0,            Farhoud%Faraji%NULL%0,            Divya P.%Prajapati%NULL%0,            Divya P.%Prajapati%NULL%0,            Christine E.%Boone%NULL%2,            Christine E.%Boone%NULL%0,            Adam S.%DeConde%NULL%0,            Adam S.%DeConde%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,             Farhoud%Faraji%NULL%0,             Farhoud%Faraji%NULL%0,             Divya P.%Prajapati%NULL%0,             Benjamin T.%Ostrander%NULL%0,             Adam S.%DeConde%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Á.%Beltrán‐Corbellini%beltran_corbellini@hotmail.com%0,             J. L.%Chico‐García%NULL%0,             J. L.%Chico‐García%NULL%0,             J.%Martínez‐Poles%NULL%0,             F.%Rodríguez‐Jorge%NULL%0,             E.%Natera‐Villalba%NULL%0,             J.%Gómez‐Corral%NULL%0,             J.%Gómez‐Corral%NULL%0,             A.%Gómez‐López%NULL%0,             E.%Monreal%NULL%0,             P.%Parra‐Díaz%NULL%0,             J. L.%Cortés‐Cuevas%NULL%0,             J. L.%Cortés‐Cuevas%NULL%0,             J. C.%Galán%NULL%0,             C.%Fragola‐Arnau%NULL%0,             J.%Porta‐Etessam%NULL%0,             J.%Masjuan%NULL%0,             A.%Alonso‐Cánovas%NULL%0,             A.%Alonso‐Cánovas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[François%Bénézit%NULL%0,             Paul%Le Turnier%NULL%0,             Charles%Declerck%NULL%0,             Cécile%Paillé%NULL%0,             Matthieu%Revest%NULL%0,             Vincent%Dubée%NULL%0,             Pierre%Tattevin%pierre.tattevin@chu-rennes.fr%0,             Cédric%Arvieux%NULL%0,             Marion%Baldeyrou%NULL%0,             Jean-Marc%Chapplain%NULL%0,             Pauline%Comacle%NULL%0,             Solène%Patrat-Delon%NULL%0,             Anne%Maillard%NULL%0,             Mélanie%Poinot%NULL%0,             Charlotte%Pronier%NULL%0,             Faouzi%Souala%NULL%0,             Vincent%Thibault%NULL%0,             Pierre%Abgueguen%NULL%0,             Hélène%Cormier%NULL%0,             Valérie%Delbos%NULL%0,             Marine%de la Chapelle%NULL%0,             Alexandra%Ducancelle%NULL%0,             Rafael%Mahieu%NULL%0,             Valérie%Rabier%NULL%0,             Sami%Rehaiem%NULL%0,             Yves%Vandamme%NULL%0,             Charlotte%Biron%NULL%0,             Jeanne%Brochon%NULL%0,             David%Boutoille%NULL%0,             Marie%Chauveau%NULL%0,             Colin%Deschanvres%NULL%0,             Benjamin J%Gaborit%NULL%0,             Joël%Jenvrin%NULL%0,             Raphaël%Lecomte%NULL%0,             Maeva%Lefebvre%NULL%0,             François%Raffi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,             Laura%Pezzati%NULL%0,             Laura%Pezzati%NULL%0,             Federico%Conti%NULL%0,             Dario%Bernacchia%NULL%0,             Matteo%Siano%NULL%0,             Letizia%Oreni%NULL%0,             Stefano%Rusconi%NULL%0,             Cristina%Gervasoni%NULL%0,             Anna Lisa%Ridolfo%NULL%0,             Giuliano%Rizzardini%NULL%0,             Spinello%Antinori%NULL%0,             Massimo%Galli%NULL%0,             Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.%Klopfenstein%NULL%0,             N.J.%Kadiane-Oussou%NULL%0,             L.%Toko%NULL%0,             P.-Y.%Royer%NULL%0,             Q.%Lepiller%NULL%0,             V.%Gendrin%NULL%0,             S.%Zayet%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%0,             Carlos M.%Chiesa-Estomba%NULL%0,             Daniele R.%De Siati%NULL%0,             Mihaela%Horoi%NULL%0,             Serge D.%Le Bon%NULL%0,             Alexandra%Rodriguez%NULL%0,             Didier%Dequanter%NULL%0,             Serge%Blecic%NULL%0,             Fahd%El Afia%NULL%0,             Lea%Distinguin%NULL%0,             Younes%Chekkoury-Idrissi%NULL%0,             Stéphane%Hans%NULL%0,             Irene Lopez%Delgado%NULL%0,             Christian%Calvo-Henriquez%NULL%0,             Philippe%Lavigne%NULL%0,             Chiara%Falanga%NULL%0,             Maria Rosaria%Barillari%NULL%0,             Giovanni%Cammaroto%NULL%0,             Mohamad%Khalife%NULL%0,             Pierre%Leich%NULL%0,             Christel%Souchay%NULL%0,             Camelia%Rossi%NULL%0,             Fabrice%Journe%NULL%0,             Julien%Hsieh%NULL%0,             Myriam%Edjlali%NULL%0,             Robert%Carlier%NULL%0,             Laurence%Ris%NULL%0,             Andrea%Lovato%NULL%0,             Cosimo%De Filippis%NULL%0,             Frederique%Coppee%NULL%0,             Nicolas%Fakhry%NULL%0,             Tareck%Ayad%NULL%0,             Sven%Saussez%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ling%Mao%xref no email%0,      Huijuan%Jin%xref no email%0,      Mengdie%Wang%xref no email%0,      Yu%Hu%xref no email%0,      Shengcai%Chen%xref no email%0,      Quanwei%He%xref no email%0,      Jiang%Chang%xref no email%0,      Candong%Hong%xref no email%0,      Yifan%Zhou%xref no email%0,      David%Wang%xref no email%0,      Xiaoping%Miao%xref no email%0,      Yanan%Li%xref no email%0,      Bo%Hu%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[ Cristina%Menni%null%1,    Ana M.%Valdes%null%1,    Maxim B.%Freidin%null%1,    Carole H.%Sudre%null%1,    Long H.%Nguyen%null%1,    David A.%Drew%null%1,    Sajaysurya%Ganesh%null%1,    Thomas%Varsavsky%null%1,    M. Jorge%Cardoso%null%1,    Julia S.%El-Sayed Moustafa%null%1,    Alessia%Visconti%null%1,    Pirro%Hysi%null%1,    Ruth C. E.%Bowyer%null%1,    Massimo%Mangino%null%1,    Mario%Falchi%null%1,    Jonathan%Wolf%null%1,    Sebastien%Ourselin%null%1,    Andrew T.%Chan%null%1,    Claire J.%Steves%null%1,    Tim D.%Spector%null%1]</t>
+  </si>
+  <si>
+    <t>[Shima T.%Moein%NULL%1,             Seyed MohammadReza%Hashemian%NULL%1,             Babak%Mansourafshar%NULL%1,             Ali%Khorram‐Tousi%NULL%1,             Payam%Tabarsi%NULL%1,             Richard L.%Doty%doty@pennmedicine.upenn.edu%1]</t>
+  </si>
+  <si>
+    <t>[Borsetto%Daniele%coreGivesNoEmail%1,            Boscolo-Rizzo%Paolo%coreGivesNoEmail%1,            Cazzador%Diego%coreGivesNoEmail%1,            Fabbris%Cristoforo%coreGivesNoEmail%1,            Hopkins%Claire%coreGivesNoEmail%1,            Polesel%Jerry%coreGivesNoEmail%1,            Spinato%Giacomo%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Alma%Tostmann%NULL%1,             John%Bradley%NULL%2,             John%Bradley%NULL%0,             Teun%Bousema%NULL%2,             Teun%Bousema%NULL%0,             Wing-Kee%Yiek%NULL%2,             Wing-Kee%Yiek%NULL%0,             Minke%Holwerda%NULL%1,             Chantal%Bleeker-Rovers%NULL%1,             Jaap%ten Oever%NULL%1,             Corianne%Meijer%NULL%2,             Corianne%Meijer%NULL%0,             Janette%Rahamat-Langendoen%NULL%1,             Joost%Hopman%NULL%2,             Joost%Hopman%NULL%0,             Nannet%van der Geest-Blankert%NULL%1,             Heiman%Wertheim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luigi Angelo%Vaira%luigi.vaira@gmail.com%0,             Giovanna%Deiana%NULL%0,             Giovanna%Deiana%NULL%0,             Alessandro Giuseppe%Fois%NULL%1,             Pietro%Pirina%NULL%0,             Giordano%Madeddu%NULL%0,             Andrea%De Vito%NULL%0,             Sergio%Babudieri%NULL%0,             Marzia%Petrocelli%NULL%0,             Antonello%Serra%NULL%0,             Francesco%Bussu%NULL%0,             Enrica%Ligas%NULL%1,             Giovanni%Salzano%NULL%0,             Giacomo%De Riu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Liang En%Wee%ian.wee@mohh.com.sg%1,             Yvonne Fu Zi%Chan%NULL%2,             Yvonne Fu Zi%Chan%NULL%0,             Neville Wei Yang%Teo%NULL%1,             Benjamin Pei Zhi%Cherng%NULL%1,             Siew Yee%Thien%NULL%1,             Hei Man%Wong%NULL%1,             Limin%Wijaya%NULL%1,             Song Tar%Toh%NULL%1,             Thuan Tong%Tan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,             Farhoud%Faraji%NULL%0,             Farhoud%Faraji%NULL%0,             Divya P.%Prajapati%NULL%0,             Divya P.%Prajapati%NULL%0,             Christine E.%Boone%NULL%2,             Christine E.%Boone%NULL%0,             Adam S.%DeConde%NULL%0,             Adam S.%DeConde%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1144,7 +1250,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
@@ -1173,7 +1279,7 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -1202,7 +1308,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -1231,7 +1337,7 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1260,7 +1366,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1286,10 +1392,10 @@
         <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>234</v>
       </c>
       <c r="E7" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1318,7 +1424,7 @@
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -1347,7 +1453,7 @@
         <v>221</v>
       </c>
       <c r="E9" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -1376,7 +1482,7 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -1405,7 +1511,7 @@
         <v>93</v>
       </c>
       <c r="E11" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -1434,7 +1540,7 @@
         <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="F12" t="s">
         <v>69</v>
@@ -1463,7 +1569,7 @@
         <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="F13" t="s">
         <v>73</v>
@@ -1492,7 +1598,7 @@
         <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="F14" t="s">
         <v>77</v>
@@ -1521,7 +1627,7 @@
         <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="F15" t="s">
         <v>82</v>

--- a/Covid_19_Dataset_and_References/References/60.xlsx
+++ b/Covid_19_Dataset_and_References/References/60.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1472" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="271">
   <si>
     <t>Doi</t>
   </si>
@@ -926,6 +926,48 @@
   </si>
   <si>
     <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,             Farhoud%Faraji%NULL%0,             Farhoud%Faraji%NULL%0,             Divya P.%Prajapati%NULL%0,             Divya P.%Prajapati%NULL%0,             Christine E.%Boone%NULL%2,             Christine E.%Boone%NULL%0,             Adam S.%DeConde%NULL%0,             Adam S.%DeConde%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,              Farhoud%Faraji%NULL%0,              Farhoud%Faraji%NULL%0,              Divya P.%Prajapati%NULL%0,              Benjamin T.%Ostrander%NULL%0,              Adam S.%DeConde%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Á.%Beltrán‐Corbellini%beltran_corbellini@hotmail.com%0,              J. L.%Chico‐García%NULL%0,              J. L.%Chico‐García%NULL%0,              J.%Martínez‐Poles%NULL%0,              F.%Rodríguez‐Jorge%NULL%0,              E.%Natera‐Villalba%NULL%0,              J.%Gómez‐Corral%NULL%0,              J.%Gómez‐Corral%NULL%0,              A.%Gómez‐López%NULL%0,              E.%Monreal%NULL%0,              P.%Parra‐Díaz%NULL%0,              J. L.%Cortés‐Cuevas%NULL%0,              J. L.%Cortés‐Cuevas%NULL%0,              J. C.%Galán%NULL%0,              C.%Fragola‐Arnau%NULL%0,              J.%Porta‐Etessam%NULL%0,              J.%Masjuan%NULL%0,              A.%Alonso‐Cánovas%NULL%0,              A.%Alonso‐Cánovas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[François%Bénézit%NULL%0,              Paul%Le Turnier%NULL%0,              Charles%Declerck%NULL%0,              Cécile%Paillé%NULL%0,              Matthieu%Revest%NULL%0,              Vincent%Dubée%NULL%0,              Pierre%Tattevin%pierre.tattevin@chu-rennes.fr%0,              Cédric%Arvieux%NULL%0,              Marion%Baldeyrou%NULL%0,              Jean-Marc%Chapplain%NULL%0,              Pauline%Comacle%NULL%0,              Solène%Patrat-Delon%NULL%0,              Anne%Maillard%NULL%0,              Mélanie%Poinot%NULL%0,              Charlotte%Pronier%NULL%0,              Faouzi%Souala%NULL%0,              Vincent%Thibault%NULL%0,              Pierre%Abgueguen%NULL%0,              Hélène%Cormier%NULL%0,              Valérie%Delbos%NULL%0,              Marine%de la Chapelle%NULL%0,              Alexandra%Ducancelle%NULL%0,              Rafael%Mahieu%NULL%0,              Valérie%Rabier%NULL%0,              Sami%Rehaiem%NULL%0,              Yves%Vandamme%NULL%0,              Charlotte%Biron%NULL%0,              Jeanne%Brochon%NULL%0,              David%Boutoille%NULL%0,              Marie%Chauveau%NULL%0,              Colin%Deschanvres%NULL%0,              Benjamin J%Gaborit%NULL%0,              Joël%Jenvrin%NULL%0,              Raphaël%Lecomte%NULL%0,              Maeva%Lefebvre%NULL%0,              François%Raffi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,              Laura%Pezzati%NULL%0,              Laura%Pezzati%NULL%0,              Federico%Conti%NULL%0,              Dario%Bernacchia%NULL%0,              Matteo%Siano%NULL%0,              Letizia%Oreni%NULL%0,              Stefano%Rusconi%NULL%0,              Cristina%Gervasoni%NULL%0,              Anna Lisa%Ridolfo%NULL%0,              Giuliano%Rizzardini%NULL%0,              Spinello%Antinori%NULL%0,              Massimo%Galli%NULL%0,              Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.%Klopfenstein%NULL%0,              N.J.%Kadiane-Oussou%NULL%0,              L.%Toko%NULL%0,              P.-Y.%Royer%NULL%0,              Q.%Lepiller%NULL%0,              V.%Gendrin%NULL%0,              S.%Zayet%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%0,              Carlos M.%Chiesa-Estomba%NULL%0,              Daniele R.%De Siati%NULL%0,              Mihaela%Horoi%NULL%0,              Serge D.%Le Bon%NULL%0,              Alexandra%Rodriguez%NULL%0,              Didier%Dequanter%NULL%0,              Serge%Blecic%NULL%0,              Fahd%El Afia%NULL%0,              Lea%Distinguin%NULL%0,              Younes%Chekkoury-Idrissi%NULL%0,              Stéphane%Hans%NULL%0,              Irene Lopez%Delgado%NULL%0,              Christian%Calvo-Henriquez%NULL%0,              Philippe%Lavigne%NULL%0,              Chiara%Falanga%NULL%0,              Maria Rosaria%Barillari%NULL%0,              Giovanni%Cammaroto%NULL%0,              Mohamad%Khalife%NULL%0,              Pierre%Leich%NULL%0,              Christel%Souchay%NULL%0,              Camelia%Rossi%NULL%0,              Fabrice%Journe%NULL%0,              Julien%Hsieh%NULL%0,              Myriam%Edjlali%NULL%0,              Robert%Carlier%NULL%0,              Laurence%Ris%NULL%0,              Andrea%Lovato%NULL%0,              Cosimo%De Filippis%NULL%0,              Frederique%Coppee%NULL%0,              Nicolas%Fakhry%NULL%0,              Tareck%Ayad%NULL%0,              Sven%Saussez%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ling%Mao%xref no email%0,       Huijuan%Jin%xref no email%0,       Mengdie%Wang%xref no email%0,       Yu%Hu%xref no email%0,       Shengcai%Chen%xref no email%0,       Quanwei%He%xref no email%0,       Jiang%Chang%xref no email%0,       Candong%Hong%xref no email%0,       Yifan%Zhou%xref no email%0,       David%Wang%xref no email%0,       Xiaoping%Miao%xref no email%0,       Yanan%Li%xref no email%0,       Bo%Hu%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[ Cristina%Menni%null%1,     Ana M.%Valdes%null%1,     Maxim B.%Freidin%null%1,     Carole H.%Sudre%null%1,     Long H.%Nguyen%null%1,     David A.%Drew%null%1,     Sajaysurya%Ganesh%null%1,     Thomas%Varsavsky%null%1,     M. Jorge%Cardoso%null%1,     Julia S.%El-Sayed Moustafa%null%1,     Alessia%Visconti%null%1,     Pirro%Hysi%null%1,     Ruth C. E.%Bowyer%null%1,     Massimo%Mangino%null%1,     Mario%Falchi%null%1,     Jonathan%Wolf%null%1,     Sebastien%Ourselin%null%1,     Andrew T.%Chan%null%1,     Claire J.%Steves%null%1,     Tim D.%Spector%null%1]</t>
+  </si>
+  <si>
+    <t>[Shima T.%Moein%NULL%1,              Seyed MohammadReza%Hashemian%NULL%1,              Babak%Mansourafshar%NULL%1,              Ali%Khorram‐Tousi%NULL%1,              Payam%Tabarsi%NULL%1,              Richard L.%Doty%doty@pennmedicine.upenn.edu%1]</t>
+  </si>
+  <si>
+    <t>[Borsetto%Daniele%coreGivesNoEmail%1,             Boscolo-Rizzo%Paolo%coreGivesNoEmail%1,             Cazzador%Diego%coreGivesNoEmail%1,             Fabbris%Cristoforo%coreGivesNoEmail%1,             Hopkins%Claire%coreGivesNoEmail%1,             Polesel%Jerry%coreGivesNoEmail%1,             Spinato%Giacomo%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Alma%Tostmann%NULL%1,              John%Bradley%NULL%2,              John%Bradley%NULL%0,              Teun%Bousema%NULL%2,              Teun%Bousema%NULL%0,              Wing-Kee%Yiek%NULL%2,              Wing-Kee%Yiek%NULL%0,              Minke%Holwerda%NULL%1,              Chantal%Bleeker-Rovers%NULL%1,              Jaap%ten Oever%NULL%1,              Corianne%Meijer%NULL%2,              Corianne%Meijer%NULL%0,              Janette%Rahamat-Langendoen%NULL%1,              Joost%Hopman%NULL%2,              Joost%Hopman%NULL%0,              Nannet%van der Geest-Blankert%NULL%1,              Heiman%Wertheim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luigi Angelo%Vaira%luigi.vaira@gmail.com%0,              Giovanna%Deiana%NULL%0,              Giovanna%Deiana%NULL%0,              Alessandro Giuseppe%Fois%NULL%1,              Pietro%Pirina%NULL%0,              Giordano%Madeddu%NULL%0,              Andrea%De Vito%NULL%0,              Sergio%Babudieri%NULL%0,              Marzia%Petrocelli%NULL%0,              Antonello%Serra%NULL%0,              Francesco%Bussu%NULL%0,              Enrica%Ligas%NULL%1,              Giovanni%Salzano%NULL%0,              Giacomo%De Riu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Liang En%Wee%ian.wee@mohh.com.sg%1,              Yvonne Fu Zi%Chan%NULL%2,              Yvonne Fu Zi%Chan%NULL%0,              Neville Wei Yang%Teo%NULL%1,              Benjamin Pei Zhi%Cherng%NULL%1,              Siew Yee%Thien%NULL%1,              Hei Man%Wong%NULL%1,              Limin%Wijaya%NULL%1,              Song Tar%Toh%NULL%1,              Thuan Tong%Tan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,              Farhoud%Faraji%NULL%0,              Farhoud%Faraji%NULL%0,              Divya P.%Prajapati%NULL%0,              Divya P.%Prajapati%NULL%0,              Christine E.%Boone%NULL%2,              Christine E.%Boone%NULL%0,              Adam S.%DeConde%NULL%0,              Adam S.%DeConde%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1250,7 +1292,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
@@ -1279,7 +1321,7 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -1308,7 +1350,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -1337,7 +1379,7 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1366,7 +1408,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1395,7 +1437,7 @@
         <v>234</v>
       </c>
       <c r="E7" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1424,7 +1466,7 @@
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -1453,7 +1495,7 @@
         <v>221</v>
       </c>
       <c r="E9" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -1482,7 +1524,7 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -1511,7 +1553,7 @@
         <v>93</v>
       </c>
       <c r="E11" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -1540,7 +1582,7 @@
         <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="F12" t="s">
         <v>69</v>
@@ -1569,7 +1611,7 @@
         <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="F13" t="s">
         <v>73</v>
@@ -1598,7 +1640,7 @@
         <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="F14" t="s">
         <v>77</v>
@@ -1627,7 +1669,7 @@
         <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="F15" t="s">
         <v>82</v>

--- a/Covid_19_Dataset_and_References/References/60.xlsx
+++ b/Covid_19_Dataset_and_References/References/60.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1577" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="285">
   <si>
     <t>Doi</t>
   </si>
@@ -968,6 +968,48 @@
   </si>
   <si>
     <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,              Farhoud%Faraji%NULL%0,              Farhoud%Faraji%NULL%0,              Divya P.%Prajapati%NULL%0,              Divya P.%Prajapati%NULL%0,              Christine E.%Boone%NULL%2,              Christine E.%Boone%NULL%0,              Adam S.%DeConde%NULL%0,              Adam S.%DeConde%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,               Farhoud%Faraji%NULL%0,               Farhoud%Faraji%NULL%0,               Divya P.%Prajapati%NULL%0,               Benjamin T.%Ostrander%NULL%0,               Adam S.%DeConde%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Á.%Beltrán‐Corbellini%beltran_corbellini@hotmail.com%0,               J. L.%Chico‐García%NULL%0,               J. L.%Chico‐García%NULL%0,               J.%Martínez‐Poles%NULL%0,               F.%Rodríguez‐Jorge%NULL%0,               E.%Natera‐Villalba%NULL%0,               J.%Gómez‐Corral%NULL%0,               J.%Gómez‐Corral%NULL%0,               A.%Gómez‐López%NULL%0,               E.%Monreal%NULL%0,               P.%Parra‐Díaz%NULL%0,               J. L.%Cortés‐Cuevas%NULL%0,               J. L.%Cortés‐Cuevas%NULL%0,               J. C.%Galán%NULL%0,               C.%Fragola‐Arnau%NULL%0,               J.%Porta‐Etessam%NULL%0,               J.%Masjuan%NULL%0,               A.%Alonso‐Cánovas%NULL%0,               A.%Alonso‐Cánovas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[François%Bénézit%NULL%0,               Paul%Le Turnier%NULL%0,               Charles%Declerck%NULL%0,               Cécile%Paillé%NULL%0,               Matthieu%Revest%NULL%0,               Vincent%Dubée%NULL%0,               Pierre%Tattevin%pierre.tattevin@chu-rennes.fr%0,               Cédric%Arvieux%NULL%0,               Marion%Baldeyrou%NULL%0,               Jean-Marc%Chapplain%NULL%0,               Pauline%Comacle%NULL%0,               Solène%Patrat-Delon%NULL%0,               Anne%Maillard%NULL%0,               Mélanie%Poinot%NULL%0,               Charlotte%Pronier%NULL%0,               Faouzi%Souala%NULL%0,               Vincent%Thibault%NULL%0,               Pierre%Abgueguen%NULL%0,               Hélène%Cormier%NULL%0,               Valérie%Delbos%NULL%0,               Marine%de la Chapelle%NULL%0,               Alexandra%Ducancelle%NULL%0,               Rafael%Mahieu%NULL%0,               Valérie%Rabier%NULL%0,               Sami%Rehaiem%NULL%0,               Yves%Vandamme%NULL%0,               Charlotte%Biron%NULL%0,               Jeanne%Brochon%NULL%0,               David%Boutoille%NULL%0,               Marie%Chauveau%NULL%0,               Colin%Deschanvres%NULL%0,               Benjamin J%Gaborit%NULL%0,               Joël%Jenvrin%NULL%0,               Raphaël%Lecomte%NULL%0,               Maeva%Lefebvre%NULL%0,               François%Raffi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,               Laura%Pezzati%NULL%0,               Laura%Pezzati%NULL%0,               Federico%Conti%NULL%0,               Dario%Bernacchia%NULL%0,               Matteo%Siano%NULL%0,               Letizia%Oreni%NULL%0,               Stefano%Rusconi%NULL%0,               Cristina%Gervasoni%NULL%0,               Anna Lisa%Ridolfo%NULL%0,               Giuliano%Rizzardini%NULL%0,               Spinello%Antinori%NULL%0,               Massimo%Galli%NULL%0,               Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.%Klopfenstein%NULL%0,               N.J.%Kadiane-Oussou%NULL%0,               L.%Toko%NULL%0,               P.-Y.%Royer%NULL%0,               Q.%Lepiller%NULL%0,               V.%Gendrin%NULL%0,               S.%Zayet%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%0,               Carlos M.%Chiesa-Estomba%NULL%0,               Daniele R.%De Siati%NULL%0,               Mihaela%Horoi%NULL%0,               Serge D.%Le Bon%NULL%0,               Alexandra%Rodriguez%NULL%0,               Didier%Dequanter%NULL%0,               Serge%Blecic%NULL%0,               Fahd%El Afia%NULL%0,               Lea%Distinguin%NULL%0,               Younes%Chekkoury-Idrissi%NULL%0,               Stéphane%Hans%NULL%0,               Irene Lopez%Delgado%NULL%0,               Christian%Calvo-Henriquez%NULL%0,               Philippe%Lavigne%NULL%0,               Chiara%Falanga%NULL%0,               Maria Rosaria%Barillari%NULL%0,               Giovanni%Cammaroto%NULL%0,               Mohamad%Khalife%NULL%0,               Pierre%Leich%NULL%0,               Christel%Souchay%NULL%0,               Camelia%Rossi%NULL%0,               Fabrice%Journe%NULL%0,               Julien%Hsieh%NULL%0,               Myriam%Edjlali%NULL%0,               Robert%Carlier%NULL%0,               Laurence%Ris%NULL%0,               Andrea%Lovato%NULL%0,               Cosimo%De Filippis%NULL%0,               Frederique%Coppee%NULL%0,               Nicolas%Fakhry%NULL%0,               Tareck%Ayad%NULL%0,               Sven%Saussez%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ling%Mao%xref no email%0,        Huijuan%Jin%xref no email%0,        Mengdie%Wang%xref no email%0,        Yu%Hu%xref no email%0,        Shengcai%Chen%xref no email%0,        Quanwei%He%xref no email%0,        Jiang%Chang%xref no email%0,        Candong%Hong%xref no email%0,        Yifan%Zhou%xref no email%0,        David%Wang%xref no email%0,        Xiaoping%Miao%xref no email%0,        Yanan%Li%xref no email%0,        Bo%Hu%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[ Cristina%Menni%null%1,      Ana M.%Valdes%null%1,      Maxim B.%Freidin%null%1,      Carole H.%Sudre%null%1,      Long H.%Nguyen%null%1,      David A.%Drew%null%1,      Sajaysurya%Ganesh%null%1,      Thomas%Varsavsky%null%1,      M. Jorge%Cardoso%null%1,      Julia S.%El-Sayed Moustafa%null%1,      Alessia%Visconti%null%1,      Pirro%Hysi%null%1,      Ruth C. E.%Bowyer%null%1,      Massimo%Mangino%null%1,      Mario%Falchi%null%1,      Jonathan%Wolf%null%1,      Sebastien%Ourselin%null%1,      Andrew T.%Chan%null%1,      Claire J.%Steves%null%1,      Tim D.%Spector%null%1]</t>
+  </si>
+  <si>
+    <t>[Shima T.%Moein%NULL%1,               Seyed MohammadReza%Hashemian%NULL%1,               Babak%Mansourafshar%NULL%1,               Ali%Khorram‐Tousi%NULL%1,               Payam%Tabarsi%NULL%1,               Richard L.%Doty%doty@pennmedicine.upenn.edu%1]</t>
+  </si>
+  <si>
+    <t>[Borsetto%Daniele%coreGivesNoEmail%1,              Boscolo-Rizzo%Paolo%coreGivesNoEmail%1,              Cazzador%Diego%coreGivesNoEmail%1,              Fabbris%Cristoforo%coreGivesNoEmail%1,              Hopkins%Claire%coreGivesNoEmail%1,              Polesel%Jerry%coreGivesNoEmail%1,              Spinato%Giacomo%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Alma%Tostmann%NULL%1,               John%Bradley%NULL%2,               John%Bradley%NULL%0,               Teun%Bousema%NULL%2,               Teun%Bousema%NULL%0,               Wing-Kee%Yiek%NULL%2,               Wing-Kee%Yiek%NULL%0,               Minke%Holwerda%NULL%1,               Chantal%Bleeker-Rovers%NULL%1,               Jaap%ten Oever%NULL%1,               Corianne%Meijer%NULL%2,               Corianne%Meijer%NULL%0,               Janette%Rahamat-Langendoen%NULL%1,               Joost%Hopman%NULL%2,               Joost%Hopman%NULL%0,               Nannet%van der Geest-Blankert%NULL%1,               Heiman%Wertheim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luigi Angelo%Vaira%luigi.vaira@gmail.com%0,               Giovanna%Deiana%NULL%0,               Giovanna%Deiana%NULL%0,               Alessandro Giuseppe%Fois%NULL%1,               Pietro%Pirina%NULL%0,               Giordano%Madeddu%NULL%0,               Andrea%De Vito%NULL%0,               Sergio%Babudieri%NULL%0,               Marzia%Petrocelli%NULL%0,               Antonello%Serra%NULL%0,               Francesco%Bussu%NULL%0,               Enrica%Ligas%NULL%1,               Giovanni%Salzano%NULL%0,               Giacomo%De Riu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Liang En%Wee%ian.wee@mohh.com.sg%1,               Yvonne Fu Zi%Chan%NULL%2,               Yvonne Fu Zi%Chan%NULL%0,               Neville Wei Yang%Teo%NULL%1,               Benjamin Pei Zhi%Cherng%NULL%1,               Siew Yee%Thien%NULL%1,               Hei Man%Wong%NULL%1,               Limin%Wijaya%NULL%1,               Song Tar%Toh%NULL%1,               Thuan Tong%Tan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,               Farhoud%Faraji%NULL%0,               Farhoud%Faraji%NULL%0,               Divya P.%Prajapati%NULL%0,               Divya P.%Prajapati%NULL%0,               Christine E.%Boone%NULL%2,               Christine E.%Boone%NULL%0,               Adam S.%DeConde%NULL%0,               Adam S.%DeConde%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1292,7 +1334,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
@@ -1321,7 +1363,7 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -1350,7 +1392,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -1379,7 +1421,7 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1408,7 +1450,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1437,7 +1479,7 @@
         <v>234</v>
       </c>
       <c r="E7" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1466,7 +1508,7 @@
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -1495,7 +1537,7 @@
         <v>221</v>
       </c>
       <c r="E9" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -1524,7 +1566,7 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -1553,7 +1595,7 @@
         <v>93</v>
       </c>
       <c r="E11" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -1582,7 +1624,7 @@
         <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="F12" t="s">
         <v>69</v>
@@ -1611,7 +1653,7 @@
         <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="F13" t="s">
         <v>73</v>
@@ -1640,7 +1682,7 @@
         <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="F14" t="s">
         <v>77</v>
@@ -1669,7 +1711,7 @@
         <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="F15" t="s">
         <v>82</v>

--- a/Covid_19_Dataset_and_References/References/60.xlsx
+++ b/Covid_19_Dataset_and_References/References/60.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="313">
   <si>
     <t>Doi</t>
   </si>
@@ -1010,6 +1010,90 @@
   </si>
   <si>
     <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,               Farhoud%Faraji%NULL%0,               Farhoud%Faraji%NULL%0,               Divya P.%Prajapati%NULL%0,               Divya P.%Prajapati%NULL%0,               Christine E.%Boone%NULL%2,               Christine E.%Boone%NULL%0,               Adam S.%DeConde%NULL%0,               Adam S.%DeConde%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,                Farhoud%Faraji%NULL%0,                Farhoud%Faraji%NULL%0,                Divya P.%Prajapati%NULL%0,                Benjamin T.%Ostrander%NULL%0,                Adam S.%DeConde%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Á.%Beltrán‐Corbellini%beltran_corbellini@hotmail.com%0,                J. L.%Chico‐García%NULL%0,                J. L.%Chico‐García%NULL%0,                J.%Martínez‐Poles%NULL%0,                F.%Rodríguez‐Jorge%NULL%0,                E.%Natera‐Villalba%NULL%0,                J.%Gómez‐Corral%NULL%0,                J.%Gómez‐Corral%NULL%0,                A.%Gómez‐López%NULL%0,                E.%Monreal%NULL%0,                P.%Parra‐Díaz%NULL%0,                J. L.%Cortés‐Cuevas%NULL%0,                J. L.%Cortés‐Cuevas%NULL%0,                J. C.%Galán%NULL%0,                C.%Fragola‐Arnau%NULL%0,                J.%Porta‐Etessam%NULL%0,                J.%Masjuan%NULL%0,                A.%Alonso‐Cánovas%NULL%0,                A.%Alonso‐Cánovas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[François%Bénézit%NULL%0,                Paul%Le Turnier%NULL%0,                Charles%Declerck%NULL%0,                Cécile%Paillé%NULL%0,                Matthieu%Revest%NULL%0,                Vincent%Dubée%NULL%0,                Pierre%Tattevin%pierre.tattevin@chu-rennes.fr%0,                Cédric%Arvieux%NULL%0,                Marion%Baldeyrou%NULL%0,                Jean-Marc%Chapplain%NULL%0,                Pauline%Comacle%NULL%0,                Solène%Patrat-Delon%NULL%0,                Anne%Maillard%NULL%0,                Mélanie%Poinot%NULL%0,                Charlotte%Pronier%NULL%0,                Faouzi%Souala%NULL%0,                Vincent%Thibault%NULL%0,                Pierre%Abgueguen%NULL%0,                Hélène%Cormier%NULL%0,                Valérie%Delbos%NULL%0,                Marine%de la Chapelle%NULL%0,                Alexandra%Ducancelle%NULL%0,                Rafael%Mahieu%NULL%0,                Valérie%Rabier%NULL%0,                Sami%Rehaiem%NULL%0,                Yves%Vandamme%NULL%0,                Charlotte%Biron%NULL%0,                Jeanne%Brochon%NULL%0,                David%Boutoille%NULL%0,                Marie%Chauveau%NULL%0,                Colin%Deschanvres%NULL%0,                Benjamin J%Gaborit%NULL%0,                Joël%Jenvrin%NULL%0,                Raphaël%Lecomte%NULL%0,                Maeva%Lefebvre%NULL%0,                François%Raffi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,                Laura%Pezzati%NULL%0,                Laura%Pezzati%NULL%0,                Federico%Conti%NULL%0,                Dario%Bernacchia%NULL%0,                Matteo%Siano%NULL%0,                Letizia%Oreni%NULL%0,                Stefano%Rusconi%NULL%0,                Cristina%Gervasoni%NULL%0,                Anna Lisa%Ridolfo%NULL%0,                Giuliano%Rizzardini%NULL%0,                Spinello%Antinori%NULL%0,                Massimo%Galli%NULL%0,                Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.%Klopfenstein%NULL%0,                N.J.%Kadiane-Oussou%NULL%0,                L.%Toko%NULL%0,                P.-Y.%Royer%NULL%0,                Q.%Lepiller%NULL%0,                V.%Gendrin%NULL%0,                S.%Zayet%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%0,                Carlos M.%Chiesa-Estomba%NULL%0,                Daniele R.%De Siati%NULL%0,                Mihaela%Horoi%NULL%0,                Serge D.%Le Bon%NULL%0,                Alexandra%Rodriguez%NULL%0,                Didier%Dequanter%NULL%0,                Serge%Blecic%NULL%0,                Fahd%El Afia%NULL%0,                Lea%Distinguin%NULL%0,                Younes%Chekkoury-Idrissi%NULL%0,                Stéphane%Hans%NULL%0,                Irene Lopez%Delgado%NULL%0,                Christian%Calvo-Henriquez%NULL%0,                Philippe%Lavigne%NULL%0,                Chiara%Falanga%NULL%0,                Maria Rosaria%Barillari%NULL%0,                Giovanni%Cammaroto%NULL%0,                Mohamad%Khalife%NULL%0,                Pierre%Leich%NULL%0,                Christel%Souchay%NULL%0,                Camelia%Rossi%NULL%0,                Fabrice%Journe%NULL%0,                Julien%Hsieh%NULL%0,                Myriam%Edjlali%NULL%0,                Robert%Carlier%NULL%0,                Laurence%Ris%NULL%0,                Andrea%Lovato%NULL%0,                Cosimo%De Filippis%NULL%0,                Frederique%Coppee%NULL%0,                Nicolas%Fakhry%NULL%0,                Tareck%Ayad%NULL%0,                Sven%Saussez%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ling%Mao%xref no email%0,         Huijuan%Jin%xref no email%0,         Mengdie%Wang%xref no email%0,         Yu%Hu%xref no email%0,         Shengcai%Chen%xref no email%0,         Quanwei%He%xref no email%0,         Jiang%Chang%xref no email%0,         Candong%Hong%xref no email%0,         Yifan%Zhou%xref no email%0,         David%Wang%xref no email%0,         Xiaoping%Miao%xref no email%0,         Yanan%Li%xref no email%0,         Bo%Hu%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[ Cristina%Menni%null%1,       Ana M.%Valdes%null%1,       Maxim B.%Freidin%null%1,       Carole H.%Sudre%null%1,       Long H.%Nguyen%null%1,       David A.%Drew%null%1,       Sajaysurya%Ganesh%null%1,       Thomas%Varsavsky%null%1,       M. Jorge%Cardoso%null%1,       Julia S.%El-Sayed Moustafa%null%1,       Alessia%Visconti%null%1,       Pirro%Hysi%null%1,       Ruth C. E.%Bowyer%null%1,       Massimo%Mangino%null%1,       Mario%Falchi%null%1,       Jonathan%Wolf%null%1,       Sebastien%Ourselin%null%1,       Andrew T.%Chan%null%1,       Claire J.%Steves%null%1,       Tim D.%Spector%null%1]</t>
+  </si>
+  <si>
+    <t>[Shima T.%Moein%NULL%1,                Seyed MohammadReza%Hashemian%NULL%1,                Babak%Mansourafshar%NULL%1,                Ali%Khorram‐Tousi%NULL%1,                Payam%Tabarsi%NULL%1,                Richard L.%Doty%doty@pennmedicine.upenn.edu%1]</t>
+  </si>
+  <si>
+    <t>[Borsetto%Daniele%coreGivesNoEmail%1,               Boscolo-Rizzo%Paolo%coreGivesNoEmail%1,               Cazzador%Diego%coreGivesNoEmail%1,               Fabbris%Cristoforo%coreGivesNoEmail%1,               Hopkins%Claire%coreGivesNoEmail%1,               Polesel%Jerry%coreGivesNoEmail%1,               Spinato%Giacomo%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Alma%Tostmann%NULL%1,                John%Bradley%NULL%2,                John%Bradley%NULL%0,                Teun%Bousema%NULL%2,                Teun%Bousema%NULL%0,                Wing-Kee%Yiek%NULL%2,                Wing-Kee%Yiek%NULL%0,                Minke%Holwerda%NULL%1,                Chantal%Bleeker-Rovers%NULL%1,                Jaap%ten Oever%NULL%1,                Corianne%Meijer%NULL%2,                Corianne%Meijer%NULL%0,                Janette%Rahamat-Langendoen%NULL%1,                Joost%Hopman%NULL%2,                Joost%Hopman%NULL%0,                Nannet%van der Geest-Blankert%NULL%1,                Heiman%Wertheim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luigi Angelo%Vaira%luigi.vaira@gmail.com%0,                Giovanna%Deiana%NULL%0,                Giovanna%Deiana%NULL%0,                Alessandro Giuseppe%Fois%NULL%1,                Pietro%Pirina%NULL%0,                Giordano%Madeddu%NULL%0,                Andrea%De Vito%NULL%0,                Sergio%Babudieri%NULL%0,                Marzia%Petrocelli%NULL%0,                Antonello%Serra%NULL%0,                Francesco%Bussu%NULL%0,                Enrica%Ligas%NULL%1,                Giovanni%Salzano%NULL%0,                Giacomo%De Riu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Liang En%Wee%ian.wee@mohh.com.sg%1,                Yvonne Fu Zi%Chan%NULL%2,                Yvonne Fu Zi%Chan%NULL%0,                Neville Wei Yang%Teo%NULL%1,                Benjamin Pei Zhi%Cherng%NULL%1,                Siew Yee%Thien%NULL%1,                Hei Man%Wong%NULL%1,                Limin%Wijaya%NULL%1,                Song Tar%Toh%NULL%1,                Thuan Tong%Tan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,                Farhoud%Faraji%NULL%0,                Farhoud%Faraji%NULL%0,                Divya P.%Prajapati%NULL%0,                Divya P.%Prajapati%NULL%0,                Christine E.%Boone%NULL%2,                Christine E.%Boone%NULL%0,                Adam S.%DeConde%NULL%0,                Adam S.%DeConde%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,                 Farhoud%Faraji%NULL%0,                 Farhoud%Faraji%NULL%0,                 Divya P.%Prajapati%NULL%0,                 Benjamin T.%Ostrander%NULL%0,                 Adam S.%DeConde%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Á.%Beltrán‐Corbellini%beltran_corbellini@hotmail.com%0,                 J. L.%Chico‐García%NULL%0,                 J. L.%Chico‐García%NULL%0,                 J.%Martínez‐Poles%NULL%0,                 F.%Rodríguez‐Jorge%NULL%0,                 E.%Natera‐Villalba%NULL%0,                 J.%Gómez‐Corral%NULL%0,                 J.%Gómez‐Corral%NULL%0,                 A.%Gómez‐López%NULL%0,                 E.%Monreal%NULL%0,                 P.%Parra‐Díaz%NULL%0,                 J. L.%Cortés‐Cuevas%NULL%0,                 J. L.%Cortés‐Cuevas%NULL%0,                 J. C.%Galán%NULL%0,                 C.%Fragola‐Arnau%NULL%0,                 J.%Porta‐Etessam%NULL%0,                 J.%Masjuan%NULL%0,                 A.%Alonso‐Cánovas%NULL%0,                 A.%Alonso‐Cánovas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[François%Bénézit%NULL%0,                 Paul%Le Turnier%NULL%0,                 Charles%Declerck%NULL%0,                 Cécile%Paillé%NULL%0,                 Matthieu%Revest%NULL%0,                 Vincent%Dubée%NULL%0,                 Pierre%Tattevin%pierre.tattevin@chu-rennes.fr%0,                 Cédric%Arvieux%NULL%0,                 Marion%Baldeyrou%NULL%0,                 Jean-Marc%Chapplain%NULL%0,                 Pauline%Comacle%NULL%0,                 Solène%Patrat-Delon%NULL%0,                 Anne%Maillard%NULL%0,                 Mélanie%Poinot%NULL%0,                 Charlotte%Pronier%NULL%0,                 Faouzi%Souala%NULL%0,                 Vincent%Thibault%NULL%0,                 Pierre%Abgueguen%NULL%0,                 Hélène%Cormier%NULL%0,                 Valérie%Delbos%NULL%0,                 Marine%de la Chapelle%NULL%0,                 Alexandra%Ducancelle%NULL%0,                 Rafael%Mahieu%NULL%0,                 Valérie%Rabier%NULL%0,                 Sami%Rehaiem%NULL%0,                 Yves%Vandamme%NULL%0,                 Charlotte%Biron%NULL%0,                 Jeanne%Brochon%NULL%0,                 David%Boutoille%NULL%0,                 Marie%Chauveau%NULL%0,                 Colin%Deschanvres%NULL%0,                 Benjamin J%Gaborit%NULL%0,                 Joël%Jenvrin%NULL%0,                 Raphaël%Lecomte%NULL%0,                 Maeva%Lefebvre%NULL%0,                 François%Raffi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,                 Laura%Pezzati%NULL%0,                 Laura%Pezzati%NULL%0,                 Federico%Conti%NULL%0,                 Dario%Bernacchia%NULL%0,                 Matteo%Siano%NULL%0,                 Letizia%Oreni%NULL%0,                 Stefano%Rusconi%NULL%0,                 Cristina%Gervasoni%NULL%0,                 Anna Lisa%Ridolfo%NULL%0,                 Giuliano%Rizzardini%NULL%0,                 Spinello%Antinori%NULL%0,                 Massimo%Galli%NULL%0,                 Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.%Klopfenstein%NULL%0,                 N.J.%Kadiane-Oussou%NULL%0,                 L.%Toko%NULL%0,                 P.-Y.%Royer%NULL%0,                 Q.%Lepiller%NULL%0,                 V.%Gendrin%NULL%0,                 S.%Zayet%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%0,                 Carlos M.%Chiesa-Estomba%NULL%0,                 Daniele R.%De Siati%NULL%0,                 Mihaela%Horoi%NULL%0,                 Serge D.%Le Bon%NULL%0,                 Alexandra%Rodriguez%NULL%0,                 Didier%Dequanter%NULL%0,                 Serge%Blecic%NULL%0,                 Fahd%El Afia%NULL%0,                 Lea%Distinguin%NULL%0,                 Younes%Chekkoury-Idrissi%NULL%0,                 Stéphane%Hans%NULL%0,                 Irene Lopez%Delgado%NULL%0,                 Christian%Calvo-Henriquez%NULL%0,                 Philippe%Lavigne%NULL%0,                 Chiara%Falanga%NULL%0,                 Maria Rosaria%Barillari%NULL%0,                 Giovanni%Cammaroto%NULL%0,                 Mohamad%Khalife%NULL%0,                 Pierre%Leich%NULL%0,                 Christel%Souchay%NULL%0,                 Camelia%Rossi%NULL%0,                 Fabrice%Journe%NULL%0,                 Julien%Hsieh%NULL%0,                 Myriam%Edjlali%NULL%0,                 Robert%Carlier%NULL%0,                 Laurence%Ris%NULL%0,                 Andrea%Lovato%NULL%0,                 Cosimo%De Filippis%NULL%0,                 Frederique%Coppee%NULL%0,                 Nicolas%Fakhry%NULL%0,                 Tareck%Ayad%NULL%0,                 Sven%Saussez%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ling%Mao%xref no email%0,          Huijuan%Jin%xref no email%0,          Mengdie%Wang%xref no email%0,          Yu%Hu%xref no email%0,          Shengcai%Chen%xref no email%0,          Quanwei%He%xref no email%0,          Jiang%Chang%xref no email%0,          Candong%Hong%xref no email%0,          Yifan%Zhou%xref no email%0,          David%Wang%xref no email%0,          Xiaoping%Miao%xref no email%0,          Yanan%Li%xref no email%0,          Bo%Hu%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[ Cristina%Menni%null%1,        Ana M.%Valdes%null%1,        Maxim B.%Freidin%null%1,        Carole H.%Sudre%null%1,        Long H.%Nguyen%null%1,        David A.%Drew%null%1,        Sajaysurya%Ganesh%null%1,        Thomas%Varsavsky%null%1,        M. Jorge%Cardoso%null%1,        Julia S.%El-Sayed Moustafa%null%1,        Alessia%Visconti%null%1,        Pirro%Hysi%null%1,        Ruth C. E.%Bowyer%null%1,        Massimo%Mangino%null%1,        Mario%Falchi%null%1,        Jonathan%Wolf%null%1,        Sebastien%Ourselin%null%1,        Andrew T.%Chan%null%1,        Claire J.%Steves%null%1,        Tim D.%Spector%null%1]</t>
+  </si>
+  <si>
+    <t>[Shima T.%Moein%NULL%1,                 Seyed MohammadReza%Hashemian%NULL%1,                 Babak%Mansourafshar%NULL%1,                 Ali%Khorram‐Tousi%NULL%1,                 Payam%Tabarsi%NULL%1,                 Richard L.%Doty%doty@pennmedicine.upenn.edu%1]</t>
+  </si>
+  <si>
+    <t>[Borsetto%Daniele%coreGivesNoEmail%1,                Boscolo-Rizzo%Paolo%coreGivesNoEmail%1,                Cazzador%Diego%coreGivesNoEmail%1,                Fabbris%Cristoforo%coreGivesNoEmail%1,                Hopkins%Claire%coreGivesNoEmail%1,                Polesel%Jerry%coreGivesNoEmail%1,                Spinato%Giacomo%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Alma%Tostmann%NULL%1,                 John%Bradley%NULL%2,                 John%Bradley%NULL%0,                 Teun%Bousema%NULL%2,                 Teun%Bousema%NULL%0,                 Wing-Kee%Yiek%NULL%2,                 Wing-Kee%Yiek%NULL%0,                 Minke%Holwerda%NULL%1,                 Chantal%Bleeker-Rovers%NULL%1,                 Jaap%ten Oever%NULL%1,                 Corianne%Meijer%NULL%2,                 Corianne%Meijer%NULL%0,                 Janette%Rahamat-Langendoen%NULL%1,                 Joost%Hopman%NULL%2,                 Joost%Hopman%NULL%0,                 Nannet%van der Geest-Blankert%NULL%1,                 Heiman%Wertheim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luigi Angelo%Vaira%luigi.vaira@gmail.com%0,                 Giovanna%Deiana%NULL%0,                 Giovanna%Deiana%NULL%0,                 Alessandro Giuseppe%Fois%NULL%1,                 Pietro%Pirina%NULL%0,                 Giordano%Madeddu%NULL%0,                 Andrea%De Vito%NULL%0,                 Sergio%Babudieri%NULL%0,                 Marzia%Petrocelli%NULL%0,                 Antonello%Serra%NULL%0,                 Francesco%Bussu%NULL%0,                 Enrica%Ligas%NULL%1,                 Giovanni%Salzano%NULL%0,                 Giacomo%De Riu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Liang En%Wee%ian.wee@mohh.com.sg%1,                 Yvonne Fu Zi%Chan%NULL%2,                 Yvonne Fu Zi%Chan%NULL%0,                 Neville Wei Yang%Teo%NULL%1,                 Benjamin Pei Zhi%Cherng%NULL%1,                 Siew Yee%Thien%NULL%1,                 Hei Man%Wong%NULL%1,                 Limin%Wijaya%NULL%1,                 Song Tar%Toh%NULL%1,                 Thuan Tong%Tan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,                 Farhoud%Faraji%NULL%0,                 Farhoud%Faraji%NULL%0,                 Divya P.%Prajapati%NULL%0,                 Divya P.%Prajapati%NULL%0,                 Christine E.%Boone%NULL%2,                 Christine E.%Boone%NULL%0,                 Adam S.%DeConde%NULL%0,                 Adam S.%DeConde%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1334,7 +1418,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
@@ -1363,7 +1447,7 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -1392,7 +1476,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -1421,7 +1505,7 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1450,7 +1534,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1479,7 +1563,7 @@
         <v>234</v>
       </c>
       <c r="E7" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1508,7 +1592,7 @@
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -1537,7 +1621,7 @@
         <v>221</v>
       </c>
       <c r="E9" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -1566,7 +1650,7 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -1595,7 +1679,7 @@
         <v>93</v>
       </c>
       <c r="E11" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -1624,7 +1708,7 @@
         <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="F12" t="s">
         <v>69</v>
@@ -1653,7 +1737,7 @@
         <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="F13" t="s">
         <v>73</v>
@@ -1682,7 +1766,7 @@
         <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="F14" t="s">
         <v>77</v>
@@ -1711,7 +1795,7 @@
         <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="F15" t="s">
         <v>82</v>

--- a/Covid_19_Dataset_and_References/References/60.xlsx
+++ b/Covid_19_Dataset_and_References/References/60.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1892" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="327">
   <si>
     <t>Doi</t>
   </si>
@@ -1094,6 +1094,48 @@
   </si>
   <si>
     <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,                 Farhoud%Faraji%NULL%0,                 Farhoud%Faraji%NULL%0,                 Divya P.%Prajapati%NULL%0,                 Divya P.%Prajapati%NULL%0,                 Christine E.%Boone%NULL%2,                 Christine E.%Boone%NULL%0,                 Adam S.%DeConde%NULL%0,                 Adam S.%DeConde%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,                  Farhoud%Faraji%NULL%0,                  Farhoud%Faraji%NULL%0,                  Divya P.%Prajapati%NULL%0,                  Benjamin T.%Ostrander%NULL%0,                  Adam S.%DeConde%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Á.%Beltrán‐Corbellini%beltran_corbellini@hotmail.com%0,                  J. L.%Chico‐García%NULL%0,                  J. L.%Chico‐García%NULL%0,                  J.%Martínez‐Poles%NULL%0,                  F.%Rodríguez‐Jorge%NULL%0,                  E.%Natera‐Villalba%NULL%0,                  J.%Gómez‐Corral%NULL%0,                  J.%Gómez‐Corral%NULL%0,                  A.%Gómez‐López%NULL%0,                  E.%Monreal%NULL%0,                  P.%Parra‐Díaz%NULL%0,                  J. L.%Cortés‐Cuevas%NULL%0,                  J. L.%Cortés‐Cuevas%NULL%0,                  J. C.%Galán%NULL%0,                  C.%Fragola‐Arnau%NULL%0,                  J.%Porta‐Etessam%NULL%0,                  J.%Masjuan%NULL%0,                  A.%Alonso‐Cánovas%NULL%0,                  A.%Alonso‐Cánovas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[François%Bénézit%NULL%0,                  Paul%Le Turnier%NULL%0,                  Charles%Declerck%NULL%0,                  Cécile%Paillé%NULL%0,                  Matthieu%Revest%NULL%0,                  Vincent%Dubée%NULL%0,                  Pierre%Tattevin%pierre.tattevin@chu-rennes.fr%0,                  Cédric%Arvieux%NULL%0,                  Marion%Baldeyrou%NULL%0,                  Jean-Marc%Chapplain%NULL%0,                  Pauline%Comacle%NULL%0,                  Solène%Patrat-Delon%NULL%0,                  Anne%Maillard%NULL%0,                  Mélanie%Poinot%NULL%0,                  Charlotte%Pronier%NULL%0,                  Faouzi%Souala%NULL%0,                  Vincent%Thibault%NULL%0,                  Pierre%Abgueguen%NULL%0,                  Hélène%Cormier%NULL%0,                  Valérie%Delbos%NULL%0,                  Marine%de la Chapelle%NULL%0,                  Alexandra%Ducancelle%NULL%0,                  Rafael%Mahieu%NULL%0,                  Valérie%Rabier%NULL%0,                  Sami%Rehaiem%NULL%0,                  Yves%Vandamme%NULL%0,                  Charlotte%Biron%NULL%0,                  Jeanne%Brochon%NULL%0,                  David%Boutoille%NULL%0,                  Marie%Chauveau%NULL%0,                  Colin%Deschanvres%NULL%0,                  Benjamin J%Gaborit%NULL%0,                  Joël%Jenvrin%NULL%0,                  Raphaël%Lecomte%NULL%0,                  Maeva%Lefebvre%NULL%0,                  François%Raffi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,                  Laura%Pezzati%NULL%0,                  Laura%Pezzati%NULL%0,                  Federico%Conti%NULL%0,                  Dario%Bernacchia%NULL%0,                  Matteo%Siano%NULL%0,                  Letizia%Oreni%NULL%0,                  Stefano%Rusconi%NULL%0,                  Cristina%Gervasoni%NULL%0,                  Anna Lisa%Ridolfo%NULL%0,                  Giuliano%Rizzardini%NULL%0,                  Spinello%Antinori%NULL%0,                  Massimo%Galli%NULL%0,                  Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.%Klopfenstein%NULL%0,                  N.J.%Kadiane-Oussou%NULL%0,                  L.%Toko%NULL%0,                  P.-Y.%Royer%NULL%0,                  Q.%Lepiller%NULL%0,                  V.%Gendrin%NULL%0,                  S.%Zayet%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%0,                  Carlos M.%Chiesa-Estomba%NULL%0,                  Daniele R.%De Siati%NULL%0,                  Mihaela%Horoi%NULL%0,                  Serge D.%Le Bon%NULL%0,                  Alexandra%Rodriguez%NULL%0,                  Didier%Dequanter%NULL%0,                  Serge%Blecic%NULL%0,                  Fahd%El Afia%NULL%0,                  Lea%Distinguin%NULL%0,                  Younes%Chekkoury-Idrissi%NULL%0,                  Stéphane%Hans%NULL%0,                  Irene Lopez%Delgado%NULL%0,                  Christian%Calvo-Henriquez%NULL%0,                  Philippe%Lavigne%NULL%0,                  Chiara%Falanga%NULL%0,                  Maria Rosaria%Barillari%NULL%0,                  Giovanni%Cammaroto%NULL%0,                  Mohamad%Khalife%NULL%0,                  Pierre%Leich%NULL%0,                  Christel%Souchay%NULL%0,                  Camelia%Rossi%NULL%0,                  Fabrice%Journe%NULL%0,                  Julien%Hsieh%NULL%0,                  Myriam%Edjlali%NULL%0,                  Robert%Carlier%NULL%0,                  Laurence%Ris%NULL%0,                  Andrea%Lovato%NULL%0,                  Cosimo%De Filippis%NULL%0,                  Frederique%Coppee%NULL%0,                  Nicolas%Fakhry%NULL%0,                  Tareck%Ayad%NULL%0,                  Sven%Saussez%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ling%Mao%xref no email%0,           Huijuan%Jin%xref no email%0,           Mengdie%Wang%xref no email%0,           Yu%Hu%xref no email%0,           Shengcai%Chen%xref no email%0,           Quanwei%He%xref no email%0,           Jiang%Chang%xref no email%0,           Candong%Hong%xref no email%0,           Yifan%Zhou%xref no email%0,           David%Wang%xref no email%0,           Xiaoping%Miao%xref no email%0,           Yanan%Li%xref no email%0,           Bo%Hu%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[ Cristina%Menni%null%1,         Ana M.%Valdes%null%1,         Maxim B.%Freidin%null%1,         Carole H.%Sudre%null%1,         Long H.%Nguyen%null%1,         David A.%Drew%null%1,         Sajaysurya%Ganesh%null%1,         Thomas%Varsavsky%null%1,         M. Jorge%Cardoso%null%1,         Julia S.%El-Sayed Moustafa%null%1,         Alessia%Visconti%null%1,         Pirro%Hysi%null%1,         Ruth C. E.%Bowyer%null%1,         Massimo%Mangino%null%1,         Mario%Falchi%null%1,         Jonathan%Wolf%null%1,         Sebastien%Ourselin%null%1,         Andrew T.%Chan%null%1,         Claire J.%Steves%null%1,         Tim D.%Spector%null%1]</t>
+  </si>
+  <si>
+    <t>[Shima T.%Moein%NULL%1,                  Seyed MohammadReza%Hashemian%NULL%1,                  Babak%Mansourafshar%NULL%1,                  Ali%Khorram‐Tousi%NULL%1,                  Payam%Tabarsi%NULL%1,                  Richard L.%Doty%doty@pennmedicine.upenn.edu%1]</t>
+  </si>
+  <si>
+    <t>[Borsetto%Daniele%coreGivesNoEmail%1,                 Boscolo-Rizzo%Paolo%coreGivesNoEmail%1,                 Cazzador%Diego%coreGivesNoEmail%1,                 Fabbris%Cristoforo%coreGivesNoEmail%1,                 Hopkins%Claire%coreGivesNoEmail%1,                 Polesel%Jerry%coreGivesNoEmail%1,                 Spinato%Giacomo%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Alma%Tostmann%NULL%1,                  John%Bradley%NULL%2,                  John%Bradley%NULL%0,                  Teun%Bousema%NULL%2,                  Teun%Bousema%NULL%0,                  Wing-Kee%Yiek%NULL%2,                  Wing-Kee%Yiek%NULL%0,                  Minke%Holwerda%NULL%1,                  Chantal%Bleeker-Rovers%NULL%1,                  Jaap%ten Oever%NULL%1,                  Corianne%Meijer%NULL%2,                  Corianne%Meijer%NULL%0,                  Janette%Rahamat-Langendoen%NULL%1,                  Joost%Hopman%NULL%2,                  Joost%Hopman%NULL%0,                  Nannet%van der Geest-Blankert%NULL%1,                  Heiman%Wertheim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luigi Angelo%Vaira%luigi.vaira@gmail.com%0,                  Giovanna%Deiana%NULL%0,                  Giovanna%Deiana%NULL%0,                  Alessandro Giuseppe%Fois%NULL%1,                  Pietro%Pirina%NULL%0,                  Giordano%Madeddu%NULL%0,                  Andrea%De Vito%NULL%0,                  Sergio%Babudieri%NULL%0,                  Marzia%Petrocelli%NULL%0,                  Antonello%Serra%NULL%0,                  Francesco%Bussu%NULL%0,                  Enrica%Ligas%NULL%1,                  Giovanni%Salzano%NULL%0,                  Giacomo%De Riu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Liang En%Wee%ian.wee@mohh.com.sg%1,                  Yvonne Fu Zi%Chan%NULL%2,                  Yvonne Fu Zi%Chan%NULL%0,                  Neville Wei Yang%Teo%NULL%1,                  Benjamin Pei Zhi%Cherng%NULL%1,                  Siew Yee%Thien%NULL%1,                  Hei Man%Wong%NULL%1,                  Limin%Wijaya%NULL%1,                  Song Tar%Toh%NULL%1,                  Thuan Tong%Tan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,                  Farhoud%Faraji%NULL%0,                  Farhoud%Faraji%NULL%0,                  Divya P.%Prajapati%NULL%0,                  Divya P.%Prajapati%NULL%0,                  Christine E.%Boone%NULL%2,                  Christine E.%Boone%NULL%0,                  Adam S.%DeConde%NULL%0,                  Adam S.%DeConde%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1418,7 +1460,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
@@ -1447,7 +1489,7 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -1476,7 +1518,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -1505,7 +1547,7 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1534,7 +1576,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1563,7 +1605,7 @@
         <v>234</v>
       </c>
       <c r="E7" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1592,7 +1634,7 @@
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -1621,7 +1663,7 @@
         <v>221</v>
       </c>
       <c r="E9" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -1650,7 +1692,7 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -1679,7 +1721,7 @@
         <v>93</v>
       </c>
       <c r="E11" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -1708,7 +1750,7 @@
         <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="F12" t="s">
         <v>69</v>
@@ -1737,7 +1779,7 @@
         <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="F13" t="s">
         <v>73</v>
@@ -1766,7 +1808,7 @@
         <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="F14" t="s">
         <v>77</v>
@@ -1795,7 +1837,7 @@
         <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="F15" t="s">
         <v>82</v>

--- a/Covid_19_Dataset_and_References/References/60.xlsx
+++ b/Covid_19_Dataset_and_References/References/60.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="345">
   <si>
     <t>Doi</t>
   </si>
@@ -1136,6 +1136,60 @@
   </si>
   <si>
     <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,                  Farhoud%Faraji%NULL%0,                  Farhoud%Faraji%NULL%0,                  Divya P.%Prajapati%NULL%0,                  Divya P.%Prajapati%NULL%0,                  Christine E.%Boone%NULL%2,                  Christine E.%Boone%NULL%0,                  Adam S.%DeConde%NULL%0,                  Adam S.%DeConde%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,                   Farhoud%Faraji%NULL%0,                   Farhoud%Faraji%NULL%0,                   Divya P.%Prajapati%NULL%0,                   Benjamin T.%Ostrander%NULL%0,                   Adam S.%DeConde%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Á.%Beltrán‐Corbellini%beltran_corbellini@hotmail.com%0,                   J. L.%Chico‐García%NULL%0,                   J. L.%Chico‐García%NULL%0,                   J.%Martínez‐Poles%NULL%0,                   F.%Rodríguez‐Jorge%NULL%0,                   E.%Natera‐Villalba%NULL%0,                   J.%Gómez‐Corral%NULL%0,                   J.%Gómez‐Corral%NULL%0,                   A.%Gómez‐López%NULL%0,                   E.%Monreal%NULL%0,                   P.%Parra‐Díaz%NULL%0,                   J. L.%Cortés‐Cuevas%NULL%0,                   J. L.%Cortés‐Cuevas%NULL%0,                   J. C.%Galán%NULL%0,                   C.%Fragola‐Arnau%NULL%0,                   J.%Porta‐Etessam%NULL%0,                   J.%Masjuan%NULL%0,                   A.%Alonso‐Cánovas%NULL%0,                   A.%Alonso‐Cánovas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[François%Bénézit%NULL%0,                   Paul%Le Turnier%NULL%0,                   Charles%Declerck%NULL%0,                   Cécile%Paillé%NULL%0,                   Matthieu%Revest%NULL%0,                   Vincent%Dubée%NULL%0,                   Pierre%Tattevin%pierre.tattevin@chu-rennes.fr%0,                   Cédric%Arvieux%NULL%0,                   Marion%Baldeyrou%NULL%0,                   Jean-Marc%Chapplain%NULL%0,                   Pauline%Comacle%NULL%0,                   Solène%Patrat-Delon%NULL%0,                   Anne%Maillard%NULL%0,                   Mélanie%Poinot%NULL%0,                   Charlotte%Pronier%NULL%0,                   Faouzi%Souala%NULL%0,                   Vincent%Thibault%NULL%0,                   Pierre%Abgueguen%NULL%0,                   Hélène%Cormier%NULL%0,                   Valérie%Delbos%NULL%0,                   Marine%de la Chapelle%NULL%0,                   Alexandra%Ducancelle%NULL%0,                   Rafael%Mahieu%NULL%0,                   Valérie%Rabier%NULL%0,                   Sami%Rehaiem%NULL%0,                   Yves%Vandamme%NULL%0,                   Charlotte%Biron%NULL%0,                   Jeanne%Brochon%NULL%0,                   David%Boutoille%NULL%0,                   Marie%Chauveau%NULL%0,                   Colin%Deschanvres%NULL%0,                   Benjamin J%Gaborit%NULL%0,                   Joël%Jenvrin%NULL%0,                   Raphaël%Lecomte%NULL%0,                   Maeva%Lefebvre%NULL%0,                   François%Raffi%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,                   Laura%Pezzati%NULL%0,                   Laura%Pezzati%NULL%0,                   Federico%Conti%NULL%0,                   Dario%Bernacchia%NULL%0,                   Matteo%Siano%NULL%0,                   Letizia%Oreni%NULL%0,                   Stefano%Rusconi%NULL%0,                   Cristina%Gervasoni%NULL%0,                   Anna Lisa%Ridolfo%NULL%0,                   Giuliano%Rizzardini%NULL%0,                   Spinello%Antinori%NULL%0,                   Massimo%Galli%NULL%0,                   Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.%Klopfenstein%NULL%0,                   N.J.%Kadiane-Oussou%NULL%0,                   L.%Toko%NULL%0,                   P.-Y.%Royer%NULL%0,                   Q.%Lepiller%NULL%0,                   V.%Gendrin%NULL%0,                   S.%Zayet%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%0,                   Carlos M.%Chiesa-Estomba%NULL%0,                   Daniele R.%De Siati%NULL%0,                   Mihaela%Horoi%NULL%0,                   Serge D.%Le Bon%NULL%0,                   Alexandra%Rodriguez%NULL%0,                   Didier%Dequanter%NULL%0,                   Serge%Blecic%NULL%0,                   Fahd%El Afia%NULL%0,                   Lea%Distinguin%NULL%0,                   Younes%Chekkoury-Idrissi%NULL%0,                   Stéphane%Hans%NULL%0,                   Irene Lopez%Delgado%NULL%0,                   Christian%Calvo-Henriquez%NULL%0,                   Philippe%Lavigne%NULL%0,                   Chiara%Falanga%NULL%0,                   Maria Rosaria%Barillari%NULL%0,                   Giovanni%Cammaroto%NULL%0,                   Mohamad%Khalife%NULL%0,                   Pierre%Leich%NULL%0,                   Christel%Souchay%NULL%0,                   Camelia%Rossi%NULL%0,                   Fabrice%Journe%NULL%0,                   Julien%Hsieh%NULL%0,                   Myriam%Edjlali%NULL%0,                   Robert%Carlier%NULL%0,                   Laurence%Ris%NULL%0,                   Andrea%Lovato%NULL%0,                   Cosimo%De Filippis%NULL%0,                   Frederique%Coppee%NULL%0,                   Nicolas%Fakhry%NULL%0,                   Tareck%Ayad%NULL%0,                   Sven%Saussez%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Ling%Mao%xref no email%0,            Huijuan%Jin%xref no email%0,            Mengdie%Wang%xref no email%0,            Yu%Hu%xref no email%0,            Shengcai%Chen%xref no email%0,            Quanwei%He%xref no email%0,            Jiang%Chang%xref no email%0,            Candong%Hong%xref no email%0,            Yifan%Zhou%xref no email%0,            David%Wang%xref no email%0,            Xiaoping%Miao%xref no email%0,            Yanan%Li%xref no email%0,            Bo%Hu%xref no email%0]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[ Cristina%Menni%null%1,          Ana M.%Valdes%null%1,          Maxim B.%Freidin%null%1,          Carole H.%Sudre%null%1,          Long H.%Nguyen%null%1,          David A.%Drew%null%1,          Sajaysurya%Ganesh%null%1,          Thomas%Varsavsky%null%1,          M. Jorge%Cardoso%null%1,          Julia S.%El-Sayed Moustafa%null%1,          Alessia%Visconti%null%1,          Pirro%Hysi%null%1,          Ruth C. E.%Bowyer%null%1,          Massimo%Mangino%null%1,          Mario%Falchi%null%1,          Jonathan%Wolf%null%1,          Sebastien%Ourselin%null%1,          Andrew T.%Chan%null%1,          Claire J.%Steves%null%1,          Tim D.%Spector%null%1]</t>
+  </si>
+  <si>
+    <t>[Shima T.%Moein%NULL%1,                   Seyed MohammadReza%Hashemian%NULL%1,                   Babak%Mansourafshar%NULL%1,                   Ali%Khorram‐Tousi%NULL%1,                   Payam%Tabarsi%NULL%1,                   Richard L.%Doty%doty@pennmedicine.upenn.edu%1]</t>
+  </si>
+  <si>
+    <t>[Borsetto%Daniele%coreGivesNoEmail%1,                  Boscolo-Rizzo%Paolo%coreGivesNoEmail%1,                  Cazzador%Diego%coreGivesNoEmail%1,                  Fabbris%Cristoforo%coreGivesNoEmail%1,                  Hopkins%Claire%coreGivesNoEmail%1,                  Polesel%Jerry%coreGivesNoEmail%1,                  Spinato%Giacomo%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Alma%Tostmann%NULL%1,                   John%Bradley%NULL%2,                   John%Bradley%NULL%0,                   Teun%Bousema%NULL%2,                   Teun%Bousema%NULL%0,                   Wing-Kee%Yiek%NULL%2,                   Wing-Kee%Yiek%NULL%0,                   Minke%Holwerda%NULL%1,                   Chantal%Bleeker-Rovers%NULL%1,                   Jaap%ten Oever%NULL%1,                   Corianne%Meijer%NULL%2,                   Corianne%Meijer%NULL%0,                   Janette%Rahamat-Langendoen%NULL%1,                   Joost%Hopman%NULL%2,                   Joost%Hopman%NULL%0,                   Nannet%van der Geest-Blankert%NULL%1,                   Heiman%Wertheim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luigi Angelo%Vaira%luigi.vaira@gmail.com%0,                   Giovanna%Deiana%NULL%0,                   Giovanna%Deiana%NULL%0,                   Alessandro Giuseppe%Fois%NULL%1,                   Pietro%Pirina%NULL%0,                   Giordano%Madeddu%NULL%0,                   Andrea%De Vito%NULL%0,                   Sergio%Babudieri%NULL%0,                   Marzia%Petrocelli%NULL%0,                   Antonello%Serra%NULL%0,                   Francesco%Bussu%NULL%0,                   Enrica%Ligas%NULL%1,                   Giovanni%Salzano%NULL%0,                   Giacomo%De Riu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Liang En%Wee%ian.wee@mohh.com.sg%1,                   Yvonne Fu Zi%Chan%NULL%2,                   Yvonne Fu Zi%Chan%NULL%0,                   Neville Wei Yang%Teo%NULL%1,                   Benjamin Pei Zhi%Cherng%NULL%1,                   Siew Yee%Thien%NULL%1,                   Hei Man%Wong%NULL%1,                   Limin%Wijaya%NULL%1,                   Song Tar%Toh%NULL%1,                   Thuan Tong%Tan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,                   Farhoud%Faraji%NULL%0,                   Farhoud%Faraji%NULL%0,                   Divya P.%Prajapati%NULL%0,                   Divya P.%Prajapati%NULL%0,                   Christine E.%Boone%NULL%2,                   Christine E.%Boone%NULL%0,                   Adam S.%DeConde%NULL%0,                   Adam S.%DeConde%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1460,7 +1514,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
@@ -1472,7 +1526,7 @@
         <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>102</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3">
@@ -1489,7 +1543,7 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -1501,7 +1555,7 @@
         <v>38</v>
       </c>
       <c r="I3" t="s">
-        <v>102</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4">
@@ -1518,7 +1572,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -1530,7 +1584,7 @@
         <v>43</v>
       </c>
       <c r="I4" t="s">
-        <v>105</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5">
@@ -1547,7 +1601,7 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>316</v>
+        <v>332</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1559,7 +1613,7 @@
         <v>43</v>
       </c>
       <c r="I5" t="s">
-        <v>102</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6">
@@ -1576,7 +1630,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1588,7 +1642,7 @@
         <v>51</v>
       </c>
       <c r="I6" t="s">
-        <v>105</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7">
@@ -1605,7 +1659,7 @@
         <v>234</v>
       </c>
       <c r="E7" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1617,7 +1671,7 @@
         <v>56</v>
       </c>
       <c r="I7" t="s">
-        <v>109</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8">
@@ -1634,7 +1688,7 @@
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -1646,7 +1700,7 @@
         <v>178</v>
       </c>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9">
@@ -1663,7 +1717,7 @@
         <v>221</v>
       </c>
       <c r="E9" t="s">
-        <v>320</v>
+        <v>338</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -1675,7 +1729,7 @@
         <v>61</v>
       </c>
       <c r="I9" t="s">
-        <v>40</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10">
@@ -1692,7 +1746,7 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>321</v>
+        <v>339</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -1704,7 +1758,7 @@
         <v>51</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11">
@@ -1721,7 +1775,7 @@
         <v>93</v>
       </c>
       <c r="E11" t="s">
-        <v>322</v>
+        <v>340</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -1733,7 +1787,7 @@
         <v>43</v>
       </c>
       <c r="I11" t="s">
-        <v>40</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12">
@@ -1750,7 +1804,7 @@
         <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>323</v>
+        <v>341</v>
       </c>
       <c r="F12" t="s">
         <v>69</v>
@@ -1762,7 +1816,7 @@
         <v>33</v>
       </c>
       <c r="I12" t="s">
-        <v>102</v>
+        <v>328</v>
       </c>
     </row>
     <row r="13">
@@ -1779,7 +1833,7 @@
         <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="F13" t="s">
         <v>73</v>
@@ -1791,7 +1845,7 @@
         <v>74</v>
       </c>
       <c r="I13" t="s">
-        <v>102</v>
+        <v>328</v>
       </c>
     </row>
     <row r="14">
@@ -1808,7 +1862,7 @@
         <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>325</v>
+        <v>343</v>
       </c>
       <c r="F14" t="s">
         <v>77</v>
@@ -1820,7 +1874,7 @@
         <v>78</v>
       </c>
       <c r="I14" t="s">
-        <v>109</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15">
@@ -1837,7 +1891,7 @@
         <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>326</v>
+        <v>344</v>
       </c>
       <c r="F15" t="s">
         <v>82</v>
@@ -1849,7 +1903,7 @@
         <v>83</v>
       </c>
       <c r="I15" t="s">
-        <v>102</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/60.xlsx
+++ b/Covid_19_Dataset_and_References/References/60.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2102" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="359">
   <si>
     <t>Doi</t>
   </si>
@@ -1190,6 +1190,48 @@
   </si>
   <si>
     <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,                   Farhoud%Faraji%NULL%0,                   Farhoud%Faraji%NULL%0,                   Divya P.%Prajapati%NULL%0,                   Divya P.%Prajapati%NULL%0,                   Christine E.%Boone%NULL%2,                   Christine E.%Boone%NULL%0,                   Adam S.%DeConde%NULL%0,                   Adam S.%DeConde%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,                    Farhoud%Faraji%NULL%0,                    Farhoud%Faraji%NULL%0,                    Divya P.%Prajapati%NULL%0,                    Benjamin T.%Ostrander%NULL%0,                    Adam S.%DeConde%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Á.%Beltrán‐Corbellini%beltran_corbellini@hotmail.com%0,                    J. L.%Chico‐García%NULL%0,                    J. L.%Chico‐García%NULL%0,                    J.%Martínez‐Poles%NULL%0,                    F.%Rodríguez‐Jorge%NULL%0,                    E.%Natera‐Villalba%NULL%0,                    J.%Gómez‐Corral%NULL%0,                    J.%Gómez‐Corral%NULL%0,                    A.%Gómez‐López%NULL%0,                    E.%Monreal%NULL%0,                    P.%Parra‐Díaz%NULL%0,                    J. L.%Cortés‐Cuevas%NULL%0,                    J. L.%Cortés‐Cuevas%NULL%0,                    J. C.%Galán%NULL%0,                    C.%Fragola‐Arnau%NULL%0,                    J.%Porta‐Etessam%NULL%0,                    J.%Masjuan%NULL%0,                    A.%Alonso‐Cánovas%NULL%0,                    A.%Alonso‐Cánovas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[François%Bénézit%NULL%0,                    Paul%Le Turnier%NULL%0,                    Charles%Declerck%NULL%0,                    Cécile%Paillé%NULL%0,                    Matthieu%Revest%NULL%0,                    Vincent%Dubée%NULL%0,                    Pierre%Tattevin%pierre.tattevin@chu-rennes.fr%0,                    Cédric%Arvieux%NULL%0,                    Marion%Baldeyrou%NULL%0,                    Jean-Marc%Chapplain%NULL%0,                    Pauline%Comacle%NULL%0,                    Solène%Patrat-Delon%NULL%0,                    Anne%Maillard%NULL%0,                    Mélanie%Poinot%NULL%0,                    Charlotte%Pronier%NULL%0,                    Faouzi%Souala%NULL%0,                    Vincent%Thibault%NULL%0,                    Pierre%Abgueguen%NULL%0,                    Hélène%Cormier%NULL%0,                    Valérie%Delbos%NULL%0,                    Marine%de la Chapelle%NULL%0,                    Alexandra%Ducancelle%NULL%0,                    Rafael%Mahieu%NULL%0,                    Valérie%Rabier%NULL%0,                    Sami%Rehaiem%NULL%0,                    Yves%Vandamme%NULL%0,                    Charlotte%Biron%NULL%0,                    Jeanne%Brochon%NULL%0,                    David%Boutoille%NULL%0,                    Marie%Chauveau%NULL%0,                    Colin%Deschanvres%NULL%0,                    Benjamin J%Gaborit%NULL%0,                    Joël%Jenvrin%NULL%0,                    Raphaël%Lecomte%NULL%0,                    Maeva%Lefebvre%NULL%0,                    François%Raffi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,                    Laura%Pezzati%NULL%0,                    Laura%Pezzati%NULL%0,                    Federico%Conti%NULL%0,                    Dario%Bernacchia%NULL%0,                    Matteo%Siano%NULL%0,                    Letizia%Oreni%NULL%0,                    Stefano%Rusconi%NULL%0,                    Cristina%Gervasoni%NULL%0,                    Anna Lisa%Ridolfo%NULL%0,                    Giuliano%Rizzardini%NULL%0,                    Spinello%Antinori%NULL%0,                    Massimo%Galli%NULL%0,                    Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.%Klopfenstein%NULL%0,                    N.J.%Kadiane-Oussou%NULL%0,                    L.%Toko%NULL%0,                    P.-Y.%Royer%NULL%0,                    Q.%Lepiller%NULL%0,                    V.%Gendrin%NULL%0,                    S.%Zayet%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%0,                    Carlos M.%Chiesa-Estomba%NULL%0,                    Daniele R.%De Siati%NULL%0,                    Mihaela%Horoi%NULL%0,                    Serge D.%Le Bon%NULL%0,                    Alexandra%Rodriguez%NULL%0,                    Didier%Dequanter%NULL%0,                    Serge%Blecic%NULL%0,                    Fahd%El Afia%NULL%0,                    Lea%Distinguin%NULL%0,                    Younes%Chekkoury-Idrissi%NULL%0,                    Stéphane%Hans%NULL%0,                    Irene Lopez%Delgado%NULL%0,                    Christian%Calvo-Henriquez%NULL%0,                    Philippe%Lavigne%NULL%0,                    Chiara%Falanga%NULL%0,                    Maria Rosaria%Barillari%NULL%0,                    Giovanni%Cammaroto%NULL%0,                    Mohamad%Khalife%NULL%0,                    Pierre%Leich%NULL%0,                    Christel%Souchay%NULL%0,                    Camelia%Rossi%NULL%0,                    Fabrice%Journe%NULL%0,                    Julien%Hsieh%NULL%0,                    Myriam%Edjlali%NULL%0,                    Robert%Carlier%NULL%0,                    Laurence%Ris%NULL%0,                    Andrea%Lovato%NULL%0,                    Cosimo%De Filippis%NULL%0,                    Frederique%Coppee%NULL%0,                    Nicolas%Fakhry%NULL%0,                    Tareck%Ayad%NULL%0,                    Sven%Saussez%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ling%Mao%xref no email%0,             Huijuan%Jin%xref no email%0,             Mengdie%Wang%xref no email%0,             Yu%Hu%xref no email%0,             Shengcai%Chen%xref no email%0,             Quanwei%He%xref no email%0,             Jiang%Chang%xref no email%0,             Candong%Hong%xref no email%0,             Yifan%Zhou%xref no email%0,             David%Wang%xref no email%0,             Xiaoping%Miao%xref no email%0,             Yanan%Li%xref no email%0,             Bo%Hu%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[ Cristina%Menni%null%1,           Ana M.%Valdes%null%1,           Maxim B.%Freidin%null%1,           Carole H.%Sudre%null%1,           Long H.%Nguyen%null%1,           David A.%Drew%null%1,           Sajaysurya%Ganesh%null%1,           Thomas%Varsavsky%null%1,           M. Jorge%Cardoso%null%1,           Julia S.%El-Sayed Moustafa%null%1,           Alessia%Visconti%null%1,           Pirro%Hysi%null%1,           Ruth C. E.%Bowyer%null%1,           Massimo%Mangino%null%1,           Mario%Falchi%null%1,           Jonathan%Wolf%null%1,           Sebastien%Ourselin%null%1,           Andrew T.%Chan%null%1,           Claire J.%Steves%null%1,           Tim D.%Spector%null%1]</t>
+  </si>
+  <si>
+    <t>[Shima T.%Moein%NULL%1,                    Seyed MohammadReza%Hashemian%NULL%1,                    Babak%Mansourafshar%NULL%1,                    Ali%Khorram‐Tousi%NULL%1,                    Payam%Tabarsi%NULL%1,                    Richard L.%Doty%doty@pennmedicine.upenn.edu%1]</t>
+  </si>
+  <si>
+    <t>[Borsetto%Daniele%coreGivesNoEmail%1,                   Boscolo-Rizzo%Paolo%coreGivesNoEmail%1,                   Cazzador%Diego%coreGivesNoEmail%1,                   Fabbris%Cristoforo%coreGivesNoEmail%1,                   Hopkins%Claire%coreGivesNoEmail%1,                   Polesel%Jerry%coreGivesNoEmail%1,                   Spinato%Giacomo%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Alma%Tostmann%NULL%1,                    John%Bradley%NULL%2,                    John%Bradley%NULL%0,                    Teun%Bousema%NULL%2,                    Teun%Bousema%NULL%0,                    Wing-Kee%Yiek%NULL%2,                    Wing-Kee%Yiek%NULL%0,                    Minke%Holwerda%NULL%1,                    Chantal%Bleeker-Rovers%NULL%1,                    Jaap%ten Oever%NULL%1,                    Corianne%Meijer%NULL%2,                    Corianne%Meijer%NULL%0,                    Janette%Rahamat-Langendoen%NULL%1,                    Joost%Hopman%NULL%2,                    Joost%Hopman%NULL%0,                    Nannet%van der Geest-Blankert%NULL%1,                    Heiman%Wertheim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luigi Angelo%Vaira%luigi.vaira@gmail.com%0,                    Giovanna%Deiana%NULL%0,                    Giovanna%Deiana%NULL%0,                    Alessandro Giuseppe%Fois%NULL%1,                    Pietro%Pirina%NULL%0,                    Giordano%Madeddu%NULL%0,                    Andrea%De Vito%NULL%0,                    Sergio%Babudieri%NULL%0,                    Marzia%Petrocelli%NULL%0,                    Antonello%Serra%NULL%0,                    Francesco%Bussu%NULL%0,                    Enrica%Ligas%NULL%1,                    Giovanni%Salzano%NULL%0,                    Giacomo%De Riu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Liang En%Wee%ian.wee@mohh.com.sg%1,                    Yvonne Fu Zi%Chan%NULL%2,                    Yvonne Fu Zi%Chan%NULL%0,                    Neville Wei Yang%Teo%NULL%1,                    Benjamin Pei Zhi%Cherng%NULL%1,                    Siew Yee%Thien%NULL%1,                    Hei Man%Wong%NULL%1,                    Limin%Wijaya%NULL%1,                    Song Tar%Toh%NULL%1,                    Thuan Tong%Tan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,                    Farhoud%Faraji%NULL%0,                    Farhoud%Faraji%NULL%0,                    Divya P.%Prajapati%NULL%0,                    Divya P.%Prajapati%NULL%0,                    Christine E.%Boone%NULL%2,                    Christine E.%Boone%NULL%0,                    Adam S.%DeConde%NULL%0,                    Adam S.%DeConde%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1514,7 +1556,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>327</v>
+        <v>345</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
@@ -1543,7 +1585,7 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -1572,7 +1614,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -1601,7 +1643,7 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1630,7 +1672,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>333</v>
+        <v>349</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1659,7 +1701,7 @@
         <v>234</v>
       </c>
       <c r="E7" t="s">
-        <v>334</v>
+        <v>350</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1688,7 +1730,7 @@
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -1717,7 +1759,7 @@
         <v>221</v>
       </c>
       <c r="E9" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -1746,7 +1788,7 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -1775,7 +1817,7 @@
         <v>93</v>
       </c>
       <c r="E11" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -1804,7 +1846,7 @@
         <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="F12" t="s">
         <v>69</v>
@@ -1833,7 +1875,7 @@
         <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="F13" t="s">
         <v>73</v>
@@ -1862,7 +1904,7 @@
         <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="F14" t="s">
         <v>77</v>
@@ -1891,7 +1933,7 @@
         <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="F15" t="s">
         <v>82</v>

--- a/Covid_19_Dataset_and_References/References/60.xlsx
+++ b/Covid_19_Dataset_and_References/References/60.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2807" uniqueCount="427">
   <si>
     <t>Doi</t>
   </si>
@@ -1232,6 +1232,210 @@
   </si>
   <si>
     <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,                    Farhoud%Faraji%NULL%0,                    Farhoud%Faraji%NULL%0,                    Divya P.%Prajapati%NULL%0,                    Divya P.%Prajapati%NULL%0,                    Christine E.%Boone%NULL%2,                    Christine E.%Boone%NULL%0,                    Adam S.%DeConde%NULL%0,                    Adam S.%DeConde%NULL%0]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,                     Farhoud%Faraji%NULL%0,                     Farhoud%Faraji%NULL%0,                     Divya P.%Prajapati%NULL%0,                     Benjamin T.%Ostrander%NULL%0,                     Adam S.%DeConde%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Á.%Beltrán‐Corbellini%beltran_corbellini@hotmail.com%0,                     J. L.%Chico‐García%NULL%0,                     J. L.%Chico‐García%NULL%0,                     J.%Martínez‐Poles%NULL%0,                     F.%Rodríguez‐Jorge%NULL%0,                     E.%Natera‐Villalba%NULL%0,                     J.%Gómez‐Corral%NULL%0,                     J.%Gómez‐Corral%NULL%0,                     A.%Gómez‐López%NULL%0,                     E.%Monreal%NULL%0,                     P.%Parra‐Díaz%NULL%0,                     J. L.%Cortés‐Cuevas%NULL%0,                     J. L.%Cortés‐Cuevas%NULL%0,                     J. C.%Galán%NULL%0,                     C.%Fragola‐Arnau%NULL%0,                     J.%Porta‐Etessam%NULL%0,                     J.%Masjuan%NULL%0,                     A.%Alonso‐Cánovas%NULL%0,                     A.%Alonso‐Cánovas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[François%Bénézit%NULL%0,                     Paul%Le Turnier%NULL%0,                     Charles%Declerck%NULL%0,                     Cécile%Paillé%NULL%0,                     Matthieu%Revest%NULL%0,                     Vincent%Dubée%NULL%0,                     Pierre%Tattevin%pierre.tattevin@chu-rennes.fr%0,                     Cédric%Arvieux%NULL%0,                     Marion%Baldeyrou%NULL%0,                     Jean-Marc%Chapplain%NULL%0,                     Pauline%Comacle%NULL%0,                     Solène%Patrat-Delon%NULL%0,                     Anne%Maillard%NULL%0,                     Mélanie%Poinot%NULL%0,                     Charlotte%Pronier%NULL%0,                     Faouzi%Souala%NULL%0,                     Vincent%Thibault%NULL%0,                     Pierre%Abgueguen%NULL%0,                     Hélène%Cormier%NULL%0,                     Valérie%Delbos%NULL%0,                     Marine%de la Chapelle%NULL%0,                     Alexandra%Ducancelle%NULL%0,                     Rafael%Mahieu%NULL%0,                     Valérie%Rabier%NULL%0,                     Sami%Rehaiem%NULL%0,                     Yves%Vandamme%NULL%0,                     Charlotte%Biron%NULL%0,                     Jeanne%Brochon%NULL%0,                     David%Boutoille%NULL%0,                     Marie%Chauveau%NULL%0,                     Colin%Deschanvres%NULL%0,                     Benjamin J%Gaborit%NULL%0,                     Joël%Jenvrin%NULL%0,                     Raphaël%Lecomte%NULL%0,                     Maeva%Lefebvre%NULL%0,                     François%Raffi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,                     Laura%Pezzati%NULL%0,                     Laura%Pezzati%NULL%0,                     Federico%Conti%NULL%0,                     Dario%Bernacchia%NULL%0,                     Matteo%Siano%NULL%0,                     Letizia%Oreni%NULL%0,                     Stefano%Rusconi%NULL%0,                     Cristina%Gervasoni%NULL%0,                     Anna Lisa%Ridolfo%NULL%0,                     Giuliano%Rizzardini%NULL%0,                     Spinello%Antinori%NULL%0,                     Massimo%Galli%NULL%0,                     Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.%Klopfenstein%NULL%0,                     N.J.%Kadiane-Oussou%NULL%0,                     L.%Toko%NULL%0,                     P.-Y.%Royer%NULL%0,                     Q.%Lepiller%NULL%0,                     V.%Gendrin%NULL%0,                     S.%Zayet%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%0,                     Carlos M.%Chiesa-Estomba%NULL%0,                     Daniele R.%De Siati%NULL%0,                     Mihaela%Horoi%NULL%0,                     Serge D.%Le Bon%NULL%0,                     Alexandra%Rodriguez%NULL%0,                     Didier%Dequanter%NULL%0,                     Serge%Blecic%NULL%0,                     Fahd%El Afia%NULL%0,                     Lea%Distinguin%NULL%0,                     Younes%Chekkoury-Idrissi%NULL%0,                     Stéphane%Hans%NULL%0,                     Irene Lopez%Delgado%NULL%0,                     Christian%Calvo-Henriquez%NULL%0,                     Philippe%Lavigne%NULL%0,                     Chiara%Falanga%NULL%0,                     Maria Rosaria%Barillari%NULL%0,                     Giovanni%Cammaroto%NULL%0,                     Mohamad%Khalife%NULL%0,                     Pierre%Leich%NULL%0,                     Christel%Souchay%NULL%0,                     Camelia%Rossi%NULL%0,                     Fabrice%Journe%NULL%0,                     Julien%Hsieh%NULL%0,                     Myriam%Edjlali%NULL%0,                     Robert%Carlier%NULL%0,                     Laurence%Ris%NULL%0,                     Andrea%Lovato%NULL%0,                     Cosimo%De Filippis%NULL%0,                     Frederique%Coppee%NULL%0,                     Nicolas%Fakhry%NULL%0,                     Tareck%Ayad%NULL%0,                     Sven%Saussez%NULL%0]</t>
+  </si>
+  <si>
+    <t>2023-06-05</t>
+  </si>
+  <si>
+    <t>PUBLISHER: American Medical Association (AMA)</t>
+  </si>
+  <si>
+    <t>[ Cristina%Menni%null%1,            Ana M.%Valdes%null%1,            Maxim B.%Freidin%null%1,            Carole H.%Sudre%null%1,            Long H.%Nguyen%null%1,            David A.%Drew%null%1,            Sajaysurya%Ganesh%null%1,            Thomas%Varsavsky%null%1,            M. Jorge%Cardoso%null%1,            Julia S.%El-Sayed Moustafa%null%1,            Alessia%Visconti%null%1,            Pirro%Hysi%null%1,            Ruth C. E.%Bowyer%null%1,            Massimo%Mangino%null%1,            Mario%Falchi%null%1,            Jonathan%Wolf%null%1,            Sebastien%Ourselin%null%1,            Andrew T.%Chan%null%1,            Claire J.%Steves%null%1,            Tim D.%Spector%null%1]</t>
+  </si>
+  <si>
+    <t>[Shima T.%Moein%NULL%1,                     Seyed MohammadReza%Hashemian%NULL%1,                     Babak%Mansourafshar%NULL%1,                     Ali%Khorram‐Tousi%NULL%1,                     Payam%Tabarsi%NULL%1,                     Richard L.%Doty%doty@pennmedicine.upenn.edu%1]</t>
+  </si>
+  <si>
+    <t>[Borsetto%Daniele%coreGivesNoEmail%1,                    Boscolo-Rizzo%Paolo%coreGivesNoEmail%1,                    Cazzador%Diego%coreGivesNoEmail%1,                    Fabbris%Cristoforo%coreGivesNoEmail%1,                    Hopkins%Claire%coreGivesNoEmail%1,                    Polesel%Jerry%coreGivesNoEmail%1,                    Spinato%Giacomo%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Alma%Tostmann%NULL%1,                     John%Bradley%NULL%2,                     John%Bradley%NULL%0,                     Teun%Bousema%NULL%2,                     Teun%Bousema%NULL%0,                     Wing-Kee%Yiek%NULL%2,                     Wing-Kee%Yiek%NULL%0,                     Minke%Holwerda%NULL%1,                     Chantal%Bleeker-Rovers%NULL%1,                     Jaap%ten Oever%NULL%1,                     Corianne%Meijer%NULL%2,                     Corianne%Meijer%NULL%0,                     Janette%Rahamat-Langendoen%NULL%1,                     Joost%Hopman%NULL%2,                     Joost%Hopman%NULL%0,                     Nannet%van der Geest-Blankert%NULL%1,                     Heiman%Wertheim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luigi Angelo%Vaira%luigi.vaira@gmail.com%0,                     Giovanna%Deiana%NULL%0,                     Giovanna%Deiana%NULL%0,                     Alessandro Giuseppe%Fois%NULL%1,                     Pietro%Pirina%NULL%0,                     Giordano%Madeddu%NULL%0,                     Andrea%De Vito%NULL%0,                     Sergio%Babudieri%NULL%0,                     Marzia%Petrocelli%NULL%0,                     Antonello%Serra%NULL%0,                     Francesco%Bussu%NULL%0,                     Enrica%Ligas%NULL%1,                     Giovanni%Salzano%NULL%0,                     Giacomo%De Riu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Liang En%Wee%ian.wee@mohh.com.sg%1,                     Yvonne Fu Zi%Chan%NULL%2,                     Yvonne Fu Zi%Chan%NULL%0,                     Neville Wei Yang%Teo%NULL%1,                     Benjamin Pei Zhi%Cherng%NULL%1,                     Siew Yee%Thien%NULL%1,                     Hei Man%Wong%NULL%1,                     Limin%Wijaya%NULL%1,                     Song Tar%Toh%NULL%1,                     Thuan Tong%Tan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,                     Farhoud%Faraji%NULL%0,                     Farhoud%Faraji%NULL%0,                     Divya P.%Prajapati%NULL%0,                     Divya P.%Prajapati%NULL%0,                     Christine E.%Boone%NULL%2,                     Christine E.%Boone%NULL%0,                     Adam S.%DeConde%NULL%0,                     Adam S.%DeConde%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,                      Farhoud%Faraji%NULL%0,                      Farhoud%Faraji%NULL%0,                      Divya P.%Prajapati%NULL%0,                      Benjamin T.%Ostrander%NULL%0,                      Adam S.%DeConde%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Á.%Beltrán‐Corbellini%beltran_corbellini@hotmail.com%0,                      J. L.%Chico‐García%NULL%0,                      J. L.%Chico‐García%NULL%0,                      J.%Martínez‐Poles%NULL%0,                      F.%Rodríguez‐Jorge%NULL%0,                      E.%Natera‐Villalba%NULL%0,                      J.%Gómez‐Corral%NULL%0,                      J.%Gómez‐Corral%NULL%0,                      A.%Gómez‐López%NULL%0,                      E.%Monreal%NULL%0,                      P.%Parra‐Díaz%NULL%0,                      J. L.%Cortés‐Cuevas%NULL%0,                      J. L.%Cortés‐Cuevas%NULL%0,                      J. C.%Galán%NULL%0,                      C.%Fragola‐Arnau%NULL%0,                      J.%Porta‐Etessam%NULL%0,                      J.%Masjuan%NULL%0,                      A.%Alonso‐Cánovas%NULL%0,                      A.%Alonso‐Cánovas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[François%Bénézit%NULL%0,                      Paul%Le Turnier%NULL%0,                      Charles%Declerck%NULL%0,                      Cécile%Paillé%NULL%0,                      Matthieu%Revest%NULL%0,                      Vincent%Dubée%NULL%0,                      Pierre%Tattevin%pierre.tattevin@chu-rennes.fr%0,                      Cédric%Arvieux%NULL%0,                      Marion%Baldeyrou%NULL%0,                      Jean-Marc%Chapplain%NULL%0,                      Pauline%Comacle%NULL%0,                      Solène%Patrat-Delon%NULL%0,                      Anne%Maillard%NULL%0,                      Mélanie%Poinot%NULL%0,                      Charlotte%Pronier%NULL%0,                      Faouzi%Souala%NULL%0,                      Vincent%Thibault%NULL%0,                      Pierre%Abgueguen%NULL%0,                      Hélène%Cormier%NULL%0,                      Valérie%Delbos%NULL%0,                      Marine%de la Chapelle%NULL%0,                      Alexandra%Ducancelle%NULL%0,                      Rafael%Mahieu%NULL%0,                      Valérie%Rabier%NULL%0,                      Sami%Rehaiem%NULL%0,                      Yves%Vandamme%NULL%0,                      Charlotte%Biron%NULL%0,                      Jeanne%Brochon%NULL%0,                      David%Boutoille%NULL%0,                      Marie%Chauveau%NULL%0,                      Colin%Deschanvres%NULL%0,                      Benjamin J%Gaborit%NULL%0,                      Joël%Jenvrin%NULL%0,                      Raphaël%Lecomte%NULL%0,                      Maeva%Lefebvre%NULL%0,                      François%Raffi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,                      Laura%Pezzati%NULL%0,                      Laura%Pezzati%NULL%0,                      Federico%Conti%NULL%0,                      Dario%Bernacchia%NULL%0,                      Matteo%Siano%NULL%0,                      Letizia%Oreni%NULL%0,                      Stefano%Rusconi%NULL%0,                      Cristina%Gervasoni%NULL%0,                      Anna Lisa%Ridolfo%NULL%0,                      Giuliano%Rizzardini%NULL%0,                      Spinello%Antinori%NULL%0,                      Massimo%Galli%NULL%0,                      Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.%Klopfenstein%NULL%0,                      N.J.%Kadiane-Oussou%NULL%0,                      L.%Toko%NULL%0,                      P.-Y.%Royer%NULL%0,                      Q.%Lepiller%NULL%0,                      V.%Gendrin%NULL%0,                      S.%Zayet%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%0,                      Carlos M.%Chiesa-Estomba%NULL%0,                      Daniele R.%De Siati%NULL%0,                      Mihaela%Horoi%NULL%0,                      Serge D.%Le Bon%NULL%0,                      Alexandra%Rodriguez%NULL%0,                      Didier%Dequanter%NULL%0,                      Serge%Blecic%NULL%0,                      Fahd%El Afia%NULL%0,                      Lea%Distinguin%NULL%0,                      Younes%Chekkoury-Idrissi%NULL%0,                      Stéphane%Hans%NULL%0,                      Irene Lopez%Delgado%NULL%0,                      Christian%Calvo-Henriquez%NULL%0,                      Philippe%Lavigne%NULL%0,                      Chiara%Falanga%NULL%0,                      Maria Rosaria%Barillari%NULL%0,                      Giovanni%Cammaroto%NULL%0,                      Mohamad%Khalife%NULL%0,                      Pierre%Leich%NULL%0,                      Christel%Souchay%NULL%0,                      Camelia%Rossi%NULL%0,                      Fabrice%Journe%NULL%0,                      Julien%Hsieh%NULL%0,                      Myriam%Edjlali%NULL%0,                      Robert%Carlier%NULL%0,                      Laurence%Ris%NULL%0,                      Andrea%Lovato%NULL%0,                      Cosimo%De Filippis%NULL%0,                      Frederique%Coppee%NULL%0,                      Nicolas%Fakhry%NULL%0,                      Tareck%Ayad%NULL%0,                      Sven%Saussez%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Cristina%Menni%null%1,             Ana M.%Valdes%null%1,             Maxim B.%Freidin%null%1,             Carole H.%Sudre%null%1,             Long H.%Nguyen%null%1,             David A.%Drew%null%1,             Sajaysurya%Ganesh%null%1,             Thomas%Varsavsky%null%1,             M. Jorge%Cardoso%null%1,             Julia S.%El-Sayed Moustafa%null%1,             Alessia%Visconti%null%1,             Pirro%Hysi%null%1,             Ruth C. E.%Bowyer%null%1,             Massimo%Mangino%null%1,             Mario%Falchi%null%1,             Jonathan%Wolf%null%1,             Sebastien%Ourselin%null%1,             Andrew T.%Chan%null%1,             Claire J.%Steves%null%1,             Tim D.%Spector%null%1]</t>
+  </si>
+  <si>
+    <t>[Shima T.%Moein%NULL%1,                      Seyed MohammadReza%Hashemian%NULL%1,                      Babak%Mansourafshar%NULL%1,                      Ali%Khorram‐Tousi%NULL%1,                      Payam%Tabarsi%NULL%1,                      Richard L.%Doty%doty@pennmedicine.upenn.edu%1]</t>
+  </si>
+  <si>
+    <t>[Borsetto%Daniele%coreGivesNoEmail%1,                     Boscolo-Rizzo%Paolo%coreGivesNoEmail%1,                     Cazzador%Diego%coreGivesNoEmail%1,                     Fabbris%Cristoforo%coreGivesNoEmail%1,                     Hopkins%Claire%coreGivesNoEmail%1,                     Polesel%Jerry%coreGivesNoEmail%1,                     Spinato%Giacomo%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Alma%Tostmann%NULL%1,                      John%Bradley%NULL%2,                      John%Bradley%NULL%0,                      Teun%Bousema%NULL%2,                      Teun%Bousema%NULL%0,                      Wing-Kee%Yiek%NULL%2,                      Wing-Kee%Yiek%NULL%0,                      Minke%Holwerda%NULL%1,                      Chantal%Bleeker-Rovers%NULL%1,                      Jaap%ten Oever%NULL%1,                      Corianne%Meijer%NULL%2,                      Corianne%Meijer%NULL%0,                      Janette%Rahamat-Langendoen%NULL%1,                      Joost%Hopman%NULL%2,                      Joost%Hopman%NULL%0,                      Nannet%van der Geest-Blankert%NULL%1,                      Heiman%Wertheim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luigi Angelo%Vaira%luigi.vaira@gmail.com%0,                      Giovanna%Deiana%NULL%0,                      Giovanna%Deiana%NULL%0,                      Alessandro Giuseppe%Fois%NULL%1,                      Pietro%Pirina%NULL%0,                      Giordano%Madeddu%NULL%0,                      Andrea%De Vito%NULL%0,                      Sergio%Babudieri%NULL%0,                      Marzia%Petrocelli%NULL%0,                      Antonello%Serra%NULL%0,                      Francesco%Bussu%NULL%0,                      Enrica%Ligas%NULL%1,                      Giovanni%Salzano%NULL%0,                      Giacomo%De Riu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Liang En%Wee%ian.wee@mohh.com.sg%1,                      Yvonne Fu Zi%Chan%NULL%2,                      Yvonne Fu Zi%Chan%NULL%0,                      Neville Wei Yang%Teo%NULL%1,                      Benjamin Pei Zhi%Cherng%NULL%1,                      Siew Yee%Thien%NULL%1,                      Hei Man%Wong%NULL%1,                      Limin%Wijaya%NULL%1,                      Song Tar%Toh%NULL%1,                      Thuan Tong%Tan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,                      Farhoud%Faraji%NULL%0,                      Farhoud%Faraji%NULL%0,                      Divya P.%Prajapati%NULL%0,                      Divya P.%Prajapati%NULL%0,                      Christine E.%Boone%NULL%2,                      Christine E.%Boone%NULL%0,                      Adam S.%DeConde%NULL%0,                      Adam S.%DeConde%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,                       Farhoud%Faraji%NULL%0,                       Farhoud%Faraji%NULL%0,                       Divya P.%Prajapati%NULL%0,                       Benjamin T.%Ostrander%NULL%0,                       Adam S.%DeConde%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Á.%Beltrán‐Corbellini%beltran_corbellini@hotmail.com%0,                       J. L.%Chico‐García%NULL%0,                       J. L.%Chico‐García%NULL%0,                       J.%Martínez‐Poles%NULL%0,                       F.%Rodríguez‐Jorge%NULL%0,                       E.%Natera‐Villalba%NULL%0,                       J.%Gómez‐Corral%NULL%0,                       J.%Gómez‐Corral%NULL%0,                       A.%Gómez‐López%NULL%0,                       E.%Monreal%NULL%0,                       P.%Parra‐Díaz%NULL%0,                       J. L.%Cortés‐Cuevas%NULL%0,                       J. L.%Cortés‐Cuevas%NULL%0,                       J. C.%Galán%NULL%0,                       C.%Fragola‐Arnau%NULL%0,                       J.%Porta‐Etessam%NULL%0,                       J.%Masjuan%NULL%0,                       A.%Alonso‐Cánovas%NULL%0,                       A.%Alonso‐Cánovas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[François%Bénézit%NULL%0,                       Paul%Le Turnier%NULL%0,                       Charles%Declerck%NULL%0,                       Cécile%Paillé%NULL%0,                       Matthieu%Revest%NULL%0,                       Vincent%Dubée%NULL%0,                       Pierre%Tattevin%pierre.tattevin@chu-rennes.fr%0,                       Cédric%Arvieux%NULL%0,                       Marion%Baldeyrou%NULL%0,                       Jean-Marc%Chapplain%NULL%0,                       Pauline%Comacle%NULL%0,                       Solène%Patrat-Delon%NULL%0,                       Anne%Maillard%NULL%0,                       Mélanie%Poinot%NULL%0,                       Charlotte%Pronier%NULL%0,                       Faouzi%Souala%NULL%0,                       Vincent%Thibault%NULL%0,                       Pierre%Abgueguen%NULL%0,                       Hélène%Cormier%NULL%0,                       Valérie%Delbos%NULL%0,                       Marine%de la Chapelle%NULL%0,                       Alexandra%Ducancelle%NULL%0,                       Rafael%Mahieu%NULL%0,                       Valérie%Rabier%NULL%0,                       Sami%Rehaiem%NULL%0,                       Yves%Vandamme%NULL%0,                       Charlotte%Biron%NULL%0,                       Jeanne%Brochon%NULL%0,                       David%Boutoille%NULL%0,                       Marie%Chauveau%NULL%0,                       Colin%Deschanvres%NULL%0,                       Benjamin J%Gaborit%NULL%0,                       Joël%Jenvrin%NULL%0,                       Raphaël%Lecomte%NULL%0,                       Maeva%Lefebvre%NULL%0,                       François%Raffi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,                       Laura%Pezzati%NULL%0,                       Laura%Pezzati%NULL%0,                       Federico%Conti%NULL%0,                       Dario%Bernacchia%NULL%0,                       Matteo%Siano%NULL%0,                       Letizia%Oreni%NULL%0,                       Stefano%Rusconi%NULL%0,                       Cristina%Gervasoni%NULL%0,                       Anna Lisa%Ridolfo%NULL%0,                       Giuliano%Rizzardini%NULL%0,                       Spinello%Antinori%NULL%0,                       Massimo%Galli%NULL%0,                       Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.%Klopfenstein%NULL%0,                       N.J.%Kadiane-Oussou%NULL%0,                       L.%Toko%NULL%0,                       P.-Y.%Royer%NULL%0,                       Q.%Lepiller%NULL%0,                       V.%Gendrin%NULL%0,                       S.%Zayet%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%0,                       Carlos M.%Chiesa-Estomba%NULL%0,                       Daniele R.%De Siati%NULL%0,                       Mihaela%Horoi%NULL%0,                       Serge D.%Le Bon%NULL%0,                       Alexandra%Rodriguez%NULL%0,                       Didier%Dequanter%NULL%0,                       Serge%Blecic%NULL%0,                       Fahd%El Afia%NULL%0,                       Lea%Distinguin%NULL%0,                       Younes%Chekkoury-Idrissi%NULL%0,                       Stéphane%Hans%NULL%0,                       Irene Lopez%Delgado%NULL%0,                       Christian%Calvo-Henriquez%NULL%0,                       Philippe%Lavigne%NULL%0,                       Chiara%Falanga%NULL%0,                       Maria Rosaria%Barillari%NULL%0,                       Giovanni%Cammaroto%NULL%0,                       Mohamad%Khalife%NULL%0,                       Pierre%Leich%NULL%0,                       Christel%Souchay%NULL%0,                       Camelia%Rossi%NULL%0,                       Fabrice%Journe%NULL%0,                       Julien%Hsieh%NULL%0,                       Myriam%Edjlali%NULL%0,                       Robert%Carlier%NULL%0,                       Laurence%Ris%NULL%0,                       Andrea%Lovato%NULL%0,                       Cosimo%De Filippis%NULL%0,                       Frederique%Coppee%NULL%0,                       Nicolas%Fakhry%NULL%0,                       Tareck%Ayad%NULL%0,                       Sven%Saussez%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Cristina%Menni%null%1,              Ana M.%Valdes%null%1,              Maxim B.%Freidin%null%1,              Carole H.%Sudre%null%1,              Long H.%Nguyen%null%1,              David A.%Drew%null%1,              Sajaysurya%Ganesh%null%1,              Thomas%Varsavsky%null%1,              M. Jorge%Cardoso%null%1,              Julia S.%El-Sayed Moustafa%null%1,              Alessia%Visconti%null%1,              Pirro%Hysi%null%1,              Ruth C. E.%Bowyer%null%1,              Massimo%Mangino%null%1,              Mario%Falchi%null%1,              Jonathan%Wolf%null%1,              Sebastien%Ourselin%null%1,              Andrew T.%Chan%null%1,              Claire J.%Steves%null%1,              Tim D.%Spector%null%1]</t>
+  </si>
+  <si>
+    <t>[Shima T.%Moein%NULL%1,                       Seyed MohammadReza%Hashemian%NULL%1,                       Babak%Mansourafshar%NULL%1,                       Ali%Khorram‐Tousi%NULL%1,                       Payam%Tabarsi%NULL%1,                       Richard L.%Doty%doty@pennmedicine.upenn.edu%1]</t>
+  </si>
+  <si>
+    <t>[Borsetto%Daniele%coreGivesNoEmail%1,                      Boscolo-Rizzo%Paolo%coreGivesNoEmail%1,                      Cazzador%Diego%coreGivesNoEmail%1,                      Fabbris%Cristoforo%coreGivesNoEmail%1,                      Hopkins%Claire%coreGivesNoEmail%1,                      Polesel%Jerry%coreGivesNoEmail%1,                      Spinato%Giacomo%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Alma%Tostmann%NULL%1,                       John%Bradley%NULL%2,                       John%Bradley%NULL%0,                       Teun%Bousema%NULL%2,                       Teun%Bousema%NULL%0,                       Wing-Kee%Yiek%NULL%2,                       Wing-Kee%Yiek%NULL%0,                       Minke%Holwerda%NULL%1,                       Chantal%Bleeker-Rovers%NULL%1,                       Jaap%ten Oever%NULL%1,                       Corianne%Meijer%NULL%2,                       Corianne%Meijer%NULL%0,                       Janette%Rahamat-Langendoen%NULL%1,                       Joost%Hopman%NULL%2,                       Joost%Hopman%NULL%0,                       Nannet%van der Geest-Blankert%NULL%1,                       Heiman%Wertheim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luigi Angelo%Vaira%luigi.vaira@gmail.com%0,                       Giovanna%Deiana%NULL%0,                       Giovanna%Deiana%NULL%0,                       Alessandro Giuseppe%Fois%NULL%1,                       Pietro%Pirina%NULL%0,                       Giordano%Madeddu%NULL%0,                       Andrea%De Vito%NULL%0,                       Sergio%Babudieri%NULL%0,                       Marzia%Petrocelli%NULL%0,                       Antonello%Serra%NULL%0,                       Francesco%Bussu%NULL%0,                       Enrica%Ligas%NULL%1,                       Giovanni%Salzano%NULL%0,                       Giacomo%De Riu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Liang En%Wee%ian.wee@mohh.com.sg%1,                       Yvonne Fu Zi%Chan%NULL%2,                       Yvonne Fu Zi%Chan%NULL%0,                       Neville Wei Yang%Teo%NULL%1,                       Benjamin Pei Zhi%Cherng%NULL%1,                       Siew Yee%Thien%NULL%1,                       Hei Man%Wong%NULL%1,                       Limin%Wijaya%NULL%1,                       Song Tar%Toh%NULL%1,                       Thuan Tong%Tan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,                       Farhoud%Faraji%NULL%0,                       Farhoud%Faraji%NULL%0,                       Divya P.%Prajapati%NULL%0,                       Divya P.%Prajapati%NULL%0,                       Christine E.%Boone%NULL%2,                       Christine E.%Boone%NULL%0,                       Adam S.%DeConde%NULL%0,                       Adam S.%DeConde%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,                        Farhoud%Faraji%NULL%0,                        Farhoud%Faraji%NULL%0,                        Divya P.%Prajapati%NULL%0,                        Benjamin T.%Ostrander%NULL%0,                        Adam S.%DeConde%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Á.%Beltrán‐Corbellini%beltran_corbellini@hotmail.com%0,                        J. L.%Chico‐García%NULL%0,                        J. L.%Chico‐García%NULL%0,                        J.%Martínez‐Poles%NULL%0,                        F.%Rodríguez‐Jorge%NULL%0,                        E.%Natera‐Villalba%NULL%0,                        J.%Gómez‐Corral%NULL%0,                        J.%Gómez‐Corral%NULL%0,                        A.%Gómez‐López%NULL%0,                        E.%Monreal%NULL%0,                        P.%Parra‐Díaz%NULL%0,                        J. L.%Cortés‐Cuevas%NULL%0,                        J. L.%Cortés‐Cuevas%NULL%0,                        J. C.%Galán%NULL%0,                        C.%Fragola‐Arnau%NULL%0,                        J.%Porta‐Etessam%NULL%0,                        J.%Masjuan%NULL%0,                        A.%Alonso‐Cánovas%NULL%0,                        A.%Alonso‐Cánovas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[François%Bénézit%NULL%0,                        Paul%Le Turnier%NULL%0,                        Charles%Declerck%NULL%0,                        Cécile%Paillé%NULL%0,                        Matthieu%Revest%NULL%0,                        Vincent%Dubée%NULL%0,                        Pierre%Tattevin%pierre.tattevin@chu-rennes.fr%0,                        Cédric%Arvieux%NULL%0,                        Marion%Baldeyrou%NULL%0,                        Jean-Marc%Chapplain%NULL%0,                        Pauline%Comacle%NULL%0,                        Solène%Patrat-Delon%NULL%0,                        Anne%Maillard%NULL%0,                        Mélanie%Poinot%NULL%0,                        Charlotte%Pronier%NULL%0,                        Faouzi%Souala%NULL%0,                        Vincent%Thibault%NULL%0,                        Pierre%Abgueguen%NULL%0,                        Hélène%Cormier%NULL%0,                        Valérie%Delbos%NULL%0,                        Marine%de la Chapelle%NULL%0,                        Alexandra%Ducancelle%NULL%0,                        Rafael%Mahieu%NULL%0,                        Valérie%Rabier%NULL%0,                        Sami%Rehaiem%NULL%0,                        Yves%Vandamme%NULL%0,                        Charlotte%Biron%NULL%0,                        Jeanne%Brochon%NULL%0,                        David%Boutoille%NULL%0,                        Marie%Chauveau%NULL%0,                        Colin%Deschanvres%NULL%0,                        Benjamin J%Gaborit%NULL%0,                        Joël%Jenvrin%NULL%0,                        Raphaël%Lecomte%NULL%0,                        Maeva%Lefebvre%NULL%0,                        François%Raffi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,                        Laura%Pezzati%NULL%0,                        Laura%Pezzati%NULL%0,                        Federico%Conti%NULL%0,                        Dario%Bernacchia%NULL%0,                        Matteo%Siano%NULL%0,                        Letizia%Oreni%NULL%0,                        Stefano%Rusconi%NULL%0,                        Cristina%Gervasoni%NULL%0,                        Anna Lisa%Ridolfo%NULL%0,                        Giuliano%Rizzardini%NULL%0,                        Spinello%Antinori%NULL%0,                        Massimo%Galli%NULL%0,                        Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.%Klopfenstein%NULL%0,                        N.J.%Kadiane-Oussou%NULL%0,                        L.%Toko%NULL%0,                        P.-Y.%Royer%NULL%0,                        Q.%Lepiller%NULL%0,                        V.%Gendrin%NULL%0,                        S.%Zayet%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%0,                        Carlos M.%Chiesa-Estomba%NULL%0,                        Daniele R.%De Siati%NULL%0,                        Mihaela%Horoi%NULL%0,                        Serge D.%Le Bon%NULL%0,                        Alexandra%Rodriguez%NULL%0,                        Didier%Dequanter%NULL%0,                        Serge%Blecic%NULL%0,                        Fahd%El Afia%NULL%0,                        Lea%Distinguin%NULL%0,                        Younes%Chekkoury-Idrissi%NULL%0,                        Stéphane%Hans%NULL%0,                        Irene Lopez%Delgado%NULL%0,                        Christian%Calvo-Henriquez%NULL%0,                        Philippe%Lavigne%NULL%0,                        Chiara%Falanga%NULL%0,                        Maria Rosaria%Barillari%NULL%0,                        Giovanni%Cammaroto%NULL%0,                        Mohamad%Khalife%NULL%0,                        Pierre%Leich%NULL%0,                        Christel%Souchay%NULL%0,                        Camelia%Rossi%NULL%0,                        Fabrice%Journe%NULL%0,                        Julien%Hsieh%NULL%0,                        Myriam%Edjlali%NULL%0,                        Robert%Carlier%NULL%0,                        Laurence%Ris%NULL%0,                        Andrea%Lovato%NULL%0,                        Cosimo%De Filippis%NULL%0,                        Frederique%Coppee%NULL%0,                        Nicolas%Fakhry%NULL%0,                        Tareck%Ayad%NULL%0,                        Sven%Saussez%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Cristina%Menni%null%1,               Ana M.%Valdes%null%1,               Maxim B.%Freidin%null%1,               Carole H.%Sudre%null%1,               Long H.%Nguyen%null%1,               David A.%Drew%null%1,               Sajaysurya%Ganesh%null%1,               Thomas%Varsavsky%null%1,               M. Jorge%Cardoso%null%1,               Julia S.%El-Sayed Moustafa%null%1,               Alessia%Visconti%null%1,               Pirro%Hysi%null%1,               Ruth C. E.%Bowyer%null%1,               Massimo%Mangino%null%1,               Mario%Falchi%null%1,               Jonathan%Wolf%null%1,               Sebastien%Ourselin%null%1,               Andrew T.%Chan%null%1,               Claire J.%Steves%null%1,               Tim D.%Spector%null%1]</t>
+  </si>
+  <si>
+    <t>[Shima T.%Moein%NULL%1,                        Seyed MohammadReza%Hashemian%NULL%1,                        Babak%Mansourafshar%NULL%1,                        Ali%Khorram‐Tousi%NULL%1,                        Payam%Tabarsi%NULL%1,                        Richard L.%Doty%doty@pennmedicine.upenn.edu%1]</t>
+  </si>
+  <si>
+    <t>[Borsetto%Daniele%coreGivesNoEmail%1,                       Boscolo-Rizzo%Paolo%coreGivesNoEmail%1,                       Cazzador%Diego%coreGivesNoEmail%1,                       Fabbris%Cristoforo%coreGivesNoEmail%1,                       Hopkins%Claire%coreGivesNoEmail%1,                       Polesel%Jerry%coreGivesNoEmail%1,                       Spinato%Giacomo%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Alma%Tostmann%NULL%1,                        John%Bradley%NULL%2,                        John%Bradley%NULL%0,                        Teun%Bousema%NULL%2,                        Teun%Bousema%NULL%0,                        Wing-Kee%Yiek%NULL%2,                        Wing-Kee%Yiek%NULL%0,                        Minke%Holwerda%NULL%1,                        Chantal%Bleeker-Rovers%NULL%1,                        Jaap%ten Oever%NULL%1,                        Corianne%Meijer%NULL%2,                        Corianne%Meijer%NULL%0,                        Janette%Rahamat-Langendoen%NULL%1,                        Joost%Hopman%NULL%2,                        Joost%Hopman%NULL%0,                        Nannet%van der Geest-Blankert%NULL%1,                        Heiman%Wertheim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luigi Angelo%Vaira%luigi.vaira@gmail.com%0,                        Giovanna%Deiana%NULL%0,                        Giovanna%Deiana%NULL%0,                        Alessandro Giuseppe%Fois%NULL%1,                        Pietro%Pirina%NULL%0,                        Giordano%Madeddu%NULL%0,                        Andrea%De Vito%NULL%0,                        Sergio%Babudieri%NULL%0,                        Marzia%Petrocelli%NULL%0,                        Antonello%Serra%NULL%0,                        Francesco%Bussu%NULL%0,                        Enrica%Ligas%NULL%1,                        Giovanni%Salzano%NULL%0,                        Giacomo%De Riu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Liang En%Wee%ian.wee@mohh.com.sg%1,                        Yvonne Fu Zi%Chan%NULL%2,                        Yvonne Fu Zi%Chan%NULL%0,                        Neville Wei Yang%Teo%NULL%1,                        Benjamin Pei Zhi%Cherng%NULL%1,                        Siew Yee%Thien%NULL%1,                        Hei Man%Wong%NULL%1,                        Limin%Wijaya%NULL%1,                        Song Tar%Toh%NULL%1,                        Thuan Tong%Tan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,                        Farhoud%Faraji%NULL%0,                        Farhoud%Faraji%NULL%0,                        Divya P.%Prajapati%NULL%0,                        Divya P.%Prajapati%NULL%0,                        Christine E.%Boone%NULL%2,                        Christine E.%Boone%NULL%0,                        Adam S.%DeConde%NULL%0,                        Adam S.%DeConde%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,                         Farhoud%Faraji%NULL%0,                         Farhoud%Faraji%NULL%0,                         Divya P.%Prajapati%NULL%0,                         Benjamin T.%Ostrander%NULL%0,                         Adam S.%DeConde%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Á.%Beltrán‐Corbellini%beltran_corbellini@hotmail.com%0,                         J. L.%Chico‐García%NULL%0,                         J. L.%Chico‐García%NULL%0,                         J.%Martínez‐Poles%NULL%0,                         F.%Rodríguez‐Jorge%NULL%0,                         E.%Natera‐Villalba%NULL%0,                         J.%Gómez‐Corral%NULL%0,                         J.%Gómez‐Corral%NULL%0,                         A.%Gómez‐López%NULL%0,                         E.%Monreal%NULL%0,                         P.%Parra‐Díaz%NULL%0,                         J. L.%Cortés‐Cuevas%NULL%0,                         J. L.%Cortés‐Cuevas%NULL%0,                         J. C.%Galán%NULL%0,                         C.%Fragola‐Arnau%NULL%0,                         J.%Porta‐Etessam%NULL%0,                         J.%Masjuan%NULL%0,                         A.%Alonso‐Cánovas%NULL%0,                         A.%Alonso‐Cánovas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[François%Bénézit%NULL%0,                         Paul%Le Turnier%NULL%0,                         Charles%Declerck%NULL%0,                         Cécile%Paillé%NULL%0,                         Matthieu%Revest%NULL%0,                         Vincent%Dubée%NULL%0,                         Pierre%Tattevin%pierre.tattevin@chu-rennes.fr%0,                         Cédric%Arvieux%NULL%0,                         Marion%Baldeyrou%NULL%0,                         Jean-Marc%Chapplain%NULL%0,                         Pauline%Comacle%NULL%0,                         Solène%Patrat-Delon%NULL%0,                         Anne%Maillard%NULL%0,                         Mélanie%Poinot%NULL%0,                         Charlotte%Pronier%NULL%0,                         Faouzi%Souala%NULL%0,                         Vincent%Thibault%NULL%0,                         Pierre%Abgueguen%NULL%0,                         Hélène%Cormier%NULL%0,                         Valérie%Delbos%NULL%0,                         Marine%de la Chapelle%NULL%0,                         Alexandra%Ducancelle%NULL%0,                         Rafael%Mahieu%NULL%0,                         Valérie%Rabier%NULL%0,                         Sami%Rehaiem%NULL%0,                         Yves%Vandamme%NULL%0,                         Charlotte%Biron%NULL%0,                         Jeanne%Brochon%NULL%0,                         David%Boutoille%NULL%0,                         Marie%Chauveau%NULL%0,                         Colin%Deschanvres%NULL%0,                         Benjamin J%Gaborit%NULL%0,                         Joël%Jenvrin%NULL%0,                         Raphaël%Lecomte%NULL%0,                         Maeva%Lefebvre%NULL%0,                         François%Raffi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,                         Laura%Pezzati%NULL%0,                         Laura%Pezzati%NULL%0,                         Federico%Conti%NULL%0,                         Dario%Bernacchia%NULL%0,                         Matteo%Siano%NULL%0,                         Letizia%Oreni%NULL%0,                         Stefano%Rusconi%NULL%0,                         Cristina%Gervasoni%NULL%0,                         Anna Lisa%Ridolfo%NULL%0,                         Giuliano%Rizzardini%NULL%0,                         Spinello%Antinori%NULL%0,                         Massimo%Galli%NULL%0,                         Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.%Klopfenstein%NULL%0,                         N.J.%Kadiane-Oussou%NULL%0,                         L.%Toko%NULL%0,                         P.-Y.%Royer%NULL%0,                         Q.%Lepiller%NULL%0,                         V.%Gendrin%NULL%0,                         S.%Zayet%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%0,                         Carlos M.%Chiesa-Estomba%NULL%0,                         Daniele R.%De Siati%NULL%0,                         Mihaela%Horoi%NULL%0,                         Serge D.%Le Bon%NULL%0,                         Alexandra%Rodriguez%NULL%0,                         Didier%Dequanter%NULL%0,                         Serge%Blecic%NULL%0,                         Fahd%El Afia%NULL%0,                         Lea%Distinguin%NULL%0,                         Younes%Chekkoury-Idrissi%NULL%0,                         Stéphane%Hans%NULL%0,                         Irene Lopez%Delgado%NULL%0,                         Christian%Calvo-Henriquez%NULL%0,                         Philippe%Lavigne%NULL%0,                         Chiara%Falanga%NULL%0,                         Maria Rosaria%Barillari%NULL%0,                         Giovanni%Cammaroto%NULL%0,                         Mohamad%Khalife%NULL%0,                         Pierre%Leich%NULL%0,                         Christel%Souchay%NULL%0,                         Camelia%Rossi%NULL%0,                         Fabrice%Journe%NULL%0,                         Julien%Hsieh%NULL%0,                         Myriam%Edjlali%NULL%0,                         Robert%Carlier%NULL%0,                         Laurence%Ris%NULL%0,                         Andrea%Lovato%NULL%0,                         Cosimo%De Filippis%NULL%0,                         Frederique%Coppee%NULL%0,                         Nicolas%Fakhry%NULL%0,                         Tareck%Ayad%NULL%0,                         Sven%Saussez%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Cristina%Menni%null%1,                Ana M.%Valdes%null%1,                Maxim B.%Freidin%null%1,                Carole H.%Sudre%null%1,                Long H.%Nguyen%null%1,                David A.%Drew%null%1,                Sajaysurya%Ganesh%null%1,                Thomas%Varsavsky%null%1,                M. Jorge%Cardoso%null%1,                Julia S.%El-Sayed Moustafa%null%1,                Alessia%Visconti%null%1,                Pirro%Hysi%null%1,                Ruth C. E.%Bowyer%null%1,                Massimo%Mangino%null%1,                Mario%Falchi%null%1,                Jonathan%Wolf%null%1,                Sebastien%Ourselin%null%1,                Andrew T.%Chan%null%1,                Claire J.%Steves%null%1,                Tim D.%Spector%null%1]</t>
+  </si>
+  <si>
+    <t>[Shima T.%Moein%NULL%1,                         Seyed MohammadReza%Hashemian%NULL%1,                         Babak%Mansourafshar%NULL%1,                         Ali%Khorram‐Tousi%NULL%1,                         Payam%Tabarsi%NULL%1,                         Richard L.%Doty%doty@pennmedicine.upenn.edu%1]</t>
+  </si>
+  <si>
+    <t>[Borsetto%Daniele%coreGivesNoEmail%1,                        Boscolo-Rizzo%Paolo%coreGivesNoEmail%1,                        Cazzador%Diego%coreGivesNoEmail%1,                        Fabbris%Cristoforo%coreGivesNoEmail%1,                        Hopkins%Claire%coreGivesNoEmail%1,                        Polesel%Jerry%coreGivesNoEmail%1,                        Spinato%Giacomo%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Alma%Tostmann%NULL%1,                         John%Bradley%NULL%2,                         John%Bradley%NULL%0,                         Teun%Bousema%NULL%2,                         Teun%Bousema%NULL%0,                         Wing-Kee%Yiek%NULL%2,                         Wing-Kee%Yiek%NULL%0,                         Minke%Holwerda%NULL%1,                         Chantal%Bleeker-Rovers%NULL%1,                         Jaap%ten Oever%NULL%1,                         Corianne%Meijer%NULL%2,                         Corianne%Meijer%NULL%0,                         Janette%Rahamat-Langendoen%NULL%1,                         Joost%Hopman%NULL%2,                         Joost%Hopman%NULL%0,                         Nannet%van der Geest-Blankert%NULL%1,                         Heiman%Wertheim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luigi Angelo%Vaira%luigi.vaira@gmail.com%0,                         Giovanna%Deiana%NULL%0,                         Giovanna%Deiana%NULL%0,                         Alessandro Giuseppe%Fois%NULL%1,                         Pietro%Pirina%NULL%0,                         Giordano%Madeddu%NULL%0,                         Andrea%De Vito%NULL%0,                         Sergio%Babudieri%NULL%0,                         Marzia%Petrocelli%NULL%0,                         Antonello%Serra%NULL%0,                         Francesco%Bussu%NULL%0,                         Enrica%Ligas%NULL%1,                         Giovanni%Salzano%NULL%0,                         Giacomo%De Riu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Liang En%Wee%ian.wee@mohh.com.sg%1,                         Yvonne Fu Zi%Chan%NULL%2,                         Yvonne Fu Zi%Chan%NULL%0,                         Neville Wei Yang%Teo%NULL%1,                         Benjamin Pei Zhi%Cherng%NULL%1,                         Siew Yee%Thien%NULL%1,                         Hei Man%Wong%NULL%1,                         Limin%Wijaya%NULL%1,                         Song Tar%Toh%NULL%1,                         Thuan Tong%Tan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,                         Farhoud%Faraji%NULL%0,                         Farhoud%Faraji%NULL%0,                         Divya P.%Prajapati%NULL%0,                         Divya P.%Prajapati%NULL%0,                         Christine E.%Boone%NULL%2,                         Christine E.%Boone%NULL%0,                         Adam S.%DeConde%NULL%0,                         Adam S.%DeConde%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1541,6 +1745,9 @@
       <c r="I1" t="s">
         <v>100</v>
       </c>
+      <c r="J1" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1556,7 +1763,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>345</v>
+        <v>414</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
@@ -1569,6 +1776,9 @@
       </c>
       <c r="I2" t="s">
         <v>328</v>
+      </c>
+      <c r="J2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3">
@@ -1585,7 +1795,7 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>346</v>
+        <v>415</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -1598,6 +1808,9 @@
       </c>
       <c r="I3" t="s">
         <v>328</v>
+      </c>
+      <c r="J3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -1614,7 +1827,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>347</v>
+        <v>416</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -1627,6 +1840,9 @@
       </c>
       <c r="I4" t="s">
         <v>331</v>
+      </c>
+      <c r="J4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="5">
@@ -1643,7 +1859,7 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>348</v>
+        <v>417</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1656,6 +1872,9 @@
       </c>
       <c r="I5" t="s">
         <v>328</v>
+      </c>
+      <c r="J5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="6">
@@ -1672,7 +1891,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>349</v>
+        <v>418</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1685,6 +1904,9 @@
       </c>
       <c r="I6" t="s">
         <v>331</v>
+      </c>
+      <c r="J6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7">
@@ -1701,7 +1923,7 @@
         <v>234</v>
       </c>
       <c r="E7" t="s">
-        <v>350</v>
+        <v>419</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1714,6 +1936,9 @@
       </c>
       <c r="I7" t="s">
         <v>335</v>
+      </c>
+      <c r="J7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="8">
@@ -1730,7 +1955,7 @@
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>351</v>
+        <v>236</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -1739,10 +1964,13 @@
         <v>177</v>
       </c>
       <c r="H8" t="s">
-        <v>178</v>
+        <v>366</v>
       </c>
       <c r="I8" t="s">
-        <v>337</v>
+        <v>40</v>
+      </c>
+      <c r="J8" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="9">
@@ -1759,7 +1987,7 @@
         <v>221</v>
       </c>
       <c r="E9" t="s">
-        <v>352</v>
+        <v>420</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -1772,6 +2000,9 @@
       </c>
       <c r="I9" t="s">
         <v>337</v>
+      </c>
+      <c r="J9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10">
@@ -1788,7 +2019,7 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>353</v>
+        <v>421</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -1801,6 +2032,9 @@
       </c>
       <c r="I10" t="s">
         <v>328</v>
+      </c>
+      <c r="J10" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11">
@@ -1817,7 +2051,7 @@
         <v>93</v>
       </c>
       <c r="E11" t="s">
-        <v>354</v>
+        <v>422</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -1830,6 +2064,9 @@
       </c>
       <c r="I11" t="s">
         <v>337</v>
+      </c>
+      <c r="J11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="12">
@@ -1846,7 +2083,7 @@
         <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>355</v>
+        <v>423</v>
       </c>
       <c r="F12" t="s">
         <v>69</v>
@@ -1859,6 +2096,9 @@
       </c>
       <c r="I12" t="s">
         <v>328</v>
+      </c>
+      <c r="J12" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13">
@@ -1875,7 +2115,7 @@
         <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>356</v>
+        <v>424</v>
       </c>
       <c r="F13" t="s">
         <v>73</v>
@@ -1888,6 +2128,9 @@
       </c>
       <c r="I13" t="s">
         <v>328</v>
+      </c>
+      <c r="J13" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14">
@@ -1904,7 +2147,7 @@
         <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>357</v>
+        <v>425</v>
       </c>
       <c r="F14" t="s">
         <v>77</v>
@@ -1917,6 +2160,9 @@
       </c>
       <c r="I14" t="s">
         <v>335</v>
+      </c>
+      <c r="J14" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15">
@@ -1933,7 +2179,7 @@
         <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>358</v>
+        <v>426</v>
       </c>
       <c r="F15" t="s">
         <v>82</v>
@@ -1946,6 +2192,9 @@
       </c>
       <c r="I15" t="s">
         <v>328</v>
+      </c>
+      <c r="J15" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/60.xlsx
+++ b/Covid_19_Dataset_and_References/References/60.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2807" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3047" uniqueCount="453">
   <si>
     <t>Doi</t>
   </si>
@@ -1436,6 +1436,84 @@
   </si>
   <si>
     <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,                         Farhoud%Faraji%NULL%0,                         Farhoud%Faraji%NULL%0,                         Divya P.%Prajapati%NULL%0,                         Divya P.%Prajapati%NULL%0,                         Christine E.%Boone%NULL%2,                         Christine E.%Boone%NULL%0,                         Adam S.%DeConde%NULL%0,                         Adam S.%DeConde%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,                          Farhoud%Faraji%NULL%0,                          Farhoud%Faraji%NULL%0,                          Divya P.%Prajapati%NULL%0,                          Benjamin T.%Ostrander%NULL%0,                          Adam S.%DeConde%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Á.%Beltrán‐Corbellini%beltran_corbellini@hotmail.com%0,                          J. L.%Chico‐García%NULL%0,                          J. L.%Chico‐García%NULL%0,                          J.%Martínez‐Poles%NULL%0,                          F.%Rodríguez‐Jorge%NULL%0,                          E.%Natera‐Villalba%NULL%0,                          J.%Gómez‐Corral%NULL%0,                          J.%Gómez‐Corral%NULL%0,                          A.%Gómez‐López%NULL%0,                          E.%Monreal%NULL%0,                          P.%Parra‐Díaz%NULL%0,                          J. L.%Cortés‐Cuevas%NULL%0,                          J. L.%Cortés‐Cuevas%NULL%0,                          J. C.%Galán%NULL%0,                          C.%Fragola‐Arnau%NULL%0,                          J.%Porta‐Etessam%NULL%0,                          J.%Masjuan%NULL%0,                          A.%Alonso‐Cánovas%NULL%0,                          A.%Alonso‐Cánovas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[François%Bénézit%NULL%0,                          Paul%Le Turnier%NULL%0,                          Charles%Declerck%NULL%0,                          Cécile%Paillé%NULL%0,                          Matthieu%Revest%NULL%0,                          Vincent%Dubée%NULL%0,                          Pierre%Tattevin%pierre.tattevin@chu-rennes.fr%0,                          Cédric%Arvieux%NULL%0,                          Marion%Baldeyrou%NULL%0,                          Jean-Marc%Chapplain%NULL%0,                          Pauline%Comacle%NULL%0,                          Solène%Patrat-Delon%NULL%0,                          Anne%Maillard%NULL%0,                          Mélanie%Poinot%NULL%0,                          Charlotte%Pronier%NULL%0,                          Faouzi%Souala%NULL%0,                          Vincent%Thibault%NULL%0,                          Pierre%Abgueguen%NULL%0,                          Hélène%Cormier%NULL%0,                          Valérie%Delbos%NULL%0,                          Marine%de la Chapelle%NULL%0,                          Alexandra%Ducancelle%NULL%0,                          Rafael%Mahieu%NULL%0,                          Valérie%Rabier%NULL%0,                          Sami%Rehaiem%NULL%0,                          Yves%Vandamme%NULL%0,                          Charlotte%Biron%NULL%0,                          Jeanne%Brochon%NULL%0,                          David%Boutoille%NULL%0,                          Marie%Chauveau%NULL%0,                          Colin%Deschanvres%NULL%0,                          Benjamin J%Gaborit%NULL%0,                          Joël%Jenvrin%NULL%0,                          Raphaël%Lecomte%NULL%0,                          Maeva%Lefebvre%NULL%0,                          François%Raffi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,                          Laura%Pezzati%NULL%0,                          Laura%Pezzati%NULL%0,                          Federico%Conti%NULL%0,                          Dario%Bernacchia%NULL%0,                          Matteo%Siano%NULL%0,                          Letizia%Oreni%NULL%0,                          Stefano%Rusconi%NULL%0,                          Cristina%Gervasoni%NULL%0,                          Anna Lisa%Ridolfo%NULL%0,                          Giuliano%Rizzardini%NULL%0,                          Spinello%Antinori%NULL%0,                          Massimo%Galli%NULL%0,                          Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.%Klopfenstein%NULL%0,                          N.J.%Kadiane-Oussou%NULL%0,                          L.%Toko%NULL%0,                          P.-Y.%Royer%NULL%0,                          Q.%Lepiller%NULL%0,                          V.%Gendrin%NULL%0,                          S.%Zayet%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%0,                          Carlos M.%Chiesa-Estomba%NULL%0,                          Daniele R.%De Siati%NULL%0,                          Mihaela%Horoi%NULL%0,                          Serge D.%Le Bon%NULL%0,                          Alexandra%Rodriguez%NULL%0,                          Didier%Dequanter%NULL%0,                          Serge%Blecic%NULL%0,                          Fahd%El Afia%NULL%0,                          Lea%Distinguin%NULL%0,                          Younes%Chekkoury-Idrissi%NULL%0,                          Stéphane%Hans%NULL%0,                          Irene Lopez%Delgado%NULL%0,                          Christian%Calvo-Henriquez%NULL%0,                          Philippe%Lavigne%NULL%0,                          Chiara%Falanga%NULL%0,                          Maria Rosaria%Barillari%NULL%0,                          Giovanni%Cammaroto%NULL%0,                          Mohamad%Khalife%NULL%0,                          Pierre%Leich%NULL%0,                          Christel%Souchay%NULL%0,                          Camelia%Rossi%NULL%0,                          Fabrice%Journe%NULL%0,                          Julien%Hsieh%NULL%0,                          Myriam%Edjlali%NULL%0,                          Robert%Carlier%NULL%0,                          Laurence%Ris%NULL%0,                          Andrea%Lovato%NULL%0,                          Cosimo%De Filippis%NULL%0,                          Frederique%Coppee%NULL%0,                          Nicolas%Fakhry%NULL%0,                          Tareck%Ayad%NULL%0,                          Sven%Saussez%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Cristina%Menni%null%1,                 Ana M.%Valdes%null%1,                 Maxim B.%Freidin%null%1,                 Carole H.%Sudre%null%1,                 Long H.%Nguyen%null%1,                 David A.%Drew%null%1,                 Sajaysurya%Ganesh%null%1,                 Thomas%Varsavsky%null%1,                 M. Jorge%Cardoso%null%1,                 Julia S.%El-Sayed Moustafa%null%1,                 Alessia%Visconti%null%1,                 Pirro%Hysi%null%1,                 Ruth C. E.%Bowyer%null%1,                 Massimo%Mangino%null%1,                 Mario%Falchi%null%1,                 Jonathan%Wolf%null%1,                 Sebastien%Ourselin%null%1,                 Andrew T.%Chan%null%1,                 Claire J.%Steves%null%1,                 Tim D.%Spector%null%1]</t>
+  </si>
+  <si>
+    <t>[Shima T.%Moein%NULL%1,                          Seyed MohammadReza%Hashemian%NULL%1,                          Babak%Mansourafshar%NULL%1,                          Ali%Khorram‐Tousi%NULL%1,                          Payam%Tabarsi%NULL%1,                          Richard L.%Doty%doty@pennmedicine.upenn.edu%1]</t>
+  </si>
+  <si>
+    <t>[Borsetto%Daniele%coreGivesNoEmail%1,                         Boscolo-Rizzo%Paolo%coreGivesNoEmail%1,                         Cazzador%Diego%coreGivesNoEmail%1,                         Fabbris%Cristoforo%coreGivesNoEmail%1,                         Hopkins%Claire%coreGivesNoEmail%1,                         Polesel%Jerry%coreGivesNoEmail%1,                         Spinato%Giacomo%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Alma%Tostmann%NULL%1,                          John%Bradley%NULL%2,                          John%Bradley%NULL%0,                          Teun%Bousema%NULL%2,                          Teun%Bousema%NULL%0,                          Wing-Kee%Yiek%NULL%2,                          Wing-Kee%Yiek%NULL%0,                          Minke%Holwerda%NULL%1,                          Chantal%Bleeker-Rovers%NULL%1,                          Jaap%ten Oever%NULL%1,                          Corianne%Meijer%NULL%2,                          Corianne%Meijer%NULL%0,                          Janette%Rahamat-Langendoen%NULL%1,                          Joost%Hopman%NULL%2,                          Joost%Hopman%NULL%0,                          Nannet%van der Geest-Blankert%NULL%1,                          Heiman%Wertheim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luigi Angelo%Vaira%luigi.vaira@gmail.com%0,                          Giovanna%Deiana%NULL%0,                          Giovanna%Deiana%NULL%0,                          Alessandro Giuseppe%Fois%NULL%1,                          Pietro%Pirina%NULL%0,                          Giordano%Madeddu%NULL%0,                          Andrea%De Vito%NULL%0,                          Sergio%Babudieri%NULL%0,                          Marzia%Petrocelli%NULL%0,                          Antonello%Serra%NULL%0,                          Francesco%Bussu%NULL%0,                          Enrica%Ligas%NULL%1,                          Giovanni%Salzano%NULL%0,                          Giacomo%De Riu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Liang En%Wee%ian.wee@mohh.com.sg%1,                          Yvonne Fu Zi%Chan%NULL%2,                          Yvonne Fu Zi%Chan%NULL%0,                          Neville Wei Yang%Teo%NULL%1,                          Benjamin Pei Zhi%Cherng%NULL%1,                          Siew Yee%Thien%NULL%1,                          Hei Man%Wong%NULL%1,                          Limin%Wijaya%NULL%1,                          Song Tar%Toh%NULL%1,                          Thuan Tong%Tan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,                          Farhoud%Faraji%NULL%0,                          Farhoud%Faraji%NULL%0,                          Divya P.%Prajapati%NULL%0,                          Divya P.%Prajapati%NULL%0,                          Christine E.%Boone%NULL%2,                          Christine E.%Boone%NULL%0,                          Adam S.%DeConde%NULL%0,                          Adam S.%DeConde%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,                           Farhoud%Faraji%NULL%0,                           Farhoud%Faraji%NULL%0,                           Divya P.%Prajapati%NULL%0,                           Benjamin T.%Ostrander%NULL%0,                           Adam S.%DeConde%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Á.%Beltrán‐Corbellini%beltran_corbellini@hotmail.com%0,                           J. L.%Chico‐García%NULL%0,                           J. L.%Chico‐García%NULL%0,                           J.%Martínez‐Poles%NULL%0,                           F.%Rodríguez‐Jorge%NULL%0,                           E.%Natera‐Villalba%NULL%0,                           J.%Gómez‐Corral%NULL%0,                           J.%Gómez‐Corral%NULL%0,                           A.%Gómez‐López%NULL%0,                           E.%Monreal%NULL%0,                           P.%Parra‐Díaz%NULL%0,                           J. L.%Cortés‐Cuevas%NULL%0,                           J. L.%Cortés‐Cuevas%NULL%0,                           J. C.%Galán%NULL%0,                           C.%Fragola‐Arnau%NULL%0,                           J.%Porta‐Etessam%NULL%0,                           J.%Masjuan%NULL%0,                           A.%Alonso‐Cánovas%NULL%0,                           A.%Alonso‐Cánovas%NULL%0]</t>
+  </si>
+  <si>
+    <t>[François%Bénézit%NULL%0,                           Paul%Le Turnier%NULL%0,                           Charles%Declerck%NULL%0,                           Cécile%Paillé%NULL%0,                           Matthieu%Revest%NULL%0,                           Vincent%Dubée%NULL%0,                           Pierre%Tattevin%pierre.tattevin@chu-rennes.fr%0,                           Cédric%Arvieux%NULL%0,                           Marion%Baldeyrou%NULL%0,                           Jean-Marc%Chapplain%NULL%0,                           Pauline%Comacle%NULL%0,                           Solène%Patrat-Delon%NULL%0,                           Anne%Maillard%NULL%0,                           Mélanie%Poinot%NULL%0,                           Charlotte%Pronier%NULL%0,                           Faouzi%Souala%NULL%0,                           Vincent%Thibault%NULL%0,                           Pierre%Abgueguen%NULL%0,                           Hélène%Cormier%NULL%0,                           Valérie%Delbos%NULL%0,                           Marine%de la Chapelle%NULL%0,                           Alexandra%Ducancelle%NULL%0,                           Rafael%Mahieu%NULL%0,                           Valérie%Rabier%NULL%0,                           Sami%Rehaiem%NULL%0,                           Yves%Vandamme%NULL%0,                           Charlotte%Biron%NULL%0,                           Jeanne%Brochon%NULL%0,                           David%Boutoille%NULL%0,                           Marie%Chauveau%NULL%0,                           Colin%Deschanvres%NULL%0,                           Benjamin J%Gaborit%NULL%0,                           Joël%Jenvrin%NULL%0,                           Raphaël%Lecomte%NULL%0,                           Maeva%Lefebvre%NULL%0,                           François%Raffi%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Andrea%Giacomelli%andrea.giacomelli@unimi.it%0,                           Laura%Pezzati%NULL%0,                           Laura%Pezzati%NULL%0,                           Federico%Conti%NULL%0,                           Dario%Bernacchia%NULL%0,                           Matteo%Siano%NULL%0,                           Letizia%Oreni%NULL%0,                           Stefano%Rusconi%NULL%0,                           Cristina%Gervasoni%NULL%0,                           Anna Lisa%Ridolfo%NULL%0,                           Giuliano%Rizzardini%NULL%0,                           Spinello%Antinori%NULL%0,                           Massimo%Galli%NULL%0,                           Massimo%Galli%NULL%0]</t>
+  </si>
+  <si>
+    <t>[T.%Klopfenstein%NULL%0,                           N.J.%Kadiane-Oussou%NULL%0,                           L.%Toko%NULL%0,                           P.-Y.%Royer%NULL%0,                           Q.%Lepiller%NULL%0,                           V.%Gendrin%NULL%0,                           S.%Zayet%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Jerome R.%Lechien%Jerome.Lechien@umons.ac.be%0,                           Carlos M.%Chiesa-Estomba%NULL%0,                           Daniele R.%De Siati%NULL%0,                           Mihaela%Horoi%NULL%0,                           Serge D.%Le Bon%NULL%0,                           Alexandra%Rodriguez%NULL%0,                           Didier%Dequanter%NULL%0,                           Serge%Blecic%NULL%0,                           Fahd%El Afia%NULL%0,                           Lea%Distinguin%NULL%0,                           Younes%Chekkoury-Idrissi%NULL%0,                           Stéphane%Hans%NULL%0,                           Irene Lopez%Delgado%NULL%0,                           Christian%Calvo-Henriquez%NULL%0,                           Philippe%Lavigne%NULL%0,                           Chiara%Falanga%NULL%0,                           Maria Rosaria%Barillari%NULL%0,                           Giovanni%Cammaroto%NULL%0,                           Mohamad%Khalife%NULL%0,                           Pierre%Leich%NULL%0,                           Christel%Souchay%NULL%0,                           Camelia%Rossi%NULL%0,                           Fabrice%Journe%NULL%0,                           Julien%Hsieh%NULL%0,                           Myriam%Edjlali%NULL%0,                           Robert%Carlier%NULL%0,                           Laurence%Ris%NULL%0,                           Andrea%Lovato%NULL%0,                           Cosimo%De Filippis%NULL%0,                           Frederique%Coppee%NULL%0,                           Nicolas%Fakhry%NULL%0,                           Tareck%Ayad%NULL%0,                           Sven%Saussez%NULL%0]</t>
+  </si>
+  <si>
+    <t>[ Cristina%Menni%null%1,                  Ana M.%Valdes%null%1,                  Maxim B.%Freidin%null%1,                  Carole H.%Sudre%null%1,                  Long H.%Nguyen%null%1,                  David A.%Drew%null%1,                  Sajaysurya%Ganesh%null%1,                  Thomas%Varsavsky%null%1,                  M. Jorge%Cardoso%null%1,                  Julia S.%El-Sayed Moustafa%null%1,                  Alessia%Visconti%null%1,                  Pirro%Hysi%null%1,                  Ruth C. E.%Bowyer%null%1,                  Massimo%Mangino%null%1,                  Mario%Falchi%null%1,                  Jonathan%Wolf%null%1,                  Sebastien%Ourselin%null%1,                  Andrew T.%Chan%null%1,                  Claire J.%Steves%null%1,                  Tim D.%Spector%null%1]</t>
+  </si>
+  <si>
+    <t>[Shima T.%Moein%NULL%1,                           Seyed MohammadReza%Hashemian%NULL%1,                           Babak%Mansourafshar%NULL%1,                           Ali%Khorram‐Tousi%NULL%1,                           Payam%Tabarsi%NULL%1,                           Richard L.%Doty%doty@pennmedicine.upenn.edu%1]</t>
+  </si>
+  <si>
+    <t>[Borsetto%Daniele%coreGivesNoEmail%1,                          Boscolo-Rizzo%Paolo%coreGivesNoEmail%1,                          Cazzador%Diego%coreGivesNoEmail%1,                          Fabbris%Cristoforo%coreGivesNoEmail%1,                          Hopkins%Claire%coreGivesNoEmail%1,                          Polesel%Jerry%coreGivesNoEmail%1,                          Spinato%Giacomo%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Alma%Tostmann%NULL%1,                           John%Bradley%NULL%2,                           John%Bradley%NULL%0,                           Teun%Bousema%NULL%2,                           Teun%Bousema%NULL%0,                           Wing-Kee%Yiek%NULL%2,                           Wing-Kee%Yiek%NULL%0,                           Minke%Holwerda%NULL%1,                           Chantal%Bleeker-Rovers%NULL%1,                           Jaap%ten Oever%NULL%1,                           Corianne%Meijer%NULL%2,                           Corianne%Meijer%NULL%0,                           Janette%Rahamat-Langendoen%NULL%1,                           Joost%Hopman%NULL%2,                           Joost%Hopman%NULL%0,                           Nannet%van der Geest-Blankert%NULL%1,                           Heiman%Wertheim%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Luigi Angelo%Vaira%luigi.vaira@gmail.com%0,                           Giovanna%Deiana%NULL%0,                           Giovanna%Deiana%NULL%0,                           Alessandro Giuseppe%Fois%NULL%1,                           Pietro%Pirina%NULL%0,                           Giordano%Madeddu%NULL%0,                           Andrea%De Vito%NULL%0,                           Sergio%Babudieri%NULL%0,                           Marzia%Petrocelli%NULL%0,                           Antonello%Serra%NULL%0,                           Francesco%Bussu%NULL%0,                           Enrica%Ligas%NULL%1,                           Giovanni%Salzano%NULL%0,                           Giacomo%De Riu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Liang En%Wee%ian.wee@mohh.com.sg%1,                           Yvonne Fu Zi%Chan%NULL%2,                           Yvonne Fu Zi%Chan%NULL%0,                           Neville Wei Yang%Teo%NULL%1,                           Benjamin Pei Zhi%Cherng%NULL%1,                           Siew Yee%Thien%NULL%1,                           Hei Man%Wong%NULL%1,                           Limin%Wijaya%NULL%1,                           Song Tar%Toh%NULL%1,                           Thuan Tong%Tan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carol H.%Yan%c1yan@health.ucsd.edu%0,                           Farhoud%Faraji%NULL%0,                           Farhoud%Faraji%NULL%0,                           Divya P.%Prajapati%NULL%0,                           Divya P.%Prajapati%NULL%0,                           Christine E.%Boone%NULL%2,                           Christine E.%Boone%NULL%0,                           Adam S.%DeConde%NULL%0,                           Adam S.%DeConde%NULL%0]</t>
   </si>
 </sst>
 </file>
@@ -1763,7 +1841,7 @@
         <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>414</v>
+        <v>440</v>
       </c>
       <c r="F2" t="s">
         <v>31</v>
@@ -1795,7 +1873,7 @@
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>415</v>
+        <v>441</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -1827,7 +1905,7 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>416</v>
+        <v>442</v>
       </c>
       <c r="F4" t="s">
         <v>42</v>
@@ -1859,7 +1937,7 @@
         <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="F5" t="s">
         <v>46</v>
@@ -1891,7 +1969,7 @@
         <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="F6" t="s">
         <v>50</v>
@@ -1923,7 +2001,7 @@
         <v>234</v>
       </c>
       <c r="E7" t="s">
-        <v>419</v>
+        <v>445</v>
       </c>
       <c r="F7" t="s">
         <v>55</v>
@@ -1955,7 +2033,7 @@
         <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="F8" t="s">
         <v>9</v>
@@ -1987,7 +2065,7 @@
         <v>221</v>
       </c>
       <c r="E9" t="s">
-        <v>420</v>
+        <v>446</v>
       </c>
       <c r="F9" t="s">
         <v>10</v>
@@ -2019,7 +2097,7 @@
         <v>63</v>
       </c>
       <c r="E10" t="s">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="F10" t="s">
         <v>65</v>
@@ -2051,7 +2129,7 @@
         <v>93</v>
       </c>
       <c r="E11" t="s">
-        <v>422</v>
+        <v>448</v>
       </c>
       <c r="F11" t="s">
         <v>12</v>
@@ -2083,7 +2161,7 @@
         <v>67</v>
       </c>
       <c r="E12" t="s">
-        <v>423</v>
+        <v>449</v>
       </c>
       <c r="F12" t="s">
         <v>69</v>
@@ -2115,7 +2193,7 @@
         <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>424</v>
+        <v>450</v>
       </c>
       <c r="F13" t="s">
         <v>73</v>
@@ -2147,7 +2225,7 @@
         <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>425</v>
+        <v>451</v>
       </c>
       <c r="F14" t="s">
         <v>77</v>
@@ -2179,7 +2257,7 @@
         <v>80</v>
       </c>
       <c r="E15" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
       <c r="F15" t="s">
         <v>82</v>
